--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_259.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_259.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32729-d1224488-Reviews-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>149</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Extended-Stay-America-Los-Angeles-Monrovia.h119177.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_259.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_259.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="681">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1975 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r557352931-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>32729</t>
+  </si>
+  <si>
+    <t>1224488</t>
+  </si>
+  <si>
+    <t>557352931</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>Could be better, could be worse</t>
+  </si>
+  <si>
+    <t>Needed to book a stay in Monrovia/Arcadia area for a recent family commitment. I searched Hotwire first as that's what I normally do when I need something inexpensive, but unfortunately there were no good deals for this past weekend. The cheapest was $70 - which was this hotel. $70 is pretty good, but I needed two beds in the room and that wasn't an option. I was finally able to get a two queen choice for a higher rate - $96/night. By the time I paid Hotwire fees and taxes, it worked out to around $114/night. I would pay that much for a 3/3.5 star hotel, but a 2 star for that price was a little hard to swallow. However, it was still the best deal in the area so I booked it. 
+I wasn't expecting much and didn't get much - the rooms are pretty bare bones, though it was clean. Because the rooms have full kitchens and people often cook in them, there was a lingering smell that never went away - even with the window open and fan blasting. It was kind of an overcooked pasta smell...not terrible, and definitely could have been worse (I even got an air freshener from my car...didn't help). The "breakfast" is pretty nonexistent, just granola bars, instant oatmeal, muffins, and coffee - though the coffee was pretty good. This is more than many hotels, of course - though I don't think...Needed to book a stay in Monrovia/Arcadia area for a recent family commitment. I searched Hotwire first as that's what I normally do when I need something inexpensive, but unfortunately there were no good deals for this past weekend. The cheapest was $70 - which was this hotel. $70 is pretty good, but I needed two beds in the room and that wasn't an option. I was finally able to get a two queen choice for a higher rate - $96/night. By the time I paid Hotwire fees and taxes, it worked out to around $114/night. I would pay that much for a 3/3.5 star hotel, but a 2 star for that price was a little hard to swallow. However, it was still the best deal in the area so I booked it. I wasn't expecting much and didn't get much - the rooms are pretty bare bones, though it was clean. Because the rooms have full kitchens and people often cook in them, there was a lingering smell that never went away - even with the window open and fan blasting. It was kind of an overcooked pasta smell...not terrible, and definitely could have been worse (I even got an air freshener from my car...didn't help). The "breakfast" is pretty nonexistent, just granola bars, instant oatmeal, muffins, and coffee - though the coffee was pretty good. This is more than many hotels, of course - though I don't think they should be able to advertise "breakfast" on third party sites like Hotwire, as there are no details given beyond that point, and this is really more of a snack.Overall, I have stayed in worse/less clean places, and the staff was helpful when I needed a downstairs room close to the door for my elderly mother I was traveling with. I wish the rate had been cheaper, but I was also willing to pay it to be in the area, which is right off the 210 and just a few minutes from Sierra Madre (where my family lives). We pretty much just slept there, so it did the job.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Needed to book a stay in Monrovia/Arcadia area for a recent family commitment. I searched Hotwire first as that's what I normally do when I need something inexpensive, but unfortunately there were no good deals for this past weekend. The cheapest was $70 - which was this hotel. $70 is pretty good, but I needed two beds in the room and that wasn't an option. I was finally able to get a two queen choice for a higher rate - $96/night. By the time I paid Hotwire fees and taxes, it worked out to around $114/night. I would pay that much for a 3/3.5 star hotel, but a 2 star for that price was a little hard to swallow. However, it was still the best deal in the area so I booked it. 
+I wasn't expecting much and didn't get much - the rooms are pretty bare bones, though it was clean. Because the rooms have full kitchens and people often cook in them, there was a lingering smell that never went away - even with the window open and fan blasting. It was kind of an overcooked pasta smell...not terrible, and definitely could have been worse (I even got an air freshener from my car...didn't help). The "breakfast" is pretty nonexistent, just granola bars, instant oatmeal, muffins, and coffee - though the coffee was pretty good. This is more than many hotels, of course - though I don't think...Needed to book a stay in Monrovia/Arcadia area for a recent family commitment. I searched Hotwire first as that's what I normally do when I need something inexpensive, but unfortunately there were no good deals for this past weekend. The cheapest was $70 - which was this hotel. $70 is pretty good, but I needed two beds in the room and that wasn't an option. I was finally able to get a two queen choice for a higher rate - $96/night. By the time I paid Hotwire fees and taxes, it worked out to around $114/night. I would pay that much for a 3/3.5 star hotel, but a 2 star for that price was a little hard to swallow. However, it was still the best deal in the area so I booked it. I wasn't expecting much and didn't get much - the rooms are pretty bare bones, though it was clean. Because the rooms have full kitchens and people often cook in them, there was a lingering smell that never went away - even with the window open and fan blasting. It was kind of an overcooked pasta smell...not terrible, and definitely could have been worse (I even got an air freshener from my car...didn't help). The "breakfast" is pretty nonexistent, just granola bars, instant oatmeal, muffins, and coffee - though the coffee was pretty good. This is more than many hotels, of course - though I don't think they should be able to advertise "breakfast" on third party sites like Hotwire, as there are no details given beyond that point, and this is really more of a snack.Overall, I have stayed in worse/less clean places, and the staff was helpful when I needed a downstairs room close to the door for my elderly mother I was traveling with. I wish the rate had been cheaper, but I was also willing to pay it to be in the area, which is right off the 210 and just a few minutes from Sierra Madre (where my family lives). We pretty much just slept there, so it did the job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r556486556-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>556486556</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t>Fulfilling Our Needs</t>
+  </si>
+  <si>
+    <t>After 4 months staying at Extended Stay in Monrovia, we are moving into our remodeled house.  We probably should have leased/rented a house for less money, but Extended Stay worked for us.  You can imagine all the stories we now have of staying in one place for so long.  The positive thing about this place is the staff.  They have a tough job.  There are a variety of people that stay here and they some how deal with them all in a respectful &amp; efficient way.  For us, we needed a place close to the construction of our house, long-term rates, a functional kitchen and a place for our dog.  I learned the first night that you have to run the stove vent fan &amp; open the windows or you will set off the fire alarm.  The refrigerator is full sized, the shower/bathroom is good.  The place is not pretty but functional.  There are grassy areas around the property for the dog with plastic bags in the back by the freeway.  It reminds me of a college dorm or hospital room, but it works.  The breakfast is just good coffee with granola bars but there are many places to eat close by.  The negative is that the WiFi is barely functional but we used our iPhones as Hotspots or used a MiFi.  Another negative, which you can't do anything about, is the  thick, sweet odor of pot smoked by the...After 4 months staying at Extended Stay in Monrovia, we are moving into our remodeled house.  We probably should have leased/rented a house for less money, but Extended Stay worked for us.  You can imagine all the stories we now have of staying in one place for so long.  The positive thing about this place is the staff.  They have a tough job.  There are a variety of people that stay here and they some how deal with them all in a respectful &amp; efficient way.  For us, we needed a place close to the construction of our house, long-term rates, a functional kitchen and a place for our dog.  I learned the first night that you have to run the stove vent fan &amp; open the windows or you will set off the fire alarm.  The refrigerator is full sized, the shower/bathroom is good.  The place is not pretty but functional.  There are grassy areas around the property for the dog with plastic bags in the back by the freeway.  It reminds me of a college dorm or hospital room, but it works.  The breakfast is just good coffee with granola bars but there are many places to eat close by.  The negative is that the WiFi is barely functional but we used our iPhones as Hotspots or used a MiFi.  Another negative, which you can't do anything about, is the  thick, sweet odor of pot smoked by the variety of guests.  Even though there are no smoking signs all over the place, I guess some people don't consider smoking dope as smoking.  So it is not a five star garden spot but it fulfills the needs.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded January 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2018</t>
+  </si>
+  <si>
+    <t>After 4 months staying at Extended Stay in Monrovia, we are moving into our remodeled house.  We probably should have leased/rented a house for less money, but Extended Stay worked for us.  You can imagine all the stories we now have of staying in one place for so long.  The positive thing about this place is the staff.  They have a tough job.  There are a variety of people that stay here and they some how deal with them all in a respectful &amp; efficient way.  For us, we needed a place close to the construction of our house, long-term rates, a functional kitchen and a place for our dog.  I learned the first night that you have to run the stove vent fan &amp; open the windows or you will set off the fire alarm.  The refrigerator is full sized, the shower/bathroom is good.  The place is not pretty but functional.  There are grassy areas around the property for the dog with plastic bags in the back by the freeway.  It reminds me of a college dorm or hospital room, but it works.  The breakfast is just good coffee with granola bars but there are many places to eat close by.  The negative is that the WiFi is barely functional but we used our iPhones as Hotspots or used a MiFi.  Another negative, which you can't do anything about, is the  thick, sweet odor of pot smoked by the...After 4 months staying at Extended Stay in Monrovia, we are moving into our remodeled house.  We probably should have leased/rented a house for less money, but Extended Stay worked for us.  You can imagine all the stories we now have of staying in one place for so long.  The positive thing about this place is the staff.  They have a tough job.  There are a variety of people that stay here and they some how deal with them all in a respectful &amp; efficient way.  For us, we needed a place close to the construction of our house, long-term rates, a functional kitchen and a place for our dog.  I learned the first night that you have to run the stove vent fan &amp; open the windows or you will set off the fire alarm.  The refrigerator is full sized, the shower/bathroom is good.  The place is not pretty but functional.  There are grassy areas around the property for the dog with plastic bags in the back by the freeway.  It reminds me of a college dorm or hospital room, but it works.  The breakfast is just good coffee with granola bars but there are many places to eat close by.  The negative is that the WiFi is barely functional but we used our iPhones as Hotspots or used a MiFi.  Another negative, which you can't do anything about, is the  thick, sweet odor of pot smoked by the variety of guests.  Even though there are no smoking signs all over the place, I guess some people don't consider smoking dope as smoking.  So it is not a five star garden spot but it fulfills the needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r552378793-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>552378793</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>Confirmation is a joke</t>
+  </si>
+  <si>
+    <t>Although reservation was confirmed through the property, they overbooked and did not have a room for us.  I confirmed TWICE, once before leaving FL and again when landing in Phoenix.  Horrible communication between reservations and clerks.  Only excuse was "I'm sorry, I don't know what they told you this morning".MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Although reservation was confirmed through the property, they overbooked and did not have a room for us.  I confirmed TWICE, once before leaving FL and again when landing in Phoenix.  Horrible communication between reservations and clerks.  Only excuse was "I'm sorry, I don't know what they told you this morning".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r548365854-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>548365854</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>AAARRRGGGHHHH!!!</t>
+  </si>
+  <si>
+    <t>I had the great misfortune to be put here by my company on a recent business visit.
+I was booked in for five nights. The first night I arrived late, so just hit the sack. The next morning I discovered that "Breakfast" consisted of one coffee machine and a tray of cereal bars, and the coffee machine only worked on three out of the five mornings I endured here. 
+I was disappointed.
+The second night I arrived with enough time to look around the Hotel, that didn't take long, this is somewhere that you sleep and go.
+The saving grace of this Hotel is that there are plenty of dining options close by, within walking distance. Which is a bit like saying my clapped out old wreck of a car is OK because I can take a nice taxi.
+The staff are laid back to the point of total inactivity, my room was NEVER cleaned, not even once during my stay, when I complained after the second night I was moved to another room, which was also never cleaned.
+One night I arrived in my room to find it completely bare of my possessions. I rang the desk to report that everything I owned had been stolen, when they replied "Oh, we thought you'd checked out, its all down here!" they had bundled my belongings into a big plastic sack and put them in a store room. No compensation offered....I had the great misfortune to be put here by my company on a recent business visit.I was booked in for five nights. The first night I arrived late, so just hit the sack. The next morning I discovered that "Breakfast" consisted of one coffee machine and a tray of cereal bars, and the coffee machine only worked on three out of the five mornings I endured here. I was disappointed.The second night I arrived with enough time to look around the Hotel, that didn't take long, this is somewhere that you sleep and go.The saving grace of this Hotel is that there are plenty of dining options close by, within walking distance. Which is a bit like saying my clapped out old wreck of a car is OK because I can take a nice taxi.The staff are laid back to the point of total inactivity, my room was NEVER cleaned, not even once during my stay, when I complained after the second night I was moved to another room, which was also never cleaned.One night I arrived in my room to find it completely bare of my possessions. I rang the desk to report that everything I owned had been stolen, when they replied "Oh, we thought you'd checked out, its all down here!" they had bundled my belongings into a big plastic sack and put them in a store room. No compensation offered.I stuck it out on principle, but I would highly recommend anyone thinking about a room here to think again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded December 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2017</t>
+  </si>
+  <si>
+    <t>I had the great misfortune to be put here by my company on a recent business visit.
+I was booked in for five nights. The first night I arrived late, so just hit the sack. The next morning I discovered that "Breakfast" consisted of one coffee machine and a tray of cereal bars, and the coffee machine only worked on three out of the five mornings I endured here. 
+I was disappointed.
+The second night I arrived with enough time to look around the Hotel, that didn't take long, this is somewhere that you sleep and go.
+The saving grace of this Hotel is that there are plenty of dining options close by, within walking distance. Which is a bit like saying my clapped out old wreck of a car is OK because I can take a nice taxi.
+The staff are laid back to the point of total inactivity, my room was NEVER cleaned, not even once during my stay, when I complained after the second night I was moved to another room, which was also never cleaned.
+One night I arrived in my room to find it completely bare of my possessions. I rang the desk to report that everything I owned had been stolen, when they replied "Oh, we thought you'd checked out, its all down here!" they had bundled my belongings into a big plastic sack and put them in a store room. No compensation offered....I had the great misfortune to be put here by my company on a recent business visit.I was booked in for five nights. The first night I arrived late, so just hit the sack. The next morning I discovered that "Breakfast" consisted of one coffee machine and a tray of cereal bars, and the coffee machine only worked on three out of the five mornings I endured here. I was disappointed.The second night I arrived with enough time to look around the Hotel, that didn't take long, this is somewhere that you sleep and go.The saving grace of this Hotel is that there are plenty of dining options close by, within walking distance. Which is a bit like saying my clapped out old wreck of a car is OK because I can take a nice taxi.The staff are laid back to the point of total inactivity, my room was NEVER cleaned, not even once during my stay, when I complained after the second night I was moved to another room, which was also never cleaned.One night I arrived in my room to find it completely bare of my possessions. I rang the desk to report that everything I owned had been stolen, when they replied "Oh, we thought you'd checked out, its all down here!" they had bundled my belongings into a big plastic sack and put them in a store room. No compensation offered.I stuck it out on principle, but I would highly recommend anyone thinking about a room here to think again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r546741347-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>546741347</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>Wouldn’t stay here again</t>
+  </si>
+  <si>
+    <t>We stayed in a room with a kitchen which was convenient but as soon as we walked on our floor the entire hallway smelled like fish. Maybe there should be a rule that you can’t cook fish in your hotel room because every single room will smell like it, super gross. The bed was so hard I felt like i was sleeping on the floor. I woke up the next morning super sore from sleeping on that uncomfortable bed. The only good thing I have to say about this place was that the water pressure in the bathroom was great. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded December 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2017</t>
+  </si>
+  <si>
+    <t>We stayed in a room with a kitchen which was convenient but as soon as we walked on our floor the entire hallway smelled like fish. Maybe there should be a rule that you can’t cook fish in your hotel room because every single room will smell like it, super gross. The bed was so hard I felt like i was sleeping on the floor. I woke up the next morning super sore from sleeping on that uncomfortable bed. The only good thing I have to say about this place was that the water pressure in the bathroom was great. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r546322355-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>546322355</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>Average quality but reasonable price</t>
+  </si>
+  <si>
+    <t>Stayed here for a few days. Convenient location for sure but the building and fixtures were rather old. Cleanliness average. Service was pretty minimal but acceptable. Willing to stay here again if no other viable choice nearby. Main attraction is the reasonable rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded December 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for a few days. Convenient location for sure but the building and fixtures were rather old. Cleanliness average. Service was pretty minimal but acceptable. Willing to stay here again if no other viable choice nearby. Main attraction is the reasonable rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r531448321-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>531448321</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Very nice clean place to stay.</t>
+  </si>
+  <si>
+    <t>The hotel and the rooms were very clean parking lot very clean well-lit. The staff was extremely friendly and helpful. Will definitely stay here again great value before the price. Really enjoyed our stayMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2017</t>
+  </si>
+  <si>
+    <t>The hotel and the rooms were very clean parking lot very clean well-lit. The staff was extremely friendly and helpful. Will definitely stay here again great value before the price. Really enjoyed our stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r531582608-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>531582608</t>
+  </si>
+  <si>
+    <t>Just What I Wanted</t>
+  </si>
+  <si>
+    <t>Just right for a single guy traveling with a dog and a show car.  Comfortable bed, good heating and cooling, excellent shower, adequate parking for car and trailer, landscaping was friendly for dog walking and the kitchen was like new.  "Grab and Go" breakfast was a light on options (oatmeal and energy bars, but no fruit).  Glad I had food left over from the handy restaurants on the same property.  Noise from adjacent freeway was not noticeable.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Just right for a single guy traveling with a dog and a show car.  Comfortable bed, good heating and cooling, excellent shower, adequate parking for car and trailer, landscaping was friendly for dog walking and the kitchen was like new.  "Grab and Go" breakfast was a light on options (oatmeal and energy bars, but no fruit).  Glad I had food left over from the handy restaurants on the same property.  Noise from adjacent freeway was not noticeable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r529631275-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>529631275</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Home away Home</t>
+  </si>
+  <si>
+    <t>Hotel was clean and staff were attentive. Picnic tables available with shade and trees to get out of the room for fresh air. Walking distance to shopping and restaurants. The "Grab and Go" breakfast is quick and easy to fix on your way out to meetings/work/leisure. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Hotel was clean and staff were attentive. Picnic tables available with shade and trees to get out of the room for fresh air. Walking distance to shopping and restaurants. The "Grab and Go" breakfast is quick and easy to fix on your way out to meetings/work/leisure. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r507571570-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>507571570</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>The worst Hotel Stay of my life</t>
+  </si>
+  <si>
+    <t>Run, dont walk away from booking at this location. Too many problems to enumerate here and I am worn out from how long i had to type my review on the company's portal. The staff is apathetic, rude and combative in their demeanor. They are right... The customer... Never!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Run, dont walk away from booking at this location. Too many problems to enumerate here and I am worn out from how long i had to type my review on the company's portal. The staff is apathetic, rude and combative in their demeanor. They are right... The customer... Never!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r505794523-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>505794523</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Summer Camp</t>
+  </si>
+  <si>
+    <t>The corner of the bed was broken, so the mattress leaned to the left corner. The blankets were very itchy and uncomfortable, we went out and bought our own. The bed seemed to block the air conditioning so the room felt kind of stuffy at times. Location was great and it was next to everything. I would definitely stay here again because of the value.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>The corner of the bed was broken, so the mattress leaned to the left corner. The blankets were very itchy and uncomfortable, we went out and bought our own. The bed seemed to block the air conditioning so the room felt kind of stuffy at times. Location was great and it was next to everything. I would definitely stay here again because of the value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r504652418-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>504652418</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Good hotel to stay</t>
+  </si>
+  <si>
+    <t>Good hotel to stay for the price with Kitchen and easy access to stores nearby.  Love to stay at extended stay.  Really good for a family trip.  Would be great if more option are added for breakfast.  I stayed at different location  were they used to have fruits.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded July 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2017</t>
+  </si>
+  <si>
+    <t>Good hotel to stay for the price with Kitchen and easy access to stores nearby.  Love to stay at extended stay.  Really good for a family trip.  Would be great if more option are added for breakfast.  I stayed at different location  were they used to have fruits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r500405544-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>500405544</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Not so good</t>
+  </si>
+  <si>
+    <t>I don't normally leave reviews but after today I am compelled. I booked my 2 day stay thru Expedia to attend a business conference. During the morning of day one I called by Rosie that I needed to return to check out. She was soooo rude - didn't listen to what I was trying to say - insisted there was nothing she could do. So rude. I asked for the manager and was quickly told there was nothing she could do and she was on a conference call. After I raised my voice to force Rosie to listen I gave her my confirmation number.  She acted like this was my problem and that I didn't pay for the 2nd night. Complete nightmare. I called Expedia who assures me it was on their end and they faxed a paper to Rosie to confirm my paid stay. As for the hotel - the rooms are ok but the beds a old - like really old. Hard and very uncomfortable. I've had better mattresses at lower chains. For amount of money per night - one would think a nice bed would be included. I think I'll stay away from this chain of hotels. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>I don't normally leave reviews but after today I am compelled. I booked my 2 day stay thru Expedia to attend a business conference. During the morning of day one I called by Rosie that I needed to return to check out. She was soooo rude - didn't listen to what I was trying to say - insisted there was nothing she could do. So rude. I asked for the manager and was quickly told there was nothing she could do and she was on a conference call. After I raised my voice to force Rosie to listen I gave her my confirmation number.  She acted like this was my problem and that I didn't pay for the 2nd night. Complete nightmare. I called Expedia who assures me it was on their end and they faxed a paper to Rosie to confirm my paid stay. As for the hotel - the rooms are ok but the beds a old - like really old. Hard and very uncomfortable. I've had better mattresses at lower chains. For amount of money per night - one would think a nice bed would be included. I think I'll stay away from this chain of hotels. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r499306863-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>499306863</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Where not to stay</t>
+  </si>
+  <si>
+    <t>If you want good night sleep, go some where else.  The air condition is loud and next to the bed. It will be noisy and cold at night. I Couldn't believe they can have a room layout the way it is. The staffs is polite and helpful but don't expect any help since nothing they can do.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded July 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2017</t>
+  </si>
+  <si>
+    <t>If you want good night sleep, go some where else.  The air condition is loud and next to the bed. It will be noisy and cold at night. I Couldn't believe they can have a room layout the way it is. The staffs is polite and helpful but don't expect any help since nothing they can do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r498877179-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>498877179</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Thank you, but no thanks</t>
+  </si>
+  <si>
+    <t>We were a family of four, The nice thing that I can say about the hotel is that the beds were somewhat comfortable and the hotel was quiet for the most part if, you don't mind the dogs barking. I would pay the extra money for another hotel. Lesson learnedMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>We were a family of four, The nice thing that I can say about the hotel is that the beds were somewhat comfortable and the hotel was quiet for the most part if, you don't mind the dogs barking. I would pay the extra money for another hotel. Lesson learnedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r497586659-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>497586659</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Sucked</t>
+  </si>
+  <si>
+    <t>Don't stay here. It was a complete mess. I had to go down four times for a new card because it was not working to enter my room. Our feet turned black after moments of walking barefoot. For 134 I found a much better cleanly hotel to stay at. Very disappointed. Wound up traveling to the ghetto of Oxnard and had a much better experience at a best western.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Don't stay here. It was a complete mess. I had to go down four times for a new card because it was not working to enter my room. Our feet turned black after moments of walking barefoot. For 134 I found a much better cleanly hotel to stay at. Very disappointed. Wound up traveling to the ghetto of Oxnard and had a much better experience at a best western.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r494269433-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>494269433</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Horrible experience</t>
+  </si>
+  <si>
+    <t>Bad customer service. First time with the extended stay hotel with my family. The room had a broken hair dryer, while the kitchen was missing basic essentials such as pots, pans, plates, utensils and dish washing soap. Will never patronize again. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Bad customer service. First time with the extended stay hotel with my family. The room had a broken hair dryer, while the kitchen was missing basic essentials such as pots, pans, plates, utensils and dish washing soap. Will never patronize again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r493273958-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>493273958</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>Ok for the price</t>
+  </si>
+  <si>
+    <t>Hair dryer didn't work, early morning wake up knock on the door for "smoke" yet the person didn't actually enter the room once I opened the door. I'm not talking about fire, but cigarette smoke.  We don't smoke but apparently someone in the hotel must have so they decided to inconvenience everyone. Gum or something stuck on the carpet, no toiletries. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Hair dryer didn't work, early morning wake up knock on the door for "smoke" yet the person didn't actually enter the room once I opened the door. I'm not talking about fire, but cigarette smoke.  We don't smoke but apparently someone in the hotel must have so they decided to inconvenience everyone. Gum or something stuck on the carpet, no toiletries. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r471279261-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>471279261</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Poor Hotel Policies Saved by Good Employee</t>
+  </si>
+  <si>
+    <t>I was traveling on business and booked several days in advance through our Corporate Lodging Account.  Because I like to be double sure, I also called and confirmed the reservation directly with the Hotel reservation staff the same day.Alas, when I arrived I was told my reservation was cancelled due to it being after 6pm and no credit card on file (I was never asked for one since it was booked through a corporate lodging account).  I told the check in clerk (Jessica) that this was a terrible policy if the hotel wants to have return guests.   Information on policies needs to be communicated upfront at the time of reservation confirmation, not after the fact.  To her credit, she agreed and apologized and was very professional and patient, even while training a new employee.  My general impression of my first time stay with ESOA is that they do not prioritize short term stay guests and are okay with alienating them from future stays to focus on the longer term clientele.Whomever the manager of this hotel is should commend Jessica for taking a train wreck experience and handling it like a pro.  She deserves better and so do I.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded March 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2017</t>
+  </si>
+  <si>
+    <t>I was traveling on business and booked several days in advance through our Corporate Lodging Account.  Because I like to be double sure, I also called and confirmed the reservation directly with the Hotel reservation staff the same day.Alas, when I arrived I was told my reservation was cancelled due to it being after 6pm and no credit card on file (I was never asked for one since it was booked through a corporate lodging account).  I told the check in clerk (Jessica) that this was a terrible policy if the hotel wants to have return guests.   Information on policies needs to be communicated upfront at the time of reservation confirmation, not after the fact.  To her credit, she agreed and apologized and was very professional and patient, even while training a new employee.  My general impression of my first time stay with ESOA is that they do not prioritize short term stay guests and are okay with alienating them from future stays to focus on the longer term clientele.Whomever the manager of this hotel is should commend Jessica for taking a train wreck experience and handling it like a pro.  She deserves better and so do I.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r459869137-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>459869137</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Fine for one night...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here the night before the Rosebowl Parade... it's walking distance to the Monrovia train station so that is why we picked it.  The room was fine, clean, adequate.  Only some granola bars and packaged muffins for breakfast.  No one was at the front desk in the am for us to confirm checkout.  </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r457636220-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>457636220</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>POOR STAFFING, NO BREAKFAST</t>
+  </si>
+  <si>
+    <t>When I arrived the two front desk people were having a conversation, they BOTH ignored me, and continued talking about their "night" plans.  Finally after a minute of standing there one looked at me, and looked at me like "well."  NO greeting, no hello, nothing.  Than as she was "helping" me, they continued their conversation.  At one point I had to ask, "are you talking to me?" Ahh NO!Their breakfast is a JOKE.  It does not even qualify as a continental breakfast.  IT has coffee, hot water for tea, pre packaged muffins, granola bars, and packaged oatmeal that you add hot water to.  THATS IT.  No juice, no fruit, no milk, no cereal!  To call this a breakfast is a JOKE!This hotel accepts dogs, and in the middle of the night a couple started barking, and nobody took care of it.  It took me 10 tries to find somebody so I could check out.  There is one guy in the mornings, and there is always a sign at desk saying, "helping other guests, check later"  I finally saw him in the back, and said that I was leaving room, and left my room key and number sitting at the front desk.I got this hotel on a discount website, AND even then I would not stay here again.  The rooms are fine, the location good for restaurants, but other than that very poor.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>When I arrived the two front desk people were having a conversation, they BOTH ignored me, and continued talking about their "night" plans.  Finally after a minute of standing there one looked at me, and looked at me like "well."  NO greeting, no hello, nothing.  Than as she was "helping" me, they continued their conversation.  At one point I had to ask, "are you talking to me?" Ahh NO!Their breakfast is a JOKE.  It does not even qualify as a continental breakfast.  IT has coffee, hot water for tea, pre packaged muffins, granola bars, and packaged oatmeal that you add hot water to.  THATS IT.  No juice, no fruit, no milk, no cereal!  To call this a breakfast is a JOKE!This hotel accepts dogs, and in the middle of the night a couple started barking, and nobody took care of it.  It took me 10 tries to find somebody so I could check out.  There is one guy in the mornings, and there is always a sign at desk saying, "helping other guests, check later"  I finally saw him in the back, and said that I was leaving room, and left my room key and number sitting at the front desk.I got this hotel on a discount website, AND even then I would not stay here again.  The rooms are fine, the location good for restaurants, but other than that very poor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r430342482-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>430342482</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>One sister two dogs</t>
+  </si>
+  <si>
+    <t>We were traveling for my 50th class reunion and this hotel was close to were the event was and allowed dogs.  The check in was good and the clerk was quick and was able to answer my question and knew who I was.  I had requested early check in.  The grounds were neat and clean, lobby and desk area also, clerk knew what she was doing.  They were doing some remodeling but you couldn't tell because there wasn't any noise or mess about.  The halls were all clean, our room was clean so was the bathroom.  What we liked about the room were the floors.  This is the first hotel we have been in that had laminate floors perfect for pets.  Our dogs are non shedding and paper trained but they are still dogs so the messes were easy cleaned and kept to a few.  I don't think the dogs liked the floors they could hear their toenails on them.  Our room was quiet.  The only time we heard any noise was when we walked down the hall then all the dogs on the floor would start barking but they are dogs and what do your expect.  We made arrangements to have our trash picked up everyday which we appreciated and cost us $3, we have found we are trashy, the cost was just fine.  We would tell the desk clerk every morning when we left and it was picked...We were traveling for my 50th class reunion and this hotel was close to were the event was and allowed dogs.  The check in was good and the clerk was quick and was able to answer my question and knew who I was.  I had requested early check in.  The grounds were neat and clean, lobby and desk area also, clerk knew what she was doing.  They were doing some remodeling but you couldn't tell because there wasn't any noise or mess about.  The halls were all clean, our room was clean so was the bathroom.  What we liked about the room were the floors.  This is the first hotel we have been in that had laminate floors perfect for pets.  Our dogs are non shedding and paper trained but they are still dogs so the messes were easy cleaned and kept to a few.  I don't think the dogs liked the floors they could hear their toenails on them.  Our room was quiet.  The only time we heard any noise was when we walked down the hall then all the dogs on the floor would start barking but they are dogs and what do your expect.  We made arrangements to have our trash picked up everyday which we appreciated and cost us $3, we have found we are trashy, the cost was just fine.  We would tell the desk clerk every morning when we left and it was picked up before we got back in the afternoon.  On Sunday our last day I told the desk clerk and she said they didn't have trash pick up and I said I paid for it and she had to look it.  Once she saw that I had she said okay.  We weren't gone as long on Sunday so our trash was picked up late, our last day, and the same desk clerk raised her voice at us and said that we were suppose to check out and I said no we were there until Monday morning as we walked through the lobby.  I found this clerk and our last day to be the worse day of our trip.  Because of this clerk everyone missed out on a tip and we are very generous with tipping on this trip no one earned a tip.  I find when traveling that clerks need to tend to the customers at the front desk first, phones should be answered by someone else.  A paying customer is more important than someone who may or may not be a paying customer also everyone should know the rules of the house.  Everything had been going just fine until we had to deal with this one clerk, we will not be staying at this hotel again.  Property was fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>We were traveling for my 50th class reunion and this hotel was close to were the event was and allowed dogs.  The check in was good and the clerk was quick and was able to answer my question and knew who I was.  I had requested early check in.  The grounds were neat and clean, lobby and desk area also, clerk knew what she was doing.  They were doing some remodeling but you couldn't tell because there wasn't any noise or mess about.  The halls were all clean, our room was clean so was the bathroom.  What we liked about the room were the floors.  This is the first hotel we have been in that had laminate floors perfect for pets.  Our dogs are non shedding and paper trained but they are still dogs so the messes were easy cleaned and kept to a few.  I don't think the dogs liked the floors they could hear their toenails on them.  Our room was quiet.  The only time we heard any noise was when we walked down the hall then all the dogs on the floor would start barking but they are dogs and what do your expect.  We made arrangements to have our trash picked up everyday which we appreciated and cost us $3, we have found we are trashy, the cost was just fine.  We would tell the desk clerk every morning when we left and it was picked...We were traveling for my 50th class reunion and this hotel was close to were the event was and allowed dogs.  The check in was good and the clerk was quick and was able to answer my question and knew who I was.  I had requested early check in.  The grounds were neat and clean, lobby and desk area also, clerk knew what she was doing.  They were doing some remodeling but you couldn't tell because there wasn't any noise or mess about.  The halls were all clean, our room was clean so was the bathroom.  What we liked about the room were the floors.  This is the first hotel we have been in that had laminate floors perfect for pets.  Our dogs are non shedding and paper trained but they are still dogs so the messes were easy cleaned and kept to a few.  I don't think the dogs liked the floors they could hear their toenails on them.  Our room was quiet.  The only time we heard any noise was when we walked down the hall then all the dogs on the floor would start barking but they are dogs and what do your expect.  We made arrangements to have our trash picked up everyday which we appreciated and cost us $3, we have found we are trashy, the cost was just fine.  We would tell the desk clerk every morning when we left and it was picked up before we got back in the afternoon.  On Sunday our last day I told the desk clerk and she said they didn't have trash pick up and I said I paid for it and she had to look it.  Once she saw that I had she said okay.  We weren't gone as long on Sunday so our trash was picked up late, our last day, and the same desk clerk raised her voice at us and said that we were suppose to check out and I said no we were there until Monday morning as we walked through the lobby.  I found this clerk and our last day to be the worse day of our trip.  Because of this clerk everyone missed out on a tip and we are very generous with tipping on this trip no one earned a tip.  I find when traveling that clerks need to tend to the customers at the front desk first, phones should be answered by someone else.  A paying customer is more important than someone who may or may not be a paying customer also everyone should know the rules of the house.  Everything had been going just fine until we had to deal with this one clerk, we will not be staying at this hotel again.  Property was fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r427388849-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>427388849</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>It's an okay place to stay</t>
+  </si>
+  <si>
+    <t>This place is very reasonably priced and allows pets.  Stayed there for just a few days while the house was being fumigated and it was fine. Because it has a full kitchen it's good for, yes, extended stays.  The room was fair.  We had two cats and their food ended full of ants.  The room had a musty smell that we masked with air fresheners.  It's quiet, the king bed was fine - it sagged a bit in the middle but was still comfortable, and the staff was helpful.  The "breakfast" is anything but - coffee, hot chocolate, muffins and a couple of granola bars.  It's well located, right off the freeway and near many restaurants.  It is definitely average, nothing more.  Very utilitarian.MoreShow less</t>
+  </si>
+  <si>
+    <t>This place is very reasonably priced and allows pets.  Stayed there for just a few days while the house was being fumigated and it was fine. Because it has a full kitchen it's good for, yes, extended stays.  The room was fair.  We had two cats and their food ended full of ants.  The room had a musty smell that we masked with air fresheners.  It's quiet, the king bed was fine - it sagged a bit in the middle but was still comfortable, and the staff was helpful.  The "breakfast" is anything but - coffee, hot chocolate, muffins and a couple of granola bars.  It's well located, right off the freeway and near many restaurants.  It is definitely average, nothing more.  Very utilitarian.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r404775942-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>404775942</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great little hotel </t>
+  </si>
+  <si>
+    <t>This hotel reminds me a little bit of a motel, but it's terrific. The rooms are clean and with a kitchen. The front desk staff Andrea is super friendly and pleasant, even goes above and beyond to make sure stay is always great. Walking distance to many restaurants and shopping centers. Only downfall need to reserve in advance or most likely no rooms will be available. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded August 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2016</t>
+  </si>
+  <si>
+    <t>This hotel reminds me a little bit of a motel, but it's terrific. The rooms are clean and with a kitchen. The front desk staff Andrea is super friendly and pleasant, even goes above and beyond to make sure stay is always great. Walking distance to many restaurants and shopping centers. Only downfall need to reserve in advance or most likely no rooms will be available. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r377049898-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>377049898</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t>Enjoyed it</t>
+  </si>
+  <si>
+    <t>It was a very enjoyable stay..... Room was clean, bed was comfy and the staff was professional and pleasant...... In the future I will make sure to continue to book here and I will recommend ESA Monrovia hotel to all my family and friends......MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2016</t>
+  </si>
+  <si>
+    <t>It was a very enjoyable stay..... Room was clean, bed was comfy and the staff was professional and pleasant...... In the future I will make sure to continue to book here and I will recommend ESA Monrovia hotel to all my family and friends......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r370773353-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>370773353</t>
+  </si>
+  <si>
+    <t>05/06/2016</t>
+  </si>
+  <si>
+    <t>good location!</t>
+  </si>
+  <si>
+    <t>Me and my husband came on april 2016 for 8 nights.
+I really love that it is close to the freeway entrance, very convenient.
+The neighborhood is cute and there are a lot of restaurants near: red lobster, outback, buffet...
+I really love the outside look of the building.
+We arrive a little bit early of the regular check-in time, but the young lady was super kind and very informative. Our check-in was less than 5 minutes and she told us all the instructions we need to know such as if we need ustensils for our kitchenette, WIFI, etc.. and she gave us our keys.
+I've already send them some requests such as our room to be close to the elevator and 1st floor.
+We were at the ground floor 3 rooms away from the Lobby, it was really near from the entrance, i was really okay with that :)
+We enter the room, i first looked at the Kitchenette and the fridge and everything was clean. The only complain i would give is that the fridge makes a lot of noise.
+I went into the bathroom, and it was also clean to me at first sight, but looking at the curtains i found some rust stain and some molds on the tiles and the fan is really loud a little bit depleasant to be honest. But we had enough towels the toilet and the sink was clean, no dust...Me and my husband came on april 2016 for 8 nights.I really love that it is close to the freeway entrance, very convenient.The neighborhood is cute and there are a lot of restaurants near: red lobster, outback, buffet...I really love the outside look of the building.We arrive a little bit early of the regular check-in time, but the young lady was super kind and very informative. Our check-in was less than 5 minutes and she told us all the instructions we need to know such as if we need ustensils for our kitchenette, WIFI, etc.. and she gave us our keys.I've already send them some requests such as our room to be close to the elevator and 1st floor.We were at the ground floor 3 rooms away from the Lobby, it was really near from the entrance, i was really okay with that :)We enter the room, i first looked at the Kitchenette and the fridge and everything was clean. The only complain i would give is that the fridge makes a lot of noise.I went into the bathroom, and it was also clean to me at first sight, but looking at the curtains i found some rust stain and some molds on the tiles and the fan is really loud a little bit depleasant to be honest. But we had enough towels the toilet and the sink was clean, no dust on the floor, OK!And then the bedroom! very large, we had a large closet with an iron and iron board inside, the rug was clean, no dust on the furnitures.My complains: The bed was not comfortable, the AC was really noisy.To summarise, our journey was okay exept for the AC+fridge and Fan which are really loud, i think you should really make some changes about this!Am i returning in this hotel? Yes! It is really convenient and very well located.It migh need some attention about cleanliness of the bathroom but it was ok.Do i recommend this hotel? For what i paid, YES! I paid aprox 97$ per night.I don't regret it!Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded May 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2016</t>
+  </si>
+  <si>
+    <t>Me and my husband came on april 2016 for 8 nights.
+I really love that it is close to the freeway entrance, very convenient.
+The neighborhood is cute and there are a lot of restaurants near: red lobster, outback, buffet...
+I really love the outside look of the building.
+We arrive a little bit early of the regular check-in time, but the young lady was super kind and very informative. Our check-in was less than 5 minutes and she told us all the instructions we need to know such as if we need ustensils for our kitchenette, WIFI, etc.. and she gave us our keys.
+I've already send them some requests such as our room to be close to the elevator and 1st floor.
+We were at the ground floor 3 rooms away from the Lobby, it was really near from the entrance, i was really okay with that :)
+We enter the room, i first looked at the Kitchenette and the fridge and everything was clean. The only complain i would give is that the fridge makes a lot of noise.
+I went into the bathroom, and it was also clean to me at first sight, but looking at the curtains i found some rust stain and some molds on the tiles and the fan is really loud a little bit depleasant to be honest. But we had enough towels the toilet and the sink was clean, no dust...Me and my husband came on april 2016 for 8 nights.I really love that it is close to the freeway entrance, very convenient.The neighborhood is cute and there are a lot of restaurants near: red lobster, outback, buffet...I really love the outside look of the building.We arrive a little bit early of the regular check-in time, but the young lady was super kind and very informative. Our check-in was less than 5 minutes and she told us all the instructions we need to know such as if we need ustensils for our kitchenette, WIFI, etc.. and she gave us our keys.I've already send them some requests such as our room to be close to the elevator and 1st floor.We were at the ground floor 3 rooms away from the Lobby, it was really near from the entrance, i was really okay with that :)We enter the room, i first looked at the Kitchenette and the fridge and everything was clean. The only complain i would give is that the fridge makes a lot of noise.I went into the bathroom, and it was also clean to me at first sight, but looking at the curtains i found some rust stain and some molds on the tiles and the fan is really loud a little bit depleasant to be honest. But we had enough towels the toilet and the sink was clean, no dust on the floor, OK!And then the bedroom! very large, we had a large closet with an iron and iron board inside, the rug was clean, no dust on the furnitures.My complains: The bed was not comfortable, the AC was really noisy.To summarise, our journey was okay exept for the AC+fridge and Fan which are really loud, i think you should really make some changes about this!Am i returning in this hotel? Yes! It is really convenient and very well located.It migh need some attention about cleanliness of the bathroom but it was ok.Do i recommend this hotel? For what i paid, YES! I paid aprox 97$ per night.I don't regret it!Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r336307720-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>336307720</t>
+  </si>
+  <si>
+    <t>12/31/2015</t>
+  </si>
+  <si>
+    <t>Looks like it used to be nice.</t>
+  </si>
+  <si>
+    <t>The first 2 nights we were here, out door would not latch or lock.  The people next to us banged and banged well into the early morning hours.  The closet doors would not hardly even move.  The people outside at night were "iffy" at best.  The "discount" on the room was not applied until 3 days after we got home.  If I were returning to this area, I'm sure there must be a better place to stay.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r314790379-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>314790379</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>An awful experience!!</t>
+  </si>
+  <si>
+    <t>worst hotel experience in years!I arrived at the hotel @ 9PM, waited for 20min before the front desk lady came. Then I was notified that the double-bed room I booked and paid for was no longer available, and I was "upgraded" to a single-bed room with "no additional charge".A few days later I realized that there's a charge from the hotel for the room I already paid in advance on Orbitz. Had to call back and now I'm still waiting for the resolution.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r309986298-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>309986298</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>Kinda wierd</t>
+  </si>
+  <si>
+    <t>I have a mixed review. When my husband and I first checked into our room, there was food left in the refrigerator and the sheets were obviously dirty. I spoke to management and was instantly upgraded to a different room. That was awesome! HOWEVER; the walls were paper thin so we where able hear all of the goings on in the room next to us. It would have been even more uncomfortable if we would would had our kids with us. other than that the rooms were mediocre not sure if we would stay there again but it was ok for the price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r306512395-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>306512395</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>This place is just OK but if you ahve AT&amp;T there is nil coverage</t>
+  </si>
+  <si>
+    <t>This place is just OK but if you have AT&amp;T there is nil coverage.  This made it impossible for me to do my business from my hotel and I had to hang out at coffee shops and restaurants.  I hear that if you have T-Mobile there is coverage.  Front desk confirms that the big three: Spring, AT&amp;T and Verizon have nil coverage.  So I won't stay here again.  It was FILTHY under the beds.  Rest of the room and bathroom were ok.  If you do stay here, have breakfast at Moravian in Monrovia.  Old fashioned service, GREAT food, Breakfast is about $6 all up.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r279561247-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>279561247</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Get what you pay for.</t>
+  </si>
+  <si>
+    <t>Inexpensive but bare bones. The rooms do have kitchenettes but no utensil, coffee pot, plates, etc. You can ask for thing one at a time at the front desk and haul them to the room yourself if you choose.  The bed was ok but not great.  Noise was reasonable considering the hotel is next to highway.  There are many restaurants in the area.  Plenty of parking with many spots in the shade.   Windows open fully.  Be careful when booking.  They do offer apples and granola bars for breakfast. There are two Extended Stay America's in the area.  The other looks nicer from the outside and in lobby but did not see a room. We probably  will try another hotel next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded July 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2015</t>
+  </si>
+  <si>
+    <t>Inexpensive but bare bones. The rooms do have kitchenettes but no utensil, coffee pot, plates, etc. You can ask for thing one at a time at the front desk and haul them to the room yourself if you choose.  The bed was ok but not great.  Noise was reasonable considering the hotel is next to highway.  There are many restaurants in the area.  Plenty of parking with many spots in the shade.   Windows open fully.  Be careful when booking.  They do offer apples and granola bars for breakfast. There are two Extended Stay America's in the area.  The other looks nicer from the outside and in lobby but did not see a room. We probably  will try another hotel next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r278301239-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>278301239</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Affordable convenience in an abundant setting</t>
+  </si>
+  <si>
+    <t>An impromptu visit to Los Angeles, arranged by relatives, put me up in Extended Stay America for almost a week.  The hotel is very plain and simple, but also very clean.  The Staff in Monrovia is cheerful and very accommodating.  Each room is set up with a refrigerator and small electric stove, along with cabinets for storing kitchen equipment and food.  The amenities available are all listed and must be selected by each guest.  They are then delivered to your door.  The rooms are air-conditioned, which can help block some of the noise from the nearby highway (the 205).
+Located on Huntington Drive and 5th Avenue where Monrovia and Arcadia touch, this residence gives easy access to anyone traveling the Los Angeles highway system.  It is nearby the great Huntington Library, and the surrounding parklands.  It is also convenient to those who wish to attend the races at Santa Anita.  All around the motel are all kinds of restaurants, juice bars and places to easily meet a host of culinary appetites.  There are small malls within easy walking distance.  The Jockey, a restaurant founded around the famous racehorse Seabiscuit, is but two blocks away. 
+While breakfast is listed as being provided from 6 to 9 am, it is very meager.  Coffee, fruit and packaged granola bars or muffin.  The dining area is quite small, so it is better to take whatever is wanted back to the room.  The whole experience...An impromptu visit to Los Angeles, arranged by relatives, put me up in Extended Stay America for almost a week.  The hotel is very plain and simple, but also very clean.  The Staff in Monrovia is cheerful and very accommodating.  Each room is set up with a refrigerator and small electric stove, along with cabinets for storing kitchen equipment and food.  The amenities available are all listed and must be selected by each guest.  They are then delivered to your door.  The rooms are air-conditioned, which can help block some of the noise from the nearby highway (the 205).Located on Huntington Drive and 5th Avenue where Monrovia and Arcadia touch, this residence gives easy access to anyone traveling the Los Angeles highway system.  It is nearby the great Huntington Library, and the surrounding parklands.  It is also convenient to those who wish to attend the races at Santa Anita.  All around the motel are all kinds of restaurants, juice bars and places to easily meet a host of culinary appetites.  There are small malls within easy walking distance.  The Jockey, a restaurant founded around the famous racehorse Seabiscuit, is but two blocks away. While breakfast is listed as being provided from 6 to 9 am, it is very meager.  Coffee, fruit and packaged granola bars or muffin.  The dining area is quite small, so it is better to take whatever is wanted back to the room.  The whole experience was very simple, but acceptable enough.  My only concern was finding the two sets of stairs to be located at either end of the wings adjoining the very long main corridor.  Taking the elevator was the only practicable way of going up or down, even for one flight.  I found this disconcerting should there be a fire or other emergency.  There should be a stairway in the center of such an extended building.  If it was there, I was unable to locate it.   The signs pointed to the far ends of the two wings.  Thankfully there were no emergencies that made knowledge of their whereabouts necessary.  Since the chain is now under corporate ownership, it would seem time for some makeovers.  Otherwise, in a pinch, this kind of place was both convenient, clean and even restful enough to serve for a few days.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2015</t>
+  </si>
+  <si>
+    <t>An impromptu visit to Los Angeles, arranged by relatives, put me up in Extended Stay America for almost a week.  The hotel is very plain and simple, but also very clean.  The Staff in Monrovia is cheerful and very accommodating.  Each room is set up with a refrigerator and small electric stove, along with cabinets for storing kitchen equipment and food.  The amenities available are all listed and must be selected by each guest.  They are then delivered to your door.  The rooms are air-conditioned, which can help block some of the noise from the nearby highway (the 205).
+Located on Huntington Drive and 5th Avenue where Monrovia and Arcadia touch, this residence gives easy access to anyone traveling the Los Angeles highway system.  It is nearby the great Huntington Library, and the surrounding parklands.  It is also convenient to those who wish to attend the races at Santa Anita.  All around the motel are all kinds of restaurants, juice bars and places to easily meet a host of culinary appetites.  There are small malls within easy walking distance.  The Jockey, a restaurant founded around the famous racehorse Seabiscuit, is but two blocks away. 
+While breakfast is listed as being provided from 6 to 9 am, it is very meager.  Coffee, fruit and packaged granola bars or muffin.  The dining area is quite small, so it is better to take whatever is wanted back to the room.  The whole experience...An impromptu visit to Los Angeles, arranged by relatives, put me up in Extended Stay America for almost a week.  The hotel is very plain and simple, but also very clean.  The Staff in Monrovia is cheerful and very accommodating.  Each room is set up with a refrigerator and small electric stove, along with cabinets for storing kitchen equipment and food.  The amenities available are all listed and must be selected by each guest.  They are then delivered to your door.  The rooms are air-conditioned, which can help block some of the noise from the nearby highway (the 205).Located on Huntington Drive and 5th Avenue where Monrovia and Arcadia touch, this residence gives easy access to anyone traveling the Los Angeles highway system.  It is nearby the great Huntington Library, and the surrounding parklands.  It is also convenient to those who wish to attend the races at Santa Anita.  All around the motel are all kinds of restaurants, juice bars and places to easily meet a host of culinary appetites.  There are small malls within easy walking distance.  The Jockey, a restaurant founded around the famous racehorse Seabiscuit, is but two blocks away. While breakfast is listed as being provided from 6 to 9 am, it is very meager.  Coffee, fruit and packaged granola bars or muffin.  The dining area is quite small, so it is better to take whatever is wanted back to the room.  The whole experience was very simple, but acceptable enough.  My only concern was finding the two sets of stairs to be located at either end of the wings adjoining the very long main corridor.  Taking the elevator was the only practicable way of going up or down, even for one flight.  I found this disconcerting should there be a fire or other emergency.  There should be a stairway in the center of such an extended building.  If it was there, I was unable to locate it.   The signs pointed to the far ends of the two wings.  Thankfully there were no emergencies that made knowledge of their whereabouts necessary.  Since the chain is now under corporate ownership, it would seem time for some makeovers.  Otherwise, in a pinch, this kind of place was both convenient, clean and even restful enough to serve for a few days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r277823993-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>277823993</t>
+  </si>
+  <si>
+    <t>06/04/2015</t>
+  </si>
+  <si>
+    <t>Not that great</t>
+  </si>
+  <si>
+    <t>I was very disappointed in this hotel. First they advertised a pool and had none. I booked for five nights and you had to pay up front which would have been fine except then getting your money back to find a new hotel was impossible. The rooms were smelly.  The staff was friendly however and helped us with an issue when out first rooms air did not work. This is more of an apartment type building than a hotel. Not what I was expecting at all. MoreShow less</t>
+  </si>
+  <si>
+    <t>I was very disappointed in this hotel. First they advertised a pool and had none. I booked for five nights and you had to pay up front which would have been fine except then getting your money back to find a new hotel was impossible. The rooms were smelly.  The staff was friendly however and helped us with an issue when out first rooms air did not work. This is more of an apartment type building than a hotel. Not what I was expecting at all. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r260894125-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>260894125</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>Terrible terrible terrible.</t>
+  </si>
+  <si>
+    <t>I was here on business and my company booked this hotel for me. When I checked in there was no soap or shampoo provided in the bathroom. The tv remote was missing from the room. The phone was missing buttons--including the button to dial the front desk. My room had a nonsmoking sign on it--but I found out it was a smoking room. Therefore it reeked and smelled terrible. I have asthma but had to sleep in a smoking room. I waited over 15 minute and nobody came out to help me before I gave up and returned to my room (because remember I couldn't call the front desk from my room). I was finally able to switch rooms the next day--which was considerably better BUT I found a bug in my bed. Super gross.  I called to have the front desk bring me silverware (no pots and pans--utensils only) and it took over 30 mins just to bring it up to my room.The room had chunks of carpet missing that looked like it had been clawed away by an animal. There was only 1 luggage cart on the premises (which was in terrible condition and very hard to move around). If you can avoid it, do not stay here. If my company sends me back to this area I will refuse to stay at this location ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was here on business and my company booked this hotel for me. When I checked in there was no soap or shampoo provided in the bathroom. The tv remote was missing from the room. The phone was missing buttons--including the button to dial the front desk. My room had a nonsmoking sign on it--but I found out it was a smoking room. Therefore it reeked and smelled terrible. I have asthma but had to sleep in a smoking room. I waited over 15 minute and nobody came out to help me before I gave up and returned to my room (because remember I couldn't call the front desk from my room). I was finally able to switch rooms the next day--which was considerably better BUT I found a bug in my bed. Super gross.  I called to have the front desk bring me silverware (no pots and pans--utensils only) and it took over 30 mins just to bring it up to my room.The room had chunks of carpet missing that looked like it had been clawed away by an animal. There was only 1 luggage cart on the premises (which was in terrible condition and very hard to move around). If you can avoid it, do not stay here. If my company sends me back to this area I will refuse to stay at this location ever again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r246398125-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>246398125</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Great customer service, the front desk staff were very friendly, very accommodating over all nice. The rooms were clean and spacious. It was great having a kitchenette to cook.  My stay was very comfortable. I would stay there again and highly recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded January 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2015</t>
+  </si>
+  <si>
+    <t>Great customer service, the front desk staff were very friendly, very accommodating over all nice. The rooms were clean and spacious. It was great having a kitchenette to cook.  My stay was very comfortable. I would stay there again and highly recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r243578011-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>243578011</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>Wonderful place</t>
+  </si>
+  <si>
+    <t>Extended stay America is surprising good here.It is nice and neat. The room is comfort. The staff is nice.Also it is not faraway from Arcadia area, which is good for Asian people to stay.The only unsure thing is that I was bitten by bugs after stay here, but I am not sure if the room has bugs, hopefully not. If not, I will give them a full score.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded December 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2014</t>
+  </si>
+  <si>
+    <t>Extended stay America is surprising good here.It is nice and neat. The room is comfort. The staff is nice.Also it is not faraway from Arcadia area, which is good for Asian people to stay.The only unsure thing is that I was bitten by bugs after stay here, but I am not sure if the room has bugs, hopefully not. If not, I will give them a full score.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r229805321-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>229805321</t>
+  </si>
+  <si>
+    <t>09/19/2014</t>
+  </si>
+  <si>
+    <t>Close to City of Hope with caring staff.</t>
+  </si>
+  <si>
+    <t>Although facility and location next to freeway not great, the staff was excellent in caring for my wife after biopsy surgery. The first night I stayed there, the second night my wife stayed and without prompt they cleaned the room, this is not the norm on these inexpensive places. Simple but thoughtful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r228915058-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>228915058</t>
+  </si>
+  <si>
+    <t>09/14/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs updating </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooms are run down, service was lacking.  Not enough towels, 4 person suite had one face towel &amp; two towels. One bar of soap provided, no shampoo.  There are NO non smoking rooms in this hotel. Our "non smoking" room had two ashtrays &amp; smelled like one too. There were no other rooms available.   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r222757212-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>222757212</t>
+  </si>
+  <si>
+    <t>08/18/2014</t>
+  </si>
+  <si>
+    <t>Great Manager and Staff!</t>
+  </si>
+  <si>
+    <t>My complements to the Manager and her professional Staff. I had a minor issue, having had inadvertently booked a smoking room online rather than the desired non-smoking room. Ms. Valdez, the Manger, was kind and helpful in making a real effort to rectify my mistake without making me feel as if I was an internet neanderthal. I would also like to offer my gratitude to the Housekeepers and landscapers as my room was immaculate as were the common corridors and grounds. My sincere compliments to the entire well run operation.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r215628085-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>215628085</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>Great for future month stay.</t>
+  </si>
+  <si>
+    <t>I plan on staying there in the future for at least a month while renovating my condo. Great room, location, and hopefully I can get a better deal. I wish I could use both AARP and AAA, to get a better deal.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r213793766-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>213793766</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>Business Trip to West Coast</t>
+  </si>
+  <si>
+    <t>I have stayed at this location four times, its sister location up the street almost a dozen times - one time for 3+ months. I enjoy the properties and continue to keep coming back. Stephanie remembers my name on check in and the service is very good. My only complaint about the property is that there is no place to sit outside and get a bit of sun but I can live with that :)This trip was tough but Stephanie did her best to make things a bit less stressful.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r210361038-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>210361038</t>
+  </si>
+  <si>
+    <t>06/14/2014</t>
+  </si>
+  <si>
+    <t>Less than impressed</t>
+  </si>
+  <si>
+    <t>I like the idea - nice to have a kitchen. Here were my problems: (1) AC making a random clattering noise every 30 minutes even when turned off - enough to wake me up; (2) bed sheets rose-scented for some reason - odd; (3) no liner for window curtains - so either the room is dark and must turn lights on; or open curtains with direct views from outside into my room; (3) I was in HC room, so not sure if this is typical, but the closet doors were removed, and the beat up guiderail was still installed - looked strange and felt cheap; (4) Iron, but no ironing board; (5) iron did not work when I did get the ironing board - had to go ask for another one (in the morning when I am trying to leave - had to wait 10 minutes for it); (6) kitchen minimally equipped - no drinking glasses or cups even in the bathroom - had to ask for them. Got back late and needed them; desk clerk said she would deliver them, but she was 'running the night audit now but would send them soon' (its late at night - should not have to wait.  Been writing this whole thing since I asked for them and still have not gotten them; (7) phone has dial tone, but when press '0' nothing happens (no dial guide - how do I reach the...I like the idea - nice to have a kitchen. Here were my problems: (1) AC making a random clattering noise every 30 minutes even when turned off - enough to wake me up; (2) bed sheets rose-scented for some reason - odd; (3) no liner for window curtains - so either the room is dark and must turn lights on; or open curtains with direct views from outside into my room; (3) I was in HC room, so not sure if this is typical, but the closet doors were removed, and the beat up guiderail was still installed - looked strange and felt cheap; (4) Iron, but no ironing board; (5) iron did not work when I did get the ironing board - had to go ask for another one (in the morning when I am trying to leave - had to wait 10 minutes for it); (6) kitchen minimally equipped - no drinking glasses or cups even in the bathroom - had to ask for them. Got back late and needed them; desk clerk said she would deliver them, but she was 'running the night audit now but would send them soon' (its late at night - should not have to wait.  Been writing this whole thing since I asked for them and still have not gotten them; (7) phone has dial tone, but when press '0' nothing happens (no dial guide - how do I reach the front desk?) (8) some bathroom attachment removed from the wall and wall not painted back to cover up the white primer paint; (9) blanket barely wide enough to cover the bed with just a little bit left over to hang over the side of the mattress - makes it hard to stay covered when sleeping. (10) Just now got drinking glasses, but got the wrong ones - the clerk asked if I wanted ceramic mugs or plastic glasses. I said ceramic - but got plastic. (11) a big empty plastic water jug has being lying outside the front entry in plain view since last night and no one has picked it up. Gosh - dunno what to say.  What is next?  Nice to have a kitchen though.  Really - I will probably come back, for about $110 a night.  Just - the details, folks. Maybe a checklist would work - not sure - but something is off here.MoreShow less</t>
+  </si>
+  <si>
+    <t>I like the idea - nice to have a kitchen. Here were my problems: (1) AC making a random clattering noise every 30 minutes even when turned off - enough to wake me up; (2) bed sheets rose-scented for some reason - odd; (3) no liner for window curtains - so either the room is dark and must turn lights on; or open curtains with direct views from outside into my room; (3) I was in HC room, so not sure if this is typical, but the closet doors were removed, and the beat up guiderail was still installed - looked strange and felt cheap; (4) Iron, but no ironing board; (5) iron did not work when I did get the ironing board - had to go ask for another one (in the morning when I am trying to leave - had to wait 10 minutes for it); (6) kitchen minimally equipped - no drinking glasses or cups even in the bathroom - had to ask for them. Got back late and needed them; desk clerk said she would deliver them, but she was 'running the night audit now but would send them soon' (its late at night - should not have to wait.  Been writing this whole thing since I asked for them and still have not gotten them; (7) phone has dial tone, but when press '0' nothing happens (no dial guide - how do I reach the...I like the idea - nice to have a kitchen. Here were my problems: (1) AC making a random clattering noise every 30 minutes even when turned off - enough to wake me up; (2) bed sheets rose-scented for some reason - odd; (3) no liner for window curtains - so either the room is dark and must turn lights on; or open curtains with direct views from outside into my room; (3) I was in HC room, so not sure if this is typical, but the closet doors were removed, and the beat up guiderail was still installed - looked strange and felt cheap; (4) Iron, but no ironing board; (5) iron did not work when I did get the ironing board - had to go ask for another one (in the morning when I am trying to leave - had to wait 10 minutes for it); (6) kitchen minimally equipped - no drinking glasses or cups even in the bathroom - had to ask for them. Got back late and needed them; desk clerk said she would deliver them, but she was 'running the night audit now but would send them soon' (its late at night - should not have to wait.  Been writing this whole thing since I asked for them and still have not gotten them; (7) phone has dial tone, but when press '0' nothing happens (no dial guide - how do I reach the front desk?) (8) some bathroom attachment removed from the wall and wall not painted back to cover up the white primer paint; (9) blanket barely wide enough to cover the bed with just a little bit left over to hang over the side of the mattress - makes it hard to stay covered when sleeping. (10) Just now got drinking glasses, but got the wrong ones - the clerk asked if I wanted ceramic mugs or plastic glasses. I said ceramic - but got plastic. (11) a big empty plastic water jug has being lying outside the front entry in plain view since last night and no one has picked it up. Gosh - dunno what to say.  What is next?  Nice to have a kitchen though.  Really - I will probably come back, for about $110 a night.  Just - the details, folks. Maybe a checklist would work - not sure - but something is off here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r207152746-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>207152746</t>
+  </si>
+  <si>
+    <t>05/26/2014</t>
+  </si>
+  <si>
+    <t>Hotel value in Monrovia</t>
+  </si>
+  <si>
+    <t>I’ve been a frequent resident with Extended Stay America – Los Angeles – Monrovia for well over a year, at least 40 one-week stays.  I commute into Los Angeles from Nevada for business and typically stay for 4 – 5 nights during each visit.  I’ve seen the word “value” displayed around the property and it is exactly that value and the great staff that keeps me returning.  Value simply means the relative worth of the accommodations and services I consistently receive for my money.  Extended Stay provides all I require for my weekly visits including a kitchenette, laundry facilities, ample parking, wi-fi, friendly staff, TV, complimentary breakfast and a flexible housekeeping schedule.  A big bonus in Monrovia is the hotel’s central location to a variety of restaurants and markets.  Basically, you can’t beat the price anywhere else when compared to the cost.  In other words, a great value!The management, Lisette and Stephanie, along with the front desk team have always been helpful and accommodating.  Staying in Monrovia has been a pleasure since early 2013 and I’m confident that it will continue to be a pleasure as long as my work keeps me in Los Angeles.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I’ve been a frequent resident with Extended Stay America – Los Angeles – Monrovia for well over a year, at least 40 one-week stays.  I commute into Los Angeles from Nevada for business and typically stay for 4 – 5 nights during each visit.  I’ve seen the word “value” displayed around the property and it is exactly that value and the great staff that keeps me returning.  Value simply means the relative worth of the accommodations and services I consistently receive for my money.  Extended Stay provides all I require for my weekly visits including a kitchenette, laundry facilities, ample parking, wi-fi, friendly staff, TV, complimentary breakfast and a flexible housekeeping schedule.  A big bonus in Monrovia is the hotel’s central location to a variety of restaurants and markets.  Basically, you can’t beat the price anywhere else when compared to the cost.  In other words, a great value!The management, Lisette and Stephanie, along with the front desk team have always been helpful and accommodating.  Staying in Monrovia has been a pleasure since early 2013 and I’m confident that it will continue to be a pleasure as long as my work keeps me in Los Angeles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r207121142-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>207121142</t>
+  </si>
+  <si>
+    <t>home from vegas</t>
+  </si>
+  <si>
+    <t>I was not sure what to expect was surprised and happy.   From the desk check in clerk to my entire stay, room was clean and bed comfortable, grounds kept up.  places to eat, and freeway access. Would so recommend your place.  I have finally found a place that not only fits my needs but is extremely comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r207108546-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>207108546</t>
+  </si>
+  <si>
+    <t>Welcoming Home</t>
+  </si>
+  <si>
+    <t>Have stayed here for nearly a year, I’m starting to think of this place as my second home.The room is clean and pleasant.  All the staff are Friendly, professional , and treat you with courtesy.This hotel is well located, good for restaurants, various cuisines. Santa Anita race track is just a few minutes away by car.   Freeway is very close both on ramp and off ramp. But it is not intrusive. I will always stay at this hotel when I’m in this area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r200272376-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>200272376</t>
+  </si>
+  <si>
+    <t>04/07/2014</t>
+  </si>
+  <si>
+    <t>Nothing negative about this place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here off and on for a few months. Hotel staff was very professional and always had a smile on their face. Rooms were always clean and had the basics. Very safe area and plenty of food choices and two grocery stores, within walking distance. I would recommend this hotel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r198340342-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>198340342</t>
+  </si>
+  <si>
+    <t>03/22/2014</t>
+  </si>
+  <si>
+    <t>Constant banging doors in hallways</t>
+  </si>
+  <si>
+    <t>I can't believe this hotel chain thinks anyone can rest in a room when doors in the hallways slam shut and bang extremely loudly. I noticed they put a rubber strip on the door to the Trash Room, obviously to soften the noise of that door when people go there to empty their trash. Why can't they do the same for ALL of the doors? Too expensive? The doors are heavy, slam quickly because of the way the air travels in hallways and there is nothing to keep them from slamming, and they make a terrible sound and vibrate the walls, jolting you out of your sleep! And this happens day and night. Does this hotel chain care about making their guests comfortable? Surely I'm not the only one to complain. I get the feeling they think this is an "OK" experience. It's NOT. It's very stressful. Not to mention all the repairs that had to be done in my room during my extended stay. Have a heart, Extended Stay America. At least the staff tried hard to help but are limited as to what they can do.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>I can't believe this hotel chain thinks anyone can rest in a room when doors in the hallways slam shut and bang extremely loudly. I noticed they put a rubber strip on the door to the Trash Room, obviously to soften the noise of that door when people go there to empty their trash. Why can't they do the same for ALL of the doors? Too expensive? The doors are heavy, slam quickly because of the way the air travels in hallways and there is nothing to keep them from slamming, and they make a terrible sound and vibrate the walls, jolting you out of your sleep! And this happens day and night. Does this hotel chain care about making their guests comfortable? Surely I'm not the only one to complain. I get the feeling they think this is an "OK" experience. It's NOT. It's very stressful. Not to mention all the repairs that had to be done in my room during my extended stay. Have a heart, Extended Stay America. At least the staff tried hard to help but are limited as to what they can do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r197974565-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>197974565</t>
+  </si>
+  <si>
+    <t>03/19/2014</t>
+  </si>
+  <si>
+    <t>Convenient Location with Kitchen</t>
+  </si>
+  <si>
+    <t>Recently renovated and pleasant in area full of restaurants, shopping and activities.  Easy on/off from I-210 in Santa Anita Racetrack area northeast of LA.  Rooms are small for the cost, though, and kitchenware was nearly non-existent.  Nice outside area with large, mature oaks and charcoal grills with picnic table.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r196110125-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>196110125</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>Convenient Location</t>
+  </si>
+  <si>
+    <t>Easy to get to, right off the 210.  Several eateries to the east on Huntington.  Room was clean but basic.  No box of tissues, and only one trash can, located in the kitchen.  One in the bathroom would have been nice.  Adinah at the desk when we arrived was super nice, quite an asset.  Our room was not ready at 3PM when we got there but an "Accessible" room was.  Adinah gave us a 10% discount for the inconvenience since we had to get ready to be somewhere and needed a room right away.  Over all convenient location and good experience.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r196062428-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>196062428</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>5 STAR QUALITY</t>
+  </si>
+  <si>
+    <t>I have reviewed before but have no problems updating the fabulous experience at Extended Stay Monrovia California which included the homily atmosphere and excellent location for all services.
+I am Irish and a contractor  (Patrick Geaney), in September a fellow contractor came from the UK and I recommended Extended Stay to him which he was very happy with.
+What happened next shows the first class care that Lysette and Stephanie give to all clients in the hotel. My friend broke his hip had an operation and came back to the hotel, it was agreed he could work from his room but needed looking after during the day (non medical) in case he needed anything I could look after the night care. It needed quick thinking, I immediately asked to speak to Lysette and Stephanie and explained I required someone to to check on Arthur during the day. At first they thought I was asking the hotel staff to do this but I explained we wanted someone who we would pay just to ensure he was okay and could they recommend someone. (hilarious comment from Stephanie Patrick if I am in trouble I want you in my corner!!!)
+Sure enough a cousin of Stephanie steeped into the breach and proved to be excellent.
+Any 5 star hotel I challenge to beat that for service care and consideration for their clients.
+I retired on the 21st February and am writing this from...I have reviewed before but have no problems updating the fabulous experience at Extended Stay Monrovia California which included the homily atmosphere and excellent location for all services.I am Irish and a contractor  (Patrick Geaney), in September a fellow contractor came from the UK and I recommended Extended Stay to him which he was very happy with.What happened next shows the first class care that Lysette and Stephanie give to all clients in the hotel. My friend broke his hip had an operation and came back to the hotel, it was agreed he could work from his room but needed looking after during the day (non medical) in case he needed anything I could look after the night care. It needed quick thinking, I immediately asked to speak to Lysette and Stephanie and explained I required someone to to check on Arthur during the day. At first they thought I was asking the hotel staff to do this but I explained we wanted someone who we would pay just to ensure he was okay and could they recommend someone. (hilarious comment from Stephanie Patrick if I am in trouble I want you in my corner!!!)Sure enough a cousin of Stephanie steeped into the breach and proved to be excellent.Any 5 star hotel I challenge to beat that for service care and consideration for their clients.I retired on the 21st February and am writing this from Vietnam. From April 2013 to February 2014 I was at Extended Stay. All the staff and management did everything they could to ensure it was a pleasurable experience and worked extremely hard to ensure standards were kept to a very high state and succededMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I have reviewed before but have no problems updating the fabulous experience at Extended Stay Monrovia California which included the homily atmosphere and excellent location for all services.
+I am Irish and a contractor  (Patrick Geaney), in September a fellow contractor came from the UK and I recommended Extended Stay to him which he was very happy with.
+What happened next shows the first class care that Lysette and Stephanie give to all clients in the hotel. My friend broke his hip had an operation and came back to the hotel, it was agreed he could work from his room but needed looking after during the day (non medical) in case he needed anything I could look after the night care. It needed quick thinking, I immediately asked to speak to Lysette and Stephanie and explained I required someone to to check on Arthur during the day. At first they thought I was asking the hotel staff to do this but I explained we wanted someone who we would pay just to ensure he was okay and could they recommend someone. (hilarious comment from Stephanie Patrick if I am in trouble I want you in my corner!!!)
+Sure enough a cousin of Stephanie steeped into the breach and proved to be excellent.
+Any 5 star hotel I challenge to beat that for service care and consideration for their clients.
+I retired on the 21st February and am writing this from...I have reviewed before but have no problems updating the fabulous experience at Extended Stay Monrovia California which included the homily atmosphere and excellent location for all services.I am Irish and a contractor  (Patrick Geaney), in September a fellow contractor came from the UK and I recommended Extended Stay to him which he was very happy with.What happened next shows the first class care that Lysette and Stephanie give to all clients in the hotel. My friend broke his hip had an operation and came back to the hotel, it was agreed he could work from his room but needed looking after during the day (non medical) in case he needed anything I could look after the night care. It needed quick thinking, I immediately asked to speak to Lysette and Stephanie and explained I required someone to to check on Arthur during the day. At first they thought I was asking the hotel staff to do this but I explained we wanted someone who we would pay just to ensure he was okay and could they recommend someone. (hilarious comment from Stephanie Patrick if I am in trouble I want you in my corner!!!)Sure enough a cousin of Stephanie steeped into the breach and proved to be excellent.Any 5 star hotel I challenge to beat that for service care and consideration for their clients.I retired on the 21st February and am writing this from Vietnam. From April 2013 to February 2014 I was at Extended Stay. All the staff and management did everything they could to ensure it was a pleasurable experience and worked extremely hard to ensure standards were kept to a very high state and succededMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r195278246-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>195278246</t>
+  </si>
+  <si>
+    <t>02/24/2014</t>
+  </si>
+  <si>
+    <t>I really enjoy staying at extended stay, the rooms are very comfortable and clean, the staff are great hosts. It is hard to get a great price for a room overnight anywhere but if you would like all of the above I would suggest extended stay, it is well worth it. It seems like these hotels are always in nice areas and close to a great restaurant.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r191048560-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>191048560</t>
+  </si>
+  <si>
+    <t>01/16/2014</t>
+  </si>
+  <si>
+    <t>You pay highfor secondhand accommodations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is maintained on a tight budget. Unkept lobby area. Scary noisy elevator. Old fruit used in breakfast. The room is basic with limited television channels. The hotel was surrounded by many food establishments which was great. The exterior looked clean. But once inside the atmosphere felt as if all measures were taken to save the hotel money. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r190986604-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>190986604</t>
+  </si>
+  <si>
+    <t>01/15/2014</t>
+  </si>
+  <si>
+    <t>Beautiful, clean and convenient!</t>
+  </si>
+  <si>
+    <t>Stayed here overnight and was pleasantly surprised! The front desk (Stephanie and Nadia) and hotel staff were very friendly and extremely helpful. The room decor was tasteful and welcoming. The hotel is conveniently located right off the freeway. Hungry? Or want to go window shopping? Just walk two blocks and you're in the heart of historical downtown Arcadia. Will definitely stay here again!</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r190015994-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>190015994</t>
+  </si>
+  <si>
+    <t>01/07/2014</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>The front desk personnel Adinah and Stephnie were extremely helpful and friendly.  They went out of their way to make my stay as smooth as possible.  Very flexible on early check in and late check out.  Little gift in the room was a nice touch.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded January 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2014</t>
+  </si>
+  <si>
+    <t>The front desk personnel Adinah and Stephnie were extremely helpful and friendly.  They went out of their way to make my stay as smooth as possible.  Very flexible on early check in and late check out.  Little gift in the room was a nice touch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r183725907-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>183725907</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>"Great Experience"</t>
+  </si>
+  <si>
+    <t>Great Customer Service and a Friendly Staff.Great Customer Service and a Friendly Staff.Great Customer Service and a Friendly Staff.Great Customer Service and a Friendly Staff.Great Customer Service and a Friendly Staff.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r181794910-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>181794910</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
+  </si>
+  <si>
+    <t>Convenient Location- GREAT Service</t>
+  </si>
+  <si>
+    <t>The hotel was very nice with clean rooms and full accomodations, the rooms have a refrigerator, microwave, and stove top along with all the utinsils needed to whip up a quick meal.  The room was very clean but the service was extraordinary, especially from Stephanie who always had a big smile, a kind word and made me feel like I was coming home.  Located near Old Town Pasadena and within easy driving distance of Downtown Los Angeles along with being near the foothills makes this a perfect location when visiting the area.  I would highly recommend staying at the Monrovia location for either vacation purposes or if you are relocating to the area, etc.  There are numerous eateries in the area within easy walking distance which was a huge plus also.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>The hotel was very nice with clean rooms and full accomodations, the rooms have a refrigerator, microwave, and stove top along with all the utinsils needed to whip up a quick meal.  The room was very clean but the service was extraordinary, especially from Stephanie who always had a big smile, a kind word and made me feel like I was coming home.  Located near Old Town Pasadena and within easy driving distance of Downtown Los Angeles along with being near the foothills makes this a perfect location when visiting the area.  I would highly recommend staying at the Monrovia location for either vacation purposes or if you are relocating to the area, etc.  There are numerous eateries in the area within easy walking distance which was a huge plus also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r181000348-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>181000348</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Clean rooms, friendly staff. Easy fast check in/check out. Will definitely stay here again. I did leave my I phone charger in my room when I checked out yesterday. I live in the Bay Area and am leaving on another trip soon. Is there anyway you guys can mail it back to me?</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r177456979-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>177456979</t>
+  </si>
+  <si>
+    <t>09/16/2013</t>
+  </si>
+  <si>
+    <t>I wood recommend it to friends and associates.</t>
+  </si>
+  <si>
+    <t>The staff are very friendly and helpful. Very attentive to your needs and any issues that may arise. The room has all the amenities with a small stove if you feel like cooking. Plus there are numerous restuarants  and eateries that would appeal to any person's palate. The location is convenient and accessible to nearby freeways.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded September 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2013</t>
+  </si>
+  <si>
+    <t>The staff are very friendly and helpful. Very attentive to your needs and any issues that may arise. The room has all the amenities with a small stove if you feel like cooking. Plus there are numerous restuarants  and eateries that would appeal to any person's palate. The location is convenient and accessible to nearby freeways.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r176201913-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>176201913</t>
+  </si>
+  <si>
+    <t>09/07/2013</t>
+  </si>
+  <si>
+    <t>Expected Good - Got Great</t>
+  </si>
+  <si>
+    <t>When a family member recently underwent surgery at City of Hope we were looking for a "Home Base" close to the hospital, Extended Stay seemed to have a superior set of ammenities compared to all the other alternatives.  I went to check it out ahead of time and it was obvious the staff was well prepared for these circumstances.  I checked out the room ahead of time and it was perfect for what we needed, well kept, well appointed and I was sold.Lisette, the Hotel Manager and her staff, made all the difference: from arranging a smooth check-in process, to meeting our needs so well during our stay and to being tremendously flexible when, unfortunately, we needed to stay longer due to a longer than expected recovery process.  If was really their professionalism and attention to our needs that made our stay Great, instead of just Good.This place is well kept and well run.  I was so very happy staying there, especially under the circumstances.  I Highly, Highly recommend this property to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded September 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2013</t>
+  </si>
+  <si>
+    <t>When a family member recently underwent surgery at City of Hope we were looking for a "Home Base" close to the hospital, Extended Stay seemed to have a superior set of ammenities compared to all the other alternatives.  I went to check it out ahead of time and it was obvious the staff was well prepared for these circumstances.  I checked out the room ahead of time and it was perfect for what we needed, well kept, well appointed and I was sold.Lisette, the Hotel Manager and her staff, made all the difference: from arranging a smooth check-in process, to meeting our needs so well during our stay and to being tremendously flexible when, unfortunately, we needed to stay longer due to a longer than expected recovery process.  If was really their professionalism and attention to our needs that made our stay Great, instead of just Good.This place is well kept and well run.  I was so very happy staying there, especially under the circumstances.  I Highly, Highly recommend this property to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r173404381-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>173404381</t>
+  </si>
+  <si>
+    <t>08/21/2013</t>
+  </si>
+  <si>
+    <t>Good long term stay hotel with very friendly and efficient staff</t>
+  </si>
+  <si>
+    <t>For a long term, low cost hotel room, extended stay America Monrovia can't be beat. Excellent staff and nice clean rooms.  i have stayed at this lication now for over 6 months, feels like a home away from home. Great location close to freeway and diningMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded August 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2013</t>
+  </si>
+  <si>
+    <t>For a long term, low cost hotel room, extended stay America Monrovia can't be beat. Excellent staff and nice clean rooms.  i have stayed at this lication now for over 6 months, feels like a home away from home. Great location close to freeway and diningMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r170501142-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>170501142</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>Wonderful staff with too much too do</t>
+  </si>
+  <si>
+    <t>We stayed here because is was the most highly rated hotel on Trip Advisor that was available for when we were traveling. I would probably stay here again if I needed to.
+This is a pretty basic place oriented toward long stays. Rooms are cleaned once a week, there is a full kitchen, etc. The room was fine -- the sleeping area pretty small (room for only one bedside table), a large closet, basic bathroom, full kitchen. The TV was fine with a moderate choice of channels. Our room overlooked a freeway off ramp, but it was very quiet with no traffic noise at all and there were some nice old oak trees right out our windows.
+The grab and go breakfast is pretty basic - breakfast bars, coffee, sanka, tea bags and creamer. Everything is put away at 9:30 am so you need to get there on time. 
+We had a major problem with the lock on the door. The door would not lock when we checked in and there was no way to fix it until the next morning. The hotel was full so we could not get another room and everything else in the area was booked (I checked) so we stayed there. The entire lock unit was replaced the next morning, but was not programmed correctly so we could not get into our room the following night. We once again had to wait until the next...We stayed here because is was the most highly rated hotel on Trip Advisor that was available for when we were traveling. I would probably stay here again if I needed to.This is a pretty basic place oriented toward long stays. Rooms are cleaned once a week, there is a full kitchen, etc. The room was fine -- the sleeping area pretty small (room for only one bedside table), a large closet, basic bathroom, full kitchen. The TV was fine with a moderate choice of channels. Our room overlooked a freeway off ramp, but it was very quiet with no traffic noise at all and there were some nice old oak trees right out our windows.The grab and go breakfast is pretty basic - breakfast bars, coffee, sanka, tea bags and creamer. Everything is put away at 9:30 am so you need to get there on time. We had a major problem with the lock on the door. The door would not lock when we checked in and there was no way to fix it until the next morning. The hotel was full so we could not get another room and everything else in the area was booked (I checked) so we stayed there. The entire lock unit was replaced the next morning, but was not programmed correctly so we could not get into our room the following night. We once again had to wait until the next morning until we could have workable keys. The staff were very friendly, positive, and responsive but they have too much to do for the amount of work they have. We often had to wait in line to speak with them as they were taking all phone calls, handling other requests, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>We stayed here because is was the most highly rated hotel on Trip Advisor that was available for when we were traveling. I would probably stay here again if I needed to.
+This is a pretty basic place oriented toward long stays. Rooms are cleaned once a week, there is a full kitchen, etc. The room was fine -- the sleeping area pretty small (room for only one bedside table), a large closet, basic bathroom, full kitchen. The TV was fine with a moderate choice of channels. Our room overlooked a freeway off ramp, but it was very quiet with no traffic noise at all and there were some nice old oak trees right out our windows.
+The grab and go breakfast is pretty basic - breakfast bars, coffee, sanka, tea bags and creamer. Everything is put away at 9:30 am so you need to get there on time. 
+We had a major problem with the lock on the door. The door would not lock when we checked in and there was no way to fix it until the next morning. The hotel was full so we could not get another room and everything else in the area was booked (I checked) so we stayed there. The entire lock unit was replaced the next morning, but was not programmed correctly so we could not get into our room the following night. We once again had to wait until the next...We stayed here because is was the most highly rated hotel on Trip Advisor that was available for when we were traveling. I would probably stay here again if I needed to.This is a pretty basic place oriented toward long stays. Rooms are cleaned once a week, there is a full kitchen, etc. The room was fine -- the sleeping area pretty small (room for only one bedside table), a large closet, basic bathroom, full kitchen. The TV was fine with a moderate choice of channels. Our room overlooked a freeway off ramp, but it was very quiet with no traffic noise at all and there were some nice old oak trees right out our windows.The grab and go breakfast is pretty basic - breakfast bars, coffee, sanka, tea bags and creamer. Everything is put away at 9:30 am so you need to get there on time. We had a major problem with the lock on the door. The door would not lock when we checked in and there was no way to fix it until the next morning. The hotel was full so we could not get another room and everything else in the area was booked (I checked) so we stayed there. The entire lock unit was replaced the next morning, but was not programmed correctly so we could not get into our room the following night. We once again had to wait until the next morning until we could have workable keys. The staff were very friendly, positive, and responsive but they have too much to do for the amount of work they have. We often had to wait in line to speak with them as they were taking all phone calls, handling other requests, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r168793509-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>168793509</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>Perfect location!</t>
+  </si>
+  <si>
+    <t>The staff was super friendly and very helpful!  The location was perfect.  Near the freeway and lots of restaurants to choose from within walking distance.  Bed comfortable.  Clean room. Will definitely stay here again. Can't think of any negatives. This place is a real bargain!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded July 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2013</t>
+  </si>
+  <si>
+    <t>The staff was super friendly and very helpful!  The location was perfect.  Near the freeway and lots of restaurants to choose from within walking distance.  Bed comfortable.  Clean room. Will definitely stay here again. Can't think of any negatives. This place is a real bargain!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r167343380-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>167343380</t>
+  </si>
+  <si>
+    <t>07/12/2013</t>
+  </si>
+  <si>
+    <t>Designed for an extended stay</t>
+  </si>
+  <si>
+    <t>I am a consultant and some jobs require I stay in a hotel for an extended period. This hotel is designed for it. It is clean, comfortable, and quiet. The beds and pillows are are first rate, and with the recent renovations with fresh paint and carpet and remodeling it's really pleasant. The rates are reasonable for the area, and this is a nice area with a large park within walking distance. On top of all that the real advantage is the stovetop. You can survive eating in resturaunts and out of a microwave for a while. But this place has a full sized refrigerator and a two burner stove. It has real knives and forks, plates and glasses, coffee maker and real cups, pots and pans and cooking utensils. It makes a real difference when you can cook and eat real food.      And I cannot say enough about the staff. Stephanie, Lisette, Sherrie, Stella, Karla, and the rest are friendly, efficient, and professional. They take pride in the facility and they are always ready and willing to help. I have enjoyed my stay here and will look first for an extended stay when I travel on a job and definately stay in this one when I am in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Owner at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded July 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2013</t>
+  </si>
+  <si>
+    <t>I am a consultant and some jobs require I stay in a hotel for an extended period. This hotel is designed for it. It is clean, comfortable, and quiet. The beds and pillows are are first rate, and with the recent renovations with fresh paint and carpet and remodeling it's really pleasant. The rates are reasonable for the area, and this is a nice area with a large park within walking distance. On top of all that the real advantage is the stovetop. You can survive eating in resturaunts and out of a microwave for a while. But this place has a full sized refrigerator and a two burner stove. It has real knives and forks, plates and glasses, coffee maker and real cups, pots and pans and cooking utensils. It makes a real difference when you can cook and eat real food.      And I cannot say enough about the staff. Stephanie, Lisette, Sherrie, Stella, Karla, and the rest are friendly, efficient, and professional. They take pride in the facility and they are always ready and willing to help. I have enjoyed my stay here and will look first for an extended stay when I travel on a job and definately stay in this one when I am in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r165257824-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>165257824</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>Super Duper spectacular Stay!</t>
+  </si>
+  <si>
+    <t>Had a great stay. Check in was fast and friendly,very informative and polite. Even spoke with manger about the new look and comfort of the new rooms. Would recommend my coworkers to stay there and family members. Just want to say that the manger is doing a really great job at this place.  Hope to be back soon!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Had a great stay. Check in was fast and friendly,very informative and polite. Even spoke with manger about the new look and comfort of the new rooms. Would recommend my coworkers to stay there and family members. Just want to say that the manger is doing a really great job at this place.  Hope to be back soon!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r164327801-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>164327801</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>I've been staying three weeks/month in the Extended Stay in Monrovia since February.  I drive in from Nevada and always look forward to the room selected for me by Stephanie and her team.  The room is always clean and ready for me and provides everything I look for in a "home away from home".I use Extended Stay whenever I travel for business because I like to prepare my own food and the kitchen facilities provide that freedom.  I haven't found a better value in Los Angeles on a cost/night and amenities basis.  I look to my future stays and highly recommend this facility for the business traveler.  By the way, if you're a traveler that doesn't like to cook for yourself, the hotel is within a block or two of many great restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I've been staying three weeks/month in the Extended Stay in Monrovia since February.  I drive in from Nevada and always look forward to the room selected for me by Stephanie and her team.  The room is always clean and ready for me and provides everything I look for in a "home away from home".I use Extended Stay whenever I travel for business because I like to prepare my own food and the kitchen facilities provide that freedom.  I haven't found a better value in Los Angeles on a cost/night and amenities basis.  I look to my future stays and highly recommend this facility for the business traveler.  By the way, if you're a traveler that doesn't like to cook for yourself, the hotel is within a block or two of many great restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r161120387-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>161120387</t>
+  </si>
+  <si>
+    <t>05/18/2013</t>
+  </si>
+  <si>
+    <t>Extended  Stay</t>
+  </si>
+  <si>
+    <t>What a great staff they have. They sincerely go out of there way making u feel welcome! Stephanie  always has a smile on her face going above and beyond  making sure that your  stay is the best possible. The entire staff is great and recommend this hotel to everyone!!</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r157325123-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>157325123</t>
+  </si>
+  <si>
+    <t>04/10/2013</t>
+  </si>
+  <si>
+    <t>A sincerely warm welcome</t>
+  </si>
+  <si>
+    <t>From the moment we arrived, my son and I truly felt welcome.  I interacted with at least five different employees and each one conveyed a genuine sense of care for our comfort.  I felt much more like an honored guest in their home rather than simply a passing patron of their place of work. This is rare.  If I ever have need for a place to stay in that area again, I will not hesitate to return. In fact, I will look forward to it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r157200959-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>157200959</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>Adinah was great</t>
+  </si>
+  <si>
+    <t>My last stay at this hotel was great as always.  Adinah was very helpful on the telephone when I call in for last minute reservation.  Adinah was also very flexible when it came to requesting early check in or late checkout.  Adinah always have a smile with great attitude.  It was always a great experience staying at this hotel.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r156178790-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>156178790</t>
+  </si>
+  <si>
+    <t>03/31/2013</t>
+  </si>
+  <si>
+    <t>Great service and staff</t>
+  </si>
+  <si>
+    <t>Stephanie did an excellent job at the front desk. Her smile and great attitude is infectious! The rooms were clean and the rest of the staff was very friendly and helpful. This was a first for me staying here. I will be coming back and staying there again in 6 months!Markieth S.MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded April 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2013</t>
+  </si>
+  <si>
+    <t>Stephanie did an excellent job at the front desk. Her smile and great attitude is infectious! The rooms were clean and the rest of the staff was very friendly and helpful. This was a first for me staying here. I will be coming back and staying there again in 6 months!Markieth S.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r154484212-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>154484212</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Pictures are deceiving!!!!</t>
+  </si>
+  <si>
+    <t>From looking at the pictures it looked to be clean and updated.... Wrong!!! This place smells from moment you get off elevator. The bed is disgusting with dry crusted stuff on blanket. Found hairs on sheets, stains on carpet and mattress. Not clean at all. Not looking forward to spending another night here:(MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2013</t>
+  </si>
+  <si>
+    <t>From looking at the pictures it looked to be clean and updated.... Wrong!!! This place smells from moment you get off elevator. The bed is disgusting with dry crusted stuff on blanket. Found hairs on sheets, stains on carpet and mattress. Not clean at all. Not looking forward to spending another night here:(More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r152559360-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>152559360</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>Nice staff, but would not stay again.</t>
+  </si>
+  <si>
+    <t>Staff is friendly, room okay but very small, the website pictures are deceiving.  Bathroom had mold along the base boards, towels threadbare. For the price you can do better in this area. Can't see how anyone could stay here on an extended basis. The carpet in the hallways was disgusting. Only one person working desk and was overwhelmed with customers but still managed to do a good job. Was under the impression my room would be more like a suite but it is no bigger than an average hotel room.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded February 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2013</t>
+  </si>
+  <si>
+    <t>Staff is friendly, room okay but very small, the website pictures are deceiving.  Bathroom had mold along the base boards, towels threadbare. For the price you can do better in this area. Can't see how anyone could stay here on an extended basis. The carpet in the hallways was disgusting. Only one person working desk and was overwhelmed with customers but still managed to do a good job. Was under the impression my room would be more like a suite but it is no bigger than an average hotel room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r152376102-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>152376102</t>
+  </si>
+  <si>
+    <t>02/17/2013</t>
+  </si>
+  <si>
+    <t>Overall Great experience</t>
+  </si>
+  <si>
+    <t>I heard some so so reviews about this hotel so I had the luxury of living not far from the area, so when I arrived and expressed my concerns with the staff, Stephanie gladly showed me the rooms before I booked. If you are unable to check out the rooms before hand, I suggest calling the hotel front desk directly and tell them about your concerns so they can put you at ease before you book. The mattress was great and they offered extra padding if needed. The hotel is next to the freeway, so its easy access. The freeway noise can be avoided by requested other rooms if available or by closing the window. (which worked for us) The staff was very friendly and helpful. I Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I heard some so so reviews about this hotel so I had the luxury of living not far from the area, so when I arrived and expressed my concerns with the staff, Stephanie gladly showed me the rooms before I booked. If you are unable to check out the rooms before hand, I suggest calling the hotel front desk directly and tell them about your concerns so they can put you at ease before you book. The mattress was great and they offered extra padding if needed. The hotel is next to the freeway, so its easy access. The freeway noise can be avoided by requested other rooms if available or by closing the window. (which worked for us) The staff was very friendly and helpful. I Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r151488348-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>151488348</t>
+  </si>
+  <si>
+    <t>02/05/2013</t>
+  </si>
+  <si>
+    <t>A bad apartment building, not a hotel</t>
+  </si>
+  <si>
+    <t>OK so maybe it's fine for people who live there but, if you are on a pleasure trip or even a business trip where you'd like a good night's sleep -- I'd avoid it like the plague.  My non-smoking room smelled of smoke, didn't have a coffeemaker (front desk said it was because people steal them), the refrigerator door was hard to open, the place was a dump.  The comforter scared me.  When I was changed to a room that didn't smell smoky, it was cleaner but still really really shabby. The doors to outside were supposed to be secure and open only with a room key except they were left open all the time.  I forgot shampoo and asked the front desk for some and no, their shipment hadn't come in :)  The hallways reeked, the "grab n'go breakfast -- not so much, mattress was hard and of questionable age, Saturday night was loud -- in general, it was miserable.  Not recommended, nope.  Positives: The front desk personnel were very helpful, and the surrounding shopping center had some great restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded February 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2013</t>
+  </si>
+  <si>
+    <t>OK so maybe it's fine for people who live there but, if you are on a pleasure trip or even a business trip where you'd like a good night's sleep -- I'd avoid it like the plague.  My non-smoking room smelled of smoke, didn't have a coffeemaker (front desk said it was because people steal them), the refrigerator door was hard to open, the place was a dump.  The comforter scared me.  When I was changed to a room that didn't smell smoky, it was cleaner but still really really shabby. The doors to outside were supposed to be secure and open only with a room key except they were left open all the time.  I forgot shampoo and asked the front desk for some and no, their shipment hadn't come in :)  The hallways reeked, the "grab n'go breakfast -- not so much, mattress was hard and of questionable age, Saturday night was loud -- in general, it was miserable.  Not recommended, nope.  Positives: The front desk personnel were very helpful, and the surrounding shopping center had some great restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r151343706-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>151343706</t>
+  </si>
+  <si>
+    <t>02/03/2013</t>
+  </si>
+  <si>
+    <t>I'd rather sleep in my car</t>
+  </si>
+  <si>
+    <t>Worst experience ever!  The exterior looks like a million bucks but my room was dingy, dark, outdated, and barely clean, and one wall simply had a hole in it.  Furniture is mismatched, and the beds are barely comfortable.  Comforters are stained. The hallways reeked, and the carpeting was dirty.  Hotel keys failed to work on the second day, no shampoo in the room, no maid service, and I had to ask for a change of towels.  This "hotel" makes Motel 6 look like a pleasure palace. And all this for prices that exceeded LaQuinta.  Never again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded February 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2013</t>
+  </si>
+  <si>
+    <t>Worst experience ever!  The exterior looks like a million bucks but my room was dingy, dark, outdated, and barely clean, and one wall simply had a hole in it.  Furniture is mismatched, and the beds are barely comfortable.  Comforters are stained. The hallways reeked, and the carpeting was dirty.  Hotel keys failed to work on the second day, no shampoo in the room, no maid service, and I had to ask for a change of towels.  This "hotel" makes Motel 6 look like a pleasure palace. And all this for prices that exceeded LaQuinta.  Never again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r149304473-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>149304473</t>
+  </si>
+  <si>
+    <t>01/09/2013</t>
+  </si>
+  <si>
+    <t>Very friendly staff</t>
+  </si>
+  <si>
+    <t>My last stay was before Christmas.  Alan the manager, Adinah, Rosa and Stephanie were all very friendly.  They were always very accommodating when I asked for early check in or late check out.  They were always helpful when I called or went in person to make advance reservation.  The rate with the AAA discount was very resonable.  All the restaurants within walking distance from the hotel was very convenience.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded January 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2013</t>
+  </si>
+  <si>
+    <t>My last stay was before Christmas.  Alan the manager, Adinah, Rosa and Stephanie were all very friendly.  They were always very accommodating when I asked for early check in or late check out.  They were always helpful when I called or went in person to make advance reservation.  The rate with the AAA discount was very resonable.  All the restaurants within walking distance from the hotel was very convenience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r145371823-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>145371823</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>Value but you pay for what you get</t>
+  </si>
+  <si>
+    <t>Excellent price but lots traffic noise from the freeway , carpets are old and dirty, the property in general does not smell good,  the bed and pillows are quite hard, and my comforter had a cigarette hole in it (despite being a non-smoking room).  Unless price is the most imortant consideration I would stay elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded November 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2012</t>
+  </si>
+  <si>
+    <t>Excellent price but lots traffic noise from the freeway , carpets are old and dirty, the property in general does not smell good,  the bed and pillows are quite hard, and my comforter had a cigarette hole in it (despite being a non-smoking room).  Unless price is the most imortant consideration I would stay elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r145057129-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>145057129</t>
+  </si>
+  <si>
+    <t>11/09/2012</t>
+  </si>
+  <si>
+    <t>Such a wonderful place</t>
+  </si>
+  <si>
+    <t>Had a great encounter with my attendant Ashley R we had a talk about the reason why you guys no longer hold wine openers and she helped me out with getting a smoking room which i was in dire need for (to cold to stand outside to smoke). The room was great didn't know that there would be a kitchen but ended up loving the whole room except for the beds they were a bit loud. Besides that it was a wonderful one day one night stay :]MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded November 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2012</t>
+  </si>
+  <si>
+    <t>Had a great encounter with my attendant Ashley R we had a talk about the reason why you guys no longer hold wine openers and she helped me out with getting a smoking room which i was in dire need for (to cold to stand outside to smoke). The room was great didn't know that there would be a kitchen but ended up loving the whole room except for the beds they were a bit loud. Besides that it was a wonderful one day one night stay :]More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r145012597-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>145012597</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>I love staying here when in town for business. Best value in town. Very clean rooms and first class cutomers service. Management obvioulsy understands the importance of taking care of their guest. Theres plenty of lodging choices in Monrovia, but none that can provide the level of customers service like ESA Monrovia!MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded November 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2012</t>
+  </si>
+  <si>
+    <t>I love staying here when in town for business. Best value in town. Very clean rooms and first class cutomers service. Management obvioulsy understands the importance of taking care of their guest. Theres plenty of lodging choices in Monrovia, but none that can provide the level of customers service like ESA Monrovia!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r144689774-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>144689774</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Had the worst experience</t>
+  </si>
+  <si>
+    <t>We had booked a two night stay at this hotel. We didnt have any problems checking in to this for the first night. However, when we came back to the hotel on the second night (after a spending the day in LA), our keys to the room didnt work. The person at the front desk didnt have any idea about what was going on (he didnt even have access to the computers). He then went banging on the door of the room only to find out another person has been given the room! When he finally got the access to the computer he found that we still had the room under our name, but the person in the room showed documentation that she had been given the same room. The front desk guy then found that our belongings had been left out. He couldnt find us another room or even get us into some other hotel. By the time all this happened (it took him multiple hours to figure this out), it was past midnight and we couldnt find another room in the area. He gave us a visiting card with a number to call later in the week when the manager would be in. When I called a couple of days later, nobody would pick up the phone either! Finally, I went to the booking agency (hotwire.com) and they couldn't get information on this incident from the hotel for...We had booked a two night stay at this hotel. We didnt have any problems checking in to this for the first night. However, when we came back to the hotel on the second night (after a spending the day in LA), our keys to the room didnt work. The person at the front desk didnt have any idea about what was going on (he didnt even have access to the computers). He then went banging on the door of the room only to find out another person has been given the room! When he finally got the access to the computer he found that we still had the room under our name, but the person in the room showed documentation that she had been given the same room. The front desk guy then found that our belongings had been left out. He couldnt find us another room or even get us into some other hotel. By the time all this happened (it took him multiple hours to figure this out), it was past midnight and we couldnt find another room in the area. He gave us a visiting card with a number to call later in the week when the manager would be in. When I called a couple of days later, nobody would pick up the phone either! Finally, I went to the booking agency (hotwire.com) and they couldn't get information on this incident from the hotel for nearly a week.So unless you want to donate money to hotel management, you should stay away from this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded November 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2012</t>
+  </si>
+  <si>
+    <t>We had booked a two night stay at this hotel. We didnt have any problems checking in to this for the first night. However, when we came back to the hotel on the second night (after a spending the day in LA), our keys to the room didnt work. The person at the front desk didnt have any idea about what was going on (he didnt even have access to the computers). He then went banging on the door of the room only to find out another person has been given the room! When he finally got the access to the computer he found that we still had the room under our name, but the person in the room showed documentation that she had been given the same room. The front desk guy then found that our belongings had been left out. He couldnt find us another room or even get us into some other hotel. By the time all this happened (it took him multiple hours to figure this out), it was past midnight and we couldnt find another room in the area. He gave us a visiting card with a number to call later in the week when the manager would be in. When I called a couple of days later, nobody would pick up the phone either! Finally, I went to the booking agency (hotwire.com) and they couldn't get information on this incident from the hotel for...We had booked a two night stay at this hotel. We didnt have any problems checking in to this for the first night. However, when we came back to the hotel on the second night (after a spending the day in LA), our keys to the room didnt work. The person at the front desk didnt have any idea about what was going on (he didnt even have access to the computers). He then went banging on the door of the room only to find out another person has been given the room! When he finally got the access to the computer he found that we still had the room under our name, but the person in the room showed documentation that she had been given the same room. The front desk guy then found that our belongings had been left out. He couldnt find us another room or even get us into some other hotel. By the time all this happened (it took him multiple hours to figure this out), it was past midnight and we couldnt find another room in the area. He gave us a visiting card with a number to call later in the week when the manager would be in. When I called a couple of days later, nobody would pick up the phone either! Finally, I went to the booking agency (hotwire.com) and they couldn't get information on this incident from the hotel for nearly a week.So unless you want to donate money to hotel management, you should stay away from this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r143951436-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>143951436</t>
+  </si>
+  <si>
+    <t>10/28/2012</t>
+  </si>
+  <si>
+    <t>Would not stay there again!!!</t>
+  </si>
+  <si>
+    <t>Nice staff, however, there was NO HOT water for a shower in room 240 on 10/29/12, at 9am.  Checked for hot water at 9:30am and 10am before we gave up on taking a shower.   Also, the bed was very uncomfortable- old, springy and hard.  There were 2 flat pillows for a queen bed.The a/c and tv were nice, but if you can't sleep or shower, why bother?!!MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded October 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2012</t>
+  </si>
+  <si>
+    <t>Nice staff, however, there was NO HOT water for a shower in room 240 on 10/29/12, at 9am.  Checked for hot water at 9:30am and 10am before we gave up on taking a shower.   Also, the bed was very uncomfortable- old, springy and hard.  There were 2 flat pillows for a queen bed.The a/c and tv were nice, but if you can't sleep or shower, why bother?!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r143854630-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>143854630</t>
+  </si>
+  <si>
+    <t>10/27/2012</t>
+  </si>
+  <si>
+    <t>Stay anywhere else</t>
+  </si>
+  <si>
+    <t>The staff was nice - other than that everything else about this hotel is terrible. 1 - The smell - it was so bad in the hallways I had to breath through my mouth whenever I left room. 2 - The filth - the entire hotel was filthy - and the carpets were all stained and disgusting. 3 - The non-existant maid service - I have never stayed in hotel where they put a small placard in the bathroom to let you know that maid service will only be provided every 7 days - given that I was only there for 4 I was pretty much on my own??   If you want a towel you can go down the desk and get one yourself. 4 - The breakfast - they should not be able to call a basket of breakfast bars and some hot water for instant drinks breakfast.  I've stayed at a lot of lower end hotels that include a continental breakfast and what they call breakfast is false advertising 5 - The cheap matteress - I can sleep on almost anything and be ok -but I wound up with a sore back on the cheap matteress. For the money - you can do a whole lot better - pretty much anywhere - I can't beleive this company will be in business very long.MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelManagement14, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded October 29, 2012</t>
+  </si>
+  <si>
+    <t>The staff was nice - other than that everything else about this hotel is terrible. 1 - The smell - it was so bad in the hallways I had to breath through my mouth whenever I left room. 2 - The filth - the entire hotel was filthy - and the carpets were all stained and disgusting. 3 - The non-existant maid service - I have never stayed in hotel where they put a small placard in the bathroom to let you know that maid service will only be provided every 7 days - given that I was only there for 4 I was pretty much on my own??   If you want a towel you can go down the desk and get one yourself. 4 - The breakfast - they should not be able to call a basket of breakfast bars and some hot water for instant drinks breakfast.  I've stayed at a lot of lower end hotels that include a continental breakfast and what they call breakfast is false advertising 5 - The cheap matteress - I can sleep on almost anything and be ok -but I wound up with a sore back on the cheap matteress. For the money - you can do a whole lot better - pretty much anywhere - I can't beleive this company will be in business very long.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r140294613-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>140294613</t>
+  </si>
+  <si>
+    <t>09/14/2012</t>
+  </si>
+  <si>
+    <t>The manager has really turned this hotel around!</t>
+  </si>
+  <si>
+    <t>The manager (Alan) has really turned this place around! My husband and I have been staying here for over a year and ever since this new manager came, things are getting better and better! The front desk staff is extraordinarily helpful. I'm still currently staying here and staying here has been a comfortable experience especially when the new manager came :) Thanks Alan for exceptional service!MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded October 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2012</t>
+  </si>
+  <si>
+    <t>The manager (Alan) has really turned this place around! My husband and I have been staying here for over a year and ever since this new manager came, things are getting better and better! The front desk staff is extraordinarily helpful. I'm still currently staying here and staying here has been a comfortable experience especially when the new manager came :) Thanks Alan for exceptional service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r139675572-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>139675572</t>
+  </si>
+  <si>
+    <t>09/07/2012</t>
+  </si>
+  <si>
+    <t>Low budget - not even shampoo in the rooms</t>
+  </si>
+  <si>
+    <t>I booked this hotel on the Southwest website for a business trip.  The reviews were positive, the location was perfect and the price too good to be true.  I thought it looked nice from the pictures and I thought it would be comparable to a Hampton, HIlton Gardens, or Mariott (places I normally stay) but this was not the case.
+It's almost set up like an apartment complex.  A tiny lobby, no downstairs sitting or breakfast areas, or community computer.  This I could have overlooked.  However once I got off the elevator, the hallways were dark and dirty with stains all over the carpets.  The quality of the room's furnishings reminded me of the Motel 8's I had stayed at during my low budget, college travel days.  Everything was cheap and run down and felt like it was purchased at a flea market.  
+The bottom line was that I didn't feel comfortable walking on the carpet barefoot or siting on the bedspread (dubious stains I didn't want to examine too closely.)
+I regret I didn't spend the extra $30-40 dollars for my normal Hampton or Ayres that also comes with a very nice breakfast and things you take for granted in your room - like shampoo...
+To be fair, if I was in my 20's again or on a really tight budget, I may consider this hotel.  The front desk staff really was very nice and friendly.  But alas, I'm...I booked this hotel on the Southwest website for a business trip.  The reviews were positive, the location was perfect and the price too good to be true.  I thought it looked nice from the pictures and I thought it would be comparable to a Hampton, HIlton Gardens, or Mariott (places I normally stay) but this was not the case.It's almost set up like an apartment complex.  A tiny lobby, no downstairs sitting or breakfast areas, or community computer.  This I could have overlooked.  However once I got off the elevator, the hallways were dark and dirty with stains all over the carpets.  The quality of the room's furnishings reminded me of the Motel 8's I had stayed at during my low budget, college travel days.  Everything was cheap and run down and felt like it was purchased at a flea market.  The bottom line was that I didn't feel comfortable walking on the carpet barefoot or siting on the bedspread (dubious stains I didn't want to examine too closely.)I regret I didn't spend the extra $30-40 dollars for my normal Hampton or Ayres that also comes with a very nice breakfast and things you take for granted in your room - like shampoo...To be fair, if I was in my 20's again or on a really tight budget, I may consider this hotel.  The front desk staff really was very nice and friendly.  But alas, I'm older now, a little spoiled, and used to my amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded September 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2012</t>
+  </si>
+  <si>
+    <t>I booked this hotel on the Southwest website for a business trip.  The reviews were positive, the location was perfect and the price too good to be true.  I thought it looked nice from the pictures and I thought it would be comparable to a Hampton, HIlton Gardens, or Mariott (places I normally stay) but this was not the case.
+It's almost set up like an apartment complex.  A tiny lobby, no downstairs sitting or breakfast areas, or community computer.  This I could have overlooked.  However once I got off the elevator, the hallways were dark and dirty with stains all over the carpets.  The quality of the room's furnishings reminded me of the Motel 8's I had stayed at during my low budget, college travel days.  Everything was cheap and run down and felt like it was purchased at a flea market.  
+The bottom line was that I didn't feel comfortable walking on the carpet barefoot or siting on the bedspread (dubious stains I didn't want to examine too closely.)
+I regret I didn't spend the extra $30-40 dollars for my normal Hampton or Ayres that also comes with a very nice breakfast and things you take for granted in your room - like shampoo...
+To be fair, if I was in my 20's again or on a really tight budget, I may consider this hotel.  The front desk staff really was very nice and friendly.  But alas, I'm...I booked this hotel on the Southwest website for a business trip.  The reviews were positive, the location was perfect and the price too good to be true.  I thought it looked nice from the pictures and I thought it would be comparable to a Hampton, HIlton Gardens, or Mariott (places I normally stay) but this was not the case.It's almost set up like an apartment complex.  A tiny lobby, no downstairs sitting or breakfast areas, or community computer.  This I could have overlooked.  However once I got off the elevator, the hallways were dark and dirty with stains all over the carpets.  The quality of the room's furnishings reminded me of the Motel 8's I had stayed at during my low budget, college travel days.  Everything was cheap and run down and felt like it was purchased at a flea market.  The bottom line was that I didn't feel comfortable walking on the carpet barefoot or siting on the bedspread (dubious stains I didn't want to examine too closely.)I regret I didn't spend the extra $30-40 dollars for my normal Hampton or Ayres that also comes with a very nice breakfast and things you take for granted in your room - like shampoo...To be fair, if I was in my 20's again or on a really tight budget, I may consider this hotel.  The front desk staff really was very nice and friendly.  But alas, I'm older now, a little spoiled, and used to my amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r138832256-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>138832256</t>
+  </si>
+  <si>
+    <t>08/29/2012</t>
+  </si>
+  <si>
+    <t>Superlative Care</t>
+  </si>
+  <si>
+    <t>I was extraordinarily pleased with the level of service provided to me by the day and night shift personnel.   Rosa,during the day: bright, friendly, courteous.  Scott on swing shift:  VERY helpful with all of my issues as a guest. While being professional and pleasant, Scott helped facilitate a number of solutions to the little problems that I faced while as a guest there - repeated computer connections issues: aided by Scott  toiletries and sundry items: hand-delivered by Scott. Friendly young man.   Alan the supervisor - under this man's direction, we as guests are given the full treatment. I was very pleased with my time here at Extended Stay America, Monrovia.PaulMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded September 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2012</t>
+  </si>
+  <si>
+    <t>I was extraordinarily pleased with the level of service provided to me by the day and night shift personnel.   Rosa,during the day: bright, friendly, courteous.  Scott on swing shift:  VERY helpful with all of my issues as a guest. While being professional and pleasant, Scott helped facilitate a number of solutions to the little problems that I faced while as a guest there - repeated computer connections issues: aided by Scott  toiletries and sundry items: hand-delivered by Scott. Friendly young man.   Alan the supervisor - under this man's direction, we as guests are given the full treatment. I was very pleased with my time here at Extended Stay America, Monrovia.PaulMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r133214136-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>133214136</t>
+  </si>
+  <si>
+    <t>07/01/2012</t>
+  </si>
+  <si>
+    <t>She Made Our Staff Pleasant</t>
+  </si>
+  <si>
+    <t>My wife and I are seasoned travelers throughout the US and abroad. However, this type property is not one we normally would use. We had to do so in a tight pinch. The room was large, clean and suited us fine. The unexpected/unadvertised 'free, light breakfast' was a plus.The shining gem of the stay was our front-desk staffer, "Stephanie". She was and is a true professional. Competent, personable and most helpful in several matters we had. In addiiton we noticed her ability to multitask and calmly and successfully handle unforeseen problems that arose. Manager and higher is definitely a certainty in her future (retain her services at whatever cost).The one, significant drawback was that the hotel had many varied cultured occupants, each of whom was cooking their 'specialties'. The properties ventilation was inadequate to mitigate this situation, so it's needless to say that this very, unfortunately left a lingering, very putrid aroma throughout the hallways. Adding this this was that they had a 'common area' for trash disposal, that I have to say resembled that seen in 'developing', 'third world nation'.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Los Angeles - Monrovia, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>My wife and I are seasoned travelers throughout the US and abroad. However, this type property is not one we normally would use. We had to do so in a tight pinch. The room was large, clean and suited us fine. The unexpected/unadvertised 'free, light breakfast' was a plus.The shining gem of the stay was our front-desk staffer, "Stephanie". She was and is a true professional. Competent, personable and most helpful in several matters we had. In addiiton we noticed her ability to multitask and calmly and successfully handle unforeseen problems that arose. Manager and higher is definitely a certainty in her future (retain her services at whatever cost).The one, significant drawback was that the hotel had many varied cultured occupants, each of whom was cooking their 'specialties'. The properties ventilation was inadequate to mitigate this situation, so it's needless to say that this very, unfortunately left a lingering, very putrid aroma throughout the hallways. Adding this this was that they had a 'common area' for trash disposal, that I have to say resembled that seen in 'developing', 'third world nation'.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r132037413-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>132037413</t>
+  </si>
+  <si>
+    <t>06/15/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>On my recent trip to California, I was looking for a place to stay that offered great value and service, and found it at Extended Stay America. The staff was amazing! Martha, the manager, and her staff, Stephanie, Rose, Liviana, and Scott met all of my needs and made me feel at home. I will definitely recommend it to everyone. Kind regards, Dolores H.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>On my recent trip to California, I was looking for a place to stay that offered great value and service, and found it at Extended Stay America. The staff was amazing! Martha, the manager, and her staff, Stephanie, Rose, Liviana, and Scott met all of my needs and made me feel at home. I will definitely recommend it to everyone. Kind regards, Dolores H.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r126988089-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
+  </si>
+  <si>
+    <t>126988089</t>
+  </si>
+  <si>
+    <t>03/30/2012</t>
+  </si>
+  <si>
+    <t>THANKS TO HOMESTEAD STAFF AND MANAGEMENT!</t>
+  </si>
+  <si>
+    <t>I really do love staying at this hotel, with its caring desk staff, hard-working maintenance crew and friendly neighbors. Scott, the Manager, works hard at pleasing guests and making the  place more enjoyable and livable. There's a laundry on-site, plenty of places to eat nearby and tons of free parking.  Good deal!</t>
+  </si>
+  <si>
+    <t>March 2012</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2617,5761 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>148</v>
+      </c>
+      <c r="X13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>164</v>
+      </c>
+      <c r="X15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>173</v>
+      </c>
+      <c r="X16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>172</v>
+      </c>
+      <c r="O17" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>181</v>
+      </c>
+      <c r="X17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s">
+        <v>188</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>172</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>189</v>
+      </c>
+      <c r="X18" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" t="s">
+        <v>194</v>
+      </c>
+      <c r="K19" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" t="s">
+        <v>196</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>172</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>197</v>
+      </c>
+      <c r="X19" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>201</v>
+      </c>
+      <c r="J20" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" t="s">
+        <v>204</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>205</v>
+      </c>
+      <c r="O20" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>206</v>
+      </c>
+      <c r="X20" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21" t="s">
+        <v>212</v>
+      </c>
+      <c r="L21" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>214</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>216</v>
+      </c>
+      <c r="J22" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" t="s">
+        <v>219</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>220</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s">
+        <v>226</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>227</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>227</v>
+      </c>
+      <c r="O24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>236</v>
+      </c>
+      <c r="J25" t="s">
+        <v>237</v>
+      </c>
+      <c r="K25" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" t="s">
+        <v>239</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>240</v>
+      </c>
+      <c r="O25" t="s">
+        <v>81</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>241</v>
+      </c>
+      <c r="X25" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>245</v>
+      </c>
+      <c r="J26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s">
+        <v>248</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>249</v>
+      </c>
+      <c r="X26" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>253</v>
+      </c>
+      <c r="J27" t="s">
+        <v>254</v>
+      </c>
+      <c r="K27" t="s">
+        <v>255</v>
+      </c>
+      <c r="L27" t="s">
+        <v>256</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>257</v>
+      </c>
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>258</v>
+      </c>
+      <c r="X27" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>262</v>
+      </c>
+      <c r="J28" t="s">
+        <v>263</v>
+      </c>
+      <c r="K28" t="s">
+        <v>264</v>
+      </c>
+      <c r="L28" t="s">
+        <v>265</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>266</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J29" t="s">
+        <v>269</v>
+      </c>
+      <c r="K29" t="s">
+        <v>270</v>
+      </c>
+      <c r="L29" t="s">
+        <v>271</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>272</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>273</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>274</v>
+      </c>
+      <c r="J30" t="s">
+        <v>275</v>
+      </c>
+      <c r="K30" t="s">
+        <v>276</v>
+      </c>
+      <c r="L30" t="s">
+        <v>277</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>272</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>279</v>
+      </c>
+      <c r="J31" t="s">
+        <v>280</v>
+      </c>
+      <c r="K31" t="s">
+        <v>281</v>
+      </c>
+      <c r="L31" t="s">
+        <v>282</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>272</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>283</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>284</v>
+      </c>
+      <c r="J32" t="s">
+        <v>285</v>
+      </c>
+      <c r="K32" t="s">
+        <v>286</v>
+      </c>
+      <c r="L32" t="s">
+        <v>287</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>288</v>
+      </c>
+      <c r="O32" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>289</v>
+      </c>
+      <c r="X32" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>293</v>
+      </c>
+      <c r="J33" t="s">
+        <v>294</v>
+      </c>
+      <c r="K33" t="s">
+        <v>295</v>
+      </c>
+      <c r="L33" t="s">
+        <v>296</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>297</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>298</v>
+      </c>
+      <c r="X33" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>301</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>302</v>
+      </c>
+      <c r="J34" t="s">
+        <v>303</v>
+      </c>
+      <c r="K34" t="s">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s">
+        <v>305</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>297</v>
+      </c>
+      <c r="O34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>298</v>
+      </c>
+      <c r="X34" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>308</v>
+      </c>
+      <c r="J35" t="s">
+        <v>309</v>
+      </c>
+      <c r="K35" t="s">
+        <v>310</v>
+      </c>
+      <c r="L35" t="s">
+        <v>311</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>288</v>
+      </c>
+      <c r="O35" t="s">
+        <v>81</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>313</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>314</v>
+      </c>
+      <c r="J36" t="s">
+        <v>315</v>
+      </c>
+      <c r="K36" t="s">
+        <v>316</v>
+      </c>
+      <c r="L36" t="s">
+        <v>317</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>318</v>
+      </c>
+      <c r="X36" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>321</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>322</v>
+      </c>
+      <c r="J37" t="s">
+        <v>323</v>
+      </c>
+      <c r="K37" t="s">
+        <v>324</v>
+      </c>
+      <c r="L37" t="s">
+        <v>325</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>326</v>
+      </c>
+      <c r="O37" t="s">
+        <v>71</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>327</v>
+      </c>
+      <c r="X37" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>330</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>331</v>
+      </c>
+      <c r="J38" t="s">
+        <v>332</v>
+      </c>
+      <c r="K38" t="s">
+        <v>333</v>
+      </c>
+      <c r="L38" t="s">
+        <v>334</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>335</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>336</v>
+      </c>
+      <c r="J39" t="s">
+        <v>337</v>
+      </c>
+      <c r="K39" t="s">
+        <v>338</v>
+      </c>
+      <c r="L39" t="s">
+        <v>339</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>340</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>341</v>
+      </c>
+      <c r="J40" t="s">
+        <v>342</v>
+      </c>
+      <c r="K40" t="s">
+        <v>343</v>
+      </c>
+      <c r="L40" t="s">
+        <v>344</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>345</v>
+      </c>
+      <c r="O40" t="s">
+        <v>81</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>346</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>347</v>
+      </c>
+      <c r="J41" t="s">
+        <v>348</v>
+      </c>
+      <c r="K41" t="s">
+        <v>349</v>
+      </c>
+      <c r="L41" t="s">
+        <v>350</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>351</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>352</v>
+      </c>
+      <c r="J42" t="s">
+        <v>353</v>
+      </c>
+      <c r="K42" t="s">
+        <v>354</v>
+      </c>
+      <c r="L42" t="s">
+        <v>355</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>356</v>
+      </c>
+      <c r="O42" t="s">
+        <v>81</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>357</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>358</v>
+      </c>
+      <c r="J43" t="s">
+        <v>359</v>
+      </c>
+      <c r="K43" t="s">
+        <v>360</v>
+      </c>
+      <c r="L43" t="s">
+        <v>361</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>356</v>
+      </c>
+      <c r="O43" t="s">
+        <v>116</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>363</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>364</v>
+      </c>
+      <c r="J44" t="s">
+        <v>365</v>
+      </c>
+      <c r="K44" t="s">
+        <v>366</v>
+      </c>
+      <c r="L44" t="s">
+        <v>367</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>368</v>
+      </c>
+      <c r="O44" t="s">
+        <v>81</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>370</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J45" t="s">
+        <v>365</v>
+      </c>
+      <c r="K45" t="s">
+        <v>372</v>
+      </c>
+      <c r="L45" t="s">
+        <v>373</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>368</v>
+      </c>
+      <c r="O45" t="s">
+        <v>116</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>374</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>375</v>
+      </c>
+      <c r="J46" t="s">
+        <v>365</v>
+      </c>
+      <c r="K46" t="s">
+        <v>376</v>
+      </c>
+      <c r="L46" t="s">
+        <v>377</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>368</v>
+      </c>
+      <c r="O46" t="s">
+        <v>81</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>378</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>379</v>
+      </c>
+      <c r="J47" t="s">
+        <v>380</v>
+      </c>
+      <c r="K47" t="s">
+        <v>381</v>
+      </c>
+      <c r="L47" t="s">
+        <v>382</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>383</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>384</v>
+      </c>
+      <c r="J48" t="s">
+        <v>385</v>
+      </c>
+      <c r="K48" t="s">
+        <v>386</v>
+      </c>
+      <c r="L48" t="s">
+        <v>387</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>388</v>
+      </c>
+      <c r="O48" t="s">
+        <v>116</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>390</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>391</v>
+      </c>
+      <c r="J49" t="s">
+        <v>392</v>
+      </c>
+      <c r="K49" t="s">
+        <v>393</v>
+      </c>
+      <c r="L49" t="s">
+        <v>394</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>395</v>
+      </c>
+      <c r="O49" t="s">
+        <v>81</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>396</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>397</v>
+      </c>
+      <c r="J50" t="s">
+        <v>398</v>
+      </c>
+      <c r="K50" t="s">
+        <v>399</v>
+      </c>
+      <c r="L50" t="s">
+        <v>400</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>401</v>
+      </c>
+      <c r="O50" t="s">
+        <v>62</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>402</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>403</v>
+      </c>
+      <c r="J51" t="s">
+        <v>404</v>
+      </c>
+      <c r="K51" t="s">
+        <v>405</v>
+      </c>
+      <c r="L51" t="s">
+        <v>406</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>407</v>
+      </c>
+      <c r="O51" t="s">
+        <v>81</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>409</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>410</v>
+      </c>
+      <c r="J52" t="s">
+        <v>411</v>
+      </c>
+      <c r="K52" t="s">
+        <v>316</v>
+      </c>
+      <c r="L52" t="s">
+        <v>412</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>401</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>413</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>414</v>
+      </c>
+      <c r="J53" t="s">
+        <v>415</v>
+      </c>
+      <c r="K53" t="s">
+        <v>416</v>
+      </c>
+      <c r="L53" t="s">
+        <v>417</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>418</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>419</v>
+      </c>
+      <c r="J54" t="s">
+        <v>420</v>
+      </c>
+      <c r="K54" t="s">
+        <v>421</v>
+      </c>
+      <c r="L54" t="s">
+        <v>422</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>423</v>
+      </c>
+      <c r="O54" t="s">
+        <v>71</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>424</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>425</v>
+      </c>
+      <c r="J55" t="s">
+        <v>426</v>
+      </c>
+      <c r="K55" t="s">
+        <v>427</v>
+      </c>
+      <c r="L55" t="s">
+        <v>428</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>423</v>
+      </c>
+      <c r="O55" t="s">
+        <v>116</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>429</v>
+      </c>
+      <c r="X55" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>432</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>433</v>
+      </c>
+      <c r="J56" t="s">
+        <v>434</v>
+      </c>
+      <c r="K56" t="s">
+        <v>435</v>
+      </c>
+      <c r="L56" t="s">
+        <v>436</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>437</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>438</v>
+      </c>
+      <c r="J57" t="s">
+        <v>439</v>
+      </c>
+      <c r="K57" t="s">
+        <v>440</v>
+      </c>
+      <c r="L57" t="s">
+        <v>441</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>442</v>
+      </c>
+      <c r="O57" t="s">
+        <v>116</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>444</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>445</v>
+      </c>
+      <c r="J58" t="s">
+        <v>446</v>
+      </c>
+      <c r="K58" t="s">
+        <v>447</v>
+      </c>
+      <c r="L58" t="s">
+        <v>448</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>442</v>
+      </c>
+      <c r="O58" t="s">
+        <v>116</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>449</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>450</v>
+      </c>
+      <c r="J59" t="s">
+        <v>451</v>
+      </c>
+      <c r="K59" t="s">
+        <v>452</v>
+      </c>
+      <c r="L59" t="s">
+        <v>453</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>454</v>
+      </c>
+      <c r="X59" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>457</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>458</v>
+      </c>
+      <c r="J60" t="s">
+        <v>459</v>
+      </c>
+      <c r="K60" t="s">
+        <v>460</v>
+      </c>
+      <c r="L60" t="s">
+        <v>461</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>462</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>463</v>
+      </c>
+      <c r="X60" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>466</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>467</v>
+      </c>
+      <c r="J61" t="s">
+        <v>468</v>
+      </c>
+      <c r="K61" t="s">
+        <v>469</v>
+      </c>
+      <c r="L61" t="s">
+        <v>470</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>471</v>
+      </c>
+      <c r="X61" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>474</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>475</v>
+      </c>
+      <c r="J62" t="s">
+        <v>476</v>
+      </c>
+      <c r="K62" t="s">
+        <v>477</v>
+      </c>
+      <c r="L62" t="s">
+        <v>478</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>479</v>
+      </c>
+      <c r="O62" t="s">
+        <v>62</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>481</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>482</v>
+      </c>
+      <c r="J63" t="s">
+        <v>483</v>
+      </c>
+      <c r="K63" t="s">
+        <v>484</v>
+      </c>
+      <c r="L63" t="s">
+        <v>485</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>479</v>
+      </c>
+      <c r="O63" t="s">
+        <v>116</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>486</v>
+      </c>
+      <c r="X63" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>489</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>490</v>
+      </c>
+      <c r="J64" t="s">
+        <v>491</v>
+      </c>
+      <c r="K64" t="s">
+        <v>492</v>
+      </c>
+      <c r="L64" t="s">
+        <v>493</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>479</v>
+      </c>
+      <c r="O64" t="s">
+        <v>81</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>494</v>
+      </c>
+      <c r="X64" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>497</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>498</v>
+      </c>
+      <c r="J65" t="s">
+        <v>499</v>
+      </c>
+      <c r="K65" t="s">
+        <v>500</v>
+      </c>
+      <c r="L65" t="s">
+        <v>501</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>502</v>
+      </c>
+      <c r="X65" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>505</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>506</v>
+      </c>
+      <c r="J66" t="s">
+        <v>507</v>
+      </c>
+      <c r="K66" t="s">
+        <v>508</v>
+      </c>
+      <c r="L66" t="s">
+        <v>509</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>510</v>
+      </c>
+      <c r="O66" t="s">
+        <v>81</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>512</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>513</v>
+      </c>
+      <c r="J67" t="s">
+        <v>514</v>
+      </c>
+      <c r="K67" t="s">
+        <v>515</v>
+      </c>
+      <c r="L67" t="s">
+        <v>516</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>517</v>
+      </c>
+      <c r="O67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>518</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>519</v>
+      </c>
+      <c r="J68" t="s">
+        <v>520</v>
+      </c>
+      <c r="K68" t="s">
+        <v>521</v>
+      </c>
+      <c r="L68" t="s">
+        <v>522</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>407</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>523</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>524</v>
+      </c>
+      <c r="J69" t="s">
+        <v>525</v>
+      </c>
+      <c r="K69" t="s">
+        <v>526</v>
+      </c>
+      <c r="L69" t="s">
+        <v>527</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>528</v>
+      </c>
+      <c r="O69" t="s">
+        <v>116</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>529</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>530</v>
+      </c>
+      <c r="J70" t="s">
+        <v>531</v>
+      </c>
+      <c r="K70" t="s">
+        <v>532</v>
+      </c>
+      <c r="L70" t="s">
+        <v>533</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>528</v>
+      </c>
+      <c r="O70" t="s">
+        <v>81</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>534</v>
+      </c>
+      <c r="X70" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>537</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>538</v>
+      </c>
+      <c r="J71" t="s">
+        <v>539</v>
+      </c>
+      <c r="K71" t="s">
+        <v>540</v>
+      </c>
+      <c r="L71" t="s">
+        <v>541</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>542</v>
+      </c>
+      <c r="X71" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>545</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>546</v>
+      </c>
+      <c r="J72" t="s">
+        <v>547</v>
+      </c>
+      <c r="K72" t="s">
+        <v>548</v>
+      </c>
+      <c r="L72" t="s">
+        <v>549</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>550</v>
+      </c>
+      <c r="O72" t="s">
+        <v>116</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>551</v>
+      </c>
+      <c r="X72" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>554</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>555</v>
+      </c>
+      <c r="J73" t="s">
+        <v>556</v>
+      </c>
+      <c r="K73" t="s">
+        <v>557</v>
+      </c>
+      <c r="L73" t="s">
+        <v>558</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>550</v>
+      </c>
+      <c r="O73" t="s">
+        <v>62</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>551</v>
+      </c>
+      <c r="X73" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>560</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>561</v>
+      </c>
+      <c r="J74" t="s">
+        <v>562</v>
+      </c>
+      <c r="K74" t="s">
+        <v>563</v>
+      </c>
+      <c r="L74" t="s">
+        <v>564</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>550</v>
+      </c>
+      <c r="O74" t="s">
+        <v>116</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>565</v>
+      </c>
+      <c r="X74" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>568</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>569</v>
+      </c>
+      <c r="J75" t="s">
+        <v>570</v>
+      </c>
+      <c r="K75" t="s">
+        <v>571</v>
+      </c>
+      <c r="L75" t="s">
+        <v>572</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>550</v>
+      </c>
+      <c r="O75" t="s">
+        <v>71</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>573</v>
+      </c>
+      <c r="X75" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>576</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>577</v>
+      </c>
+      <c r="J76" t="s">
+        <v>578</v>
+      </c>
+      <c r="K76" t="s">
+        <v>579</v>
+      </c>
+      <c r="L76" t="s">
+        <v>580</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>581</v>
+      </c>
+      <c r="O76" t="s">
+        <v>81</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>582</v>
+      </c>
+      <c r="X76" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>585</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>586</v>
+      </c>
+      <c r="J77" t="s">
+        <v>587</v>
+      </c>
+      <c r="K77" t="s">
+        <v>588</v>
+      </c>
+      <c r="L77" t="s">
+        <v>589</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>590</v>
+      </c>
+      <c r="O77" t="s">
+        <v>81</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>591</v>
+      </c>
+      <c r="X77" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>594</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>595</v>
+      </c>
+      <c r="J78" t="s">
+        <v>596</v>
+      </c>
+      <c r="K78" t="s">
+        <v>597</v>
+      </c>
+      <c r="L78" t="s">
+        <v>598</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>590</v>
+      </c>
+      <c r="O78" t="s">
+        <v>62</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>599</v>
+      </c>
+      <c r="X78" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>602</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>603</v>
+      </c>
+      <c r="J79" t="s">
+        <v>596</v>
+      </c>
+      <c r="K79" t="s">
+        <v>604</v>
+      </c>
+      <c r="L79" t="s">
+        <v>605</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>590</v>
+      </c>
+      <c r="O79" t="s">
+        <v>81</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>606</v>
+      </c>
+      <c r="X79" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>609</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>610</v>
+      </c>
+      <c r="J80" t="s">
+        <v>611</v>
+      </c>
+      <c r="K80" t="s">
+        <v>612</v>
+      </c>
+      <c r="L80" t="s">
+        <v>613</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>614</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>615</v>
+      </c>
+      <c r="X80" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>618</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>619</v>
+      </c>
+      <c r="J81" t="s">
+        <v>620</v>
+      </c>
+      <c r="K81" t="s">
+        <v>621</v>
+      </c>
+      <c r="L81" t="s">
+        <v>622</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>614</v>
+      </c>
+      <c r="O81" t="s">
+        <v>62</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>623</v>
+      </c>
+      <c r="X81" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>626</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>627</v>
+      </c>
+      <c r="J82" t="s">
+        <v>628</v>
+      </c>
+      <c r="K82" t="s">
+        <v>629</v>
+      </c>
+      <c r="L82" t="s">
+        <v>630</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>614</v>
+      </c>
+      <c r="O82" t="s">
+        <v>81</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>631</v>
+      </c>
+      <c r="X82" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>633</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>634</v>
+      </c>
+      <c r="J83" t="s">
+        <v>635</v>
+      </c>
+      <c r="K83" t="s">
+        <v>636</v>
+      </c>
+      <c r="L83" t="s">
+        <v>637</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>638</v>
+      </c>
+      <c r="X83" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>641</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>642</v>
+      </c>
+      <c r="J84" t="s">
+        <v>643</v>
+      </c>
+      <c r="K84" t="s">
+        <v>644</v>
+      </c>
+      <c r="L84" t="s">
+        <v>645</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>646</v>
+      </c>
+      <c r="O84" t="s">
+        <v>81</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>647</v>
+      </c>
+      <c r="X84" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>650</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>651</v>
+      </c>
+      <c r="J85" t="s">
+        <v>652</v>
+      </c>
+      <c r="K85" t="s">
+        <v>653</v>
+      </c>
+      <c r="L85" t="s">
+        <v>654</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>655</v>
+      </c>
+      <c r="O85" t="s">
+        <v>81</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>656</v>
+      </c>
+      <c r="X85" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>659</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>660</v>
+      </c>
+      <c r="J86" t="s">
+        <v>661</v>
+      </c>
+      <c r="K86" t="s">
+        <v>662</v>
+      </c>
+      <c r="L86" t="s">
+        <v>663</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>664</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>665</v>
+      </c>
+      <c r="X86" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>668</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>669</v>
+      </c>
+      <c r="J87" t="s">
+        <v>670</v>
+      </c>
+      <c r="K87" t="s">
+        <v>671</v>
+      </c>
+      <c r="L87" t="s">
+        <v>672</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>673</v>
+      </c>
+      <c r="O87" t="s">
+        <v>116</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>665</v>
+      </c>
+      <c r="X87" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>36269</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>675</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>676</v>
+      </c>
+      <c r="J88" t="s">
+        <v>677</v>
+      </c>
+      <c r="K88" t="s">
+        <v>678</v>
+      </c>
+      <c r="L88" t="s">
+        <v>679</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>680</v>
+      </c>
+      <c r="O88" t="s">
+        <v>116</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>679</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_259.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_259.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="766">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>Natalie G</t>
   </si>
   <si>
     <t>07/01/2018</t>
@@ -191,6 +194,9 @@
 I wasn't expecting much and didn't get much - the rooms are pretty bare bones, though it was clean. Because the rooms have full kitchens and people often cook in them, there was a lingering smell that never went away - even with the window open and fan blasting. It was kind of an overcooked pasta smell...not terrible, and definitely could have been worse (I even got an air freshener from my car...didn't help). The "breakfast" is pretty nonexistent, just granola bars, instant oatmeal, muffins, and coffee - though the coffee was pretty good. This is more than many hotels, of course - though I don't think...Needed to book a stay in Monrovia/Arcadia area for a recent family commitment. I searched Hotwire first as that's what I normally do when I need something inexpensive, but unfortunately there were no good deals for this past weekend. The cheapest was $70 - which was this hotel. $70 is pretty good, but I needed two beds in the room and that wasn't an option. I was finally able to get a two queen choice for a higher rate - $96/night. By the time I paid Hotwire fees and taxes, it worked out to around $114/night. I would pay that much for a 3/3.5 star hotel, but a 2 star for that price was a little hard to swallow. However, it was still the best deal in the area so I booked it. I wasn't expecting much and didn't get much - the rooms are pretty bare bones, though it was clean. Because the rooms have full kitchens and people often cook in them, there was a lingering smell that never went away - even with the window open and fan blasting. It was kind of an overcooked pasta smell...not terrible, and definitely could have been worse (I even got an air freshener from my car...didn't help). The "breakfast" is pretty nonexistent, just granola bars, instant oatmeal, muffins, and coffee - though the coffee was pretty good. This is more than many hotels, of course - though I don't think they should be able to advertise "breakfast" on third party sites like Hotwire, as there are no details given beyond that point, and this is really more of a snack.Overall, I have stayed in worse/less clean places, and the staff was helpful when I needed a downstairs room close to the door for my elderly mother I was traveling with. I wish the rate had been cheaper, but I was also willing to pay it to be in the area, which is right off the 210 and just a few minutes from Sierra Madre (where my family lives). We pretty much just slept there, so it did the job.More</t>
   </si>
   <si>
+    <t>lynndds</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r556486556-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -218,6 +224,9 @@
     <t>After 4 months staying at Extended Stay in Monrovia, we are moving into our remodeled house.  We probably should have leased/rented a house for less money, but Extended Stay worked for us.  You can imagine all the stories we now have of staying in one place for so long.  The positive thing about this place is the staff.  They have a tough job.  There are a variety of people that stay here and they some how deal with them all in a respectful &amp; efficient way.  For us, we needed a place close to the construction of our house, long-term rates, a functional kitchen and a place for our dog.  I learned the first night that you have to run the stove vent fan &amp; open the windows or you will set off the fire alarm.  The refrigerator is full sized, the shower/bathroom is good.  The place is not pretty but functional.  There are grassy areas around the property for the dog with plastic bags in the back by the freeway.  It reminds me of a college dorm or hospital room, but it works.  The breakfast is just good coffee with granola bars but there are many places to eat close by.  The negative is that the WiFi is barely functional but we used our iPhones as Hotspots or used a MiFi.  Another negative, which you can't do anything about, is the  thick, sweet odor of pot smoked by the...After 4 months staying at Extended Stay in Monrovia, we are moving into our remodeled house.  We probably should have leased/rented a house for less money, but Extended Stay worked for us.  You can imagine all the stories we now have of staying in one place for so long.  The positive thing about this place is the staff.  They have a tough job.  There are a variety of people that stay here and they some how deal with them all in a respectful &amp; efficient way.  For us, we needed a place close to the construction of our house, long-term rates, a functional kitchen and a place for our dog.  I learned the first night that you have to run the stove vent fan &amp; open the windows or you will set off the fire alarm.  The refrigerator is full sized, the shower/bathroom is good.  The place is not pretty but functional.  There are grassy areas around the property for the dog with plastic bags in the back by the freeway.  It reminds me of a college dorm or hospital room, but it works.  The breakfast is just good coffee with granola bars but there are many places to eat close by.  The negative is that the WiFi is barely functional but we used our iPhones as Hotspots or used a MiFi.  Another negative, which you can't do anything about, is the  thick, sweet odor of pot smoked by the variety of guests.  Even though there are no smoking signs all over the place, I guess some people don't consider smoking dope as smoking.  So it is not a five star garden spot but it fulfills the needs.More</t>
   </si>
   <si>
+    <t>michellebT395VT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r552378793-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
   </si>
   <si>
     <t>Although reservation was confirmed through the property, they overbooked and did not have a room for us.  I confirmed TWICE, once before leaving FL and again when landing in Phoenix.  Horrible communication between reservations and clerks.  Only excuse was "I'm sorry, I don't know what they told you this morning".More</t>
+  </si>
+  <si>
+    <t>Bigxr</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r548365854-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
@@ -287,6 +299,9 @@
 One night I arrived in my room to find it completely bare of my possessions. I rang the desk to report that everything I owned had been stolen, when they replied "Oh, we thought you'd checked out, its all down here!" they had bundled my belongings into a big plastic sack and put them in a store room. No compensation offered....I had the great misfortune to be put here by my company on a recent business visit.I was booked in for five nights. The first night I arrived late, so just hit the sack. The next morning I discovered that "Breakfast" consisted of one coffee machine and a tray of cereal bars, and the coffee machine only worked on three out of the five mornings I endured here. I was disappointed.The second night I arrived with enough time to look around the Hotel, that didn't take long, this is somewhere that you sleep and go.The saving grace of this Hotel is that there are plenty of dining options close by, within walking distance. Which is a bit like saying my clapped out old wreck of a car is OK because I can take a nice taxi.The staff are laid back to the point of total inactivity, my room was NEVER cleaned, not even once during my stay, when I complained after the second night I was moved to another room, which was also never cleaned.One night I arrived in my room to find it completely bare of my possessions. I rang the desk to report that everything I owned had been stolen, when they replied "Oh, we thought you'd checked out, its all down here!" they had bundled my belongings into a big plastic sack and put them in a store room. No compensation offered.I stuck it out on principle, but I would highly recommend anyone thinking about a room here to think again.More</t>
   </si>
   <si>
+    <t>Kimtsy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r546741347-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -314,6 +329,9 @@
     <t>We stayed in a room with a kitchen which was convenient but as soon as we walked on our floor the entire hallway smelled like fish. Maybe there should be a rule that you can’t cook fish in your hotel room because every single room will smell like it, super gross. The bed was so hard I felt like i was sleeping on the floor. I woke up the next morning super sore from sleeping on that uncomfortable bed. The only good thing I have to say about this place was that the water pressure in the bathroom was great. More</t>
   </si>
   <si>
+    <t>morotateakira</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r546322355-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -338,6 +356,9 @@
     <t>Stayed here for a few days. Convenient location for sure but the building and fixtures were rather old. Cleanliness average. Service was pretty minimal but acceptable. Willing to stay here again if no other viable choice nearby. Main attraction is the reasonable rate.More</t>
   </si>
   <si>
+    <t>perezquad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r531448321-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -365,6 +386,9 @@
     <t>The hotel and the rooms were very clean parking lot very clean well-lit. The staff was extremely friendly and helpful. Will definitely stay here again great value before the price. Really enjoyed our stayMore</t>
   </si>
   <si>
+    <t>198glennd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r531582608-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -386,6 +410,9 @@
     <t>Just right for a single guy traveling with a dog and a show car.  Comfortable bed, good heating and cooling, excellent shower, adequate parking for car and trailer, landscaping was friendly for dog walking and the kitchen was like new.  "Grab and Go" breakfast was a light on options (oatmeal and energy bars, but no fruit).  Glad I had food left over from the handy restaurants on the same property.  Noise from adjacent freeway was not noticeable.More</t>
   </si>
   <si>
+    <t>reginaj716</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r529631275-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -410,6 +437,9 @@
     <t>Hotel was clean and staff were attentive. Picnic tables available with shade and trees to get out of the room for fresh air. Walking distance to shopping and restaurants. The "Grab and Go" breakfast is quick and easy to fix on your way out to meetings/work/leisure. More</t>
   </si>
   <si>
+    <t>jaraldo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r507571570-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -437,6 +467,9 @@
     <t>Run, dont walk away from booking at this location. Too many problems to enumerate here and I am worn out from how long i had to type my review on the company's portal. The staff is apathetic, rude and combative in their demeanor. They are right... The customer... Never!More</t>
   </si>
   <si>
+    <t>Everlhast</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r505794523-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -461,6 +494,9 @@
     <t>The corner of the bed was broken, so the mattress leaned to the left corner. The blankets were very itchy and uncomfortable, we went out and bought our own. The bed seemed to block the air conditioning so the room felt kind of stuffy at times. Location was great and it was next to everything. I would definitely stay here again because of the value.More</t>
   </si>
   <si>
+    <t>Manishsjain</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r504652418-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -485,6 +521,9 @@
     <t>Good hotel to stay for the price with Kitchen and easy access to stores nearby.  Love to stay at extended stay.  Really good for a family trip.  Would be great if more option are added for breakfast.  I stayed at different location  were they used to have fruits.More</t>
   </si>
   <si>
+    <t>Kathy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r500405544-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -509,6 +548,9 @@
     <t>I don't normally leave reviews but after today I am compelled. I booked my 2 day stay thru Expedia to attend a business conference. During the morning of day one I called by Rosie that I needed to return to check out. She was soooo rude - didn't listen to what I was trying to say - insisted there was nothing she could do. So rude. I asked for the manager and was quickly told there was nothing she could do and she was on a conference call. After I raised my voice to force Rosie to listen I gave her my confirmation number.  She acted like this was my problem and that I didn't pay for the 2nd night. Complete nightmare. I called Expedia who assures me it was on their end and they faxed a paper to Rosie to confirm my paid stay. As for the hotel - the rooms are ok but the beds a old - like really old. Hard and very uncomfortable. I've had better mattresses at lower chains. For amount of money per night - one would think a nice bed would be included. I think I'll stay away from this chain of hotels. More</t>
   </si>
   <si>
+    <t>K4400ONanthonyd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r499306863-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -533,6 +575,9 @@
     <t>If you want good night sleep, go some where else.  The air condition is loud and next to the bed. It will be noisy and cold at night. I Couldn't believe they can have a room layout the way it is. The staffs is polite and helpful but don't expect any help since nothing they can do.More</t>
   </si>
   <si>
+    <t>sandaeh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r498877179-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -560,6 +605,9 @@
     <t>We were a family of four, The nice thing that I can say about the hotel is that the beds were somewhat comfortable and the hotel was quiet for the most part if, you don't mind the dogs barking. I would pay the extra money for another hotel. Lesson learnedMore</t>
   </si>
   <si>
+    <t>Becky V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r497586659-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -584,6 +632,9 @@
     <t>Don't stay here. It was a complete mess. I had to go down four times for a new card because it was not working to enter my room. Our feet turned black after moments of walking barefoot. For 134 I found a much better cleanly hotel to stay at. Very disappointed. Wound up traveling to the ghetto of Oxnard and had a much better experience at a best western.More</t>
   </si>
   <si>
+    <t>bryantw75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r494269433-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -608,6 +659,9 @@
     <t>Bad customer service. First time with the extended stay hotel with my family. The room had a broken hair dryer, while the kitchen was missing basic essentials such as pots, pans, plates, utensils and dish washing soap. Will never patronize again. More</t>
   </si>
   <si>
+    <t>Nutty T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r493273958-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -632,6 +686,9 @@
     <t>Hair dryer didn't work, early morning wake up knock on the door for "smoke" yet the person didn't actually enter the room once I opened the door. I'm not talking about fire, but cigarette smoke.  We don't smoke but apparently someone in the hotel must have so they decided to inconvenience everyone. Gum or something stuck on the carpet, no toiletries. More</t>
   </si>
   <si>
+    <t>JubbaG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r471279261-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -659,6 +716,9 @@
     <t>I was traveling on business and booked several days in advance through our Corporate Lodging Account.  Because I like to be double sure, I also called and confirmed the reservation directly with the Hotel reservation staff the same day.Alas, when I arrived I was told my reservation was cancelled due to it being after 6pm and no credit card on file (I was never asked for one since it was booked through a corporate lodging account).  I told the check in clerk (Jessica) that this was a terrible policy if the hotel wants to have return guests.   Information on policies needs to be communicated upfront at the time of reservation confirmation, not after the fact.  To her credit, she agreed and apologized and was very professional and patient, even while training a new employee.  My general impression of my first time stay with ESOA is that they do not prioritize short term stay guests and are okay with alienating them from future stays to focus on the longer term clientele.Whomever the manager of this hotel is should commend Jessica for taking a train wreck experience and handling it like a pro.  She deserves better and so do I.More</t>
   </si>
   <si>
+    <t>MinnesotaNellie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r459869137-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -677,6 +737,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Dave H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r457636220-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -698,6 +761,9 @@
     <t>When I arrived the two front desk people were having a conversation, they BOTH ignored me, and continued talking about their "night" plans.  Finally after a minute of standing there one looked at me, and looked at me like "well."  NO greeting, no hello, nothing.  Than as she was "helping" me, they continued their conversation.  At one point I had to ask, "are you talking to me?" Ahh NO!Their breakfast is a JOKE.  It does not even qualify as a continental breakfast.  IT has coffee, hot water for tea, pre packaged muffins, granola bars, and packaged oatmeal that you add hot water to.  THATS IT.  No juice, no fruit, no milk, no cereal!  To call this a breakfast is a JOKE!This hotel accepts dogs, and in the middle of the night a couple started barking, and nobody took care of it.  It took me 10 tries to find somebody so I could check out.  There is one guy in the mornings, and there is always a sign at desk saying, "helping other guests, check later"  I finally saw him in the back, and said that I was leaving room, and left my room key and number sitting at the front desk.I got this hotel on a discount website, AND even then I would not stay here again.  The rooms are fine, the location good for restaurants, but other than that very poor.More</t>
   </si>
   <si>
+    <t>Sharob2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r430342482-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -719,6 +785,9 @@
     <t>We were traveling for my 50th class reunion and this hotel was close to were the event was and allowed dogs.  The check in was good and the clerk was quick and was able to answer my question and knew who I was.  I had requested early check in.  The grounds were neat and clean, lobby and desk area also, clerk knew what she was doing.  They were doing some remodeling but you couldn't tell because there wasn't any noise or mess about.  The halls were all clean, our room was clean so was the bathroom.  What we liked about the room were the floors.  This is the first hotel we have been in that had laminate floors perfect for pets.  Our dogs are non shedding and paper trained but they are still dogs so the messes were easy cleaned and kept to a few.  I don't think the dogs liked the floors they could hear their toenails on them.  Our room was quiet.  The only time we heard any noise was when we walked down the hall then all the dogs on the floor would start barking but they are dogs and what do your expect.  We made arrangements to have our trash picked up everyday which we appreciated and cost us $3, we have found we are trashy, the cost was just fine.  We would tell the desk clerk every morning when we left and it was picked...We were traveling for my 50th class reunion and this hotel was close to were the event was and allowed dogs.  The check in was good and the clerk was quick and was able to answer my question and knew who I was.  I had requested early check in.  The grounds were neat and clean, lobby and desk area also, clerk knew what she was doing.  They were doing some remodeling but you couldn't tell because there wasn't any noise or mess about.  The halls were all clean, our room was clean so was the bathroom.  What we liked about the room were the floors.  This is the first hotel we have been in that had laminate floors perfect for pets.  Our dogs are non shedding and paper trained but they are still dogs so the messes were easy cleaned and kept to a few.  I don't think the dogs liked the floors they could hear their toenails on them.  Our room was quiet.  The only time we heard any noise was when we walked down the hall then all the dogs on the floor would start barking but they are dogs and what do your expect.  We made arrangements to have our trash picked up everyday which we appreciated and cost us $3, we have found we are trashy, the cost was just fine.  We would tell the desk clerk every morning when we left and it was picked up before we got back in the afternoon.  On Sunday our last day I told the desk clerk and she said they didn't have trash pick up and I said I paid for it and she had to look it.  Once she saw that I had she said okay.  We weren't gone as long on Sunday so our trash was picked up late, our last day, and the same desk clerk raised her voice at us and said that we were suppose to check out and I said no we were there until Monday morning as we walked through the lobby.  I found this clerk and our last day to be the worse day of our trip.  Because of this clerk everyone missed out on a tip and we are very generous with tipping on this trip no one earned a tip.  I find when traveling that clerks need to tend to the customers at the front desk first, phones should be answered by someone else.  A paying customer is more important than someone who may or may not be a paying customer also everyone should know the rules of the house.  Everything had been going just fine until we had to deal with this one clerk, we will not be staying at this hotel again.  Property was fine.More</t>
   </si>
   <si>
+    <t>Marklaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r427388849-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -737,6 +806,9 @@
     <t>This place is very reasonably priced and allows pets.  Stayed there for just a few days while the house was being fumigated and it was fine. Because it has a full kitchen it's good for, yes, extended stays.  The room was fair.  We had two cats and their food ended full of ants.  The room had a musty smell that we masked with air fresheners.  It's quiet, the king bed was fine - it sagged a bit in the middle but was still comfortable, and the staff was helpful.  The "breakfast" is anything but - coffee, hot chocolate, muffins and a couple of granola bars.  It's well located, right off the freeway and near many restaurants.  It is definitely average, nothing more.  Very utilitarian.More</t>
   </si>
   <si>
+    <t>FOODGUYL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r404775942-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -764,6 +836,9 @@
     <t>This hotel reminds me a little bit of a motel, but it's terrific. The rooms are clean and with a kitchen. The front desk staff Andrea is super friendly and pleasant, even goes above and beyond to make sure stay is always great. Walking distance to many restaurants and shopping centers. Only downfall need to reserve in advance or most likely no rooms will be available. More</t>
   </si>
   <si>
+    <t>Theresa R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r377049898-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -786,6 +861,9 @@
   </si>
   <si>
     <t>It was a very enjoyable stay..... Room was clean, bed was comfy and the staff was professional and pleasant...... In the future I will make sure to continue to book here and I will recommend ESA Monrovia hotel to all my family and friends......More</t>
+  </si>
+  <si>
+    <t>Raiteva</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r370773353-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
@@ -831,6 +909,9 @@
 I went into the bathroom, and it was also clean to me at first sight, but looking at the curtains i found some rust stain and some molds on the tiles and the fan is really loud a little bit depleasant to be honest. But we had enough towels the toilet and the sink was clean, no dust...Me and my husband came on april 2016 for 8 nights.I really love that it is close to the freeway entrance, very convenient.The neighborhood is cute and there are a lot of restaurants near: red lobster, outback, buffet...I really love the outside look of the building.We arrive a little bit early of the regular check-in time, but the young lady was super kind and very informative. Our check-in was less than 5 minutes and she told us all the instructions we need to know such as if we need ustensils for our kitchenette, WIFI, etc.. and she gave us our keys.I've already send them some requests such as our room to be close to the elevator and 1st floor.We were at the ground floor 3 rooms away from the Lobby, it was really near from the entrance, i was really okay with that :)We enter the room, i first looked at the Kitchenette and the fridge and everything was clean. The only complain i would give is that the fridge makes a lot of noise.I went into the bathroom, and it was also clean to me at first sight, but looking at the curtains i found some rust stain and some molds on the tiles and the fan is really loud a little bit depleasant to be honest. But we had enough towels the toilet and the sink was clean, no dust on the floor, OK!And then the bedroom! very large, we had a large closet with an iron and iron board inside, the rug was clean, no dust on the furnitures.My complains: The bed was not comfortable, the AC was really noisy.To summarise, our journey was okay exept for the AC+fridge and Fan which are really loud, i think you should really make some changes about this!Am i returning in this hotel? Yes! It is really convenient and very well located.It migh need some attention about cleanliness of the bathroom but it was ok.Do i recommend this hotel? For what i paid, YES! I paid aprox 97$ per night.I don't regret it!Thank you!More</t>
   </si>
   <si>
+    <t>Jimbo316</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r336307720-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -849,6 +930,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>jim g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r314790379-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -867,6 +951,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Nancy V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r309986298-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -882,6 +969,9 @@
     <t>I have a mixed review. When my husband and I first checked into our room, there was food left in the refrigerator and the sheets were obviously dirty. I spoke to management and was instantly upgraded to a different room. That was awesome! HOWEVER; the walls were paper thin so we where able hear all of the goings on in the room next to us. It would have been even more uncomfortable if we would would had our kids with us. other than that the rooms were mediocre not sure if we would stay there again but it was ok for the price.</t>
   </si>
   <si>
+    <t>Skyler K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r306512395-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -897,6 +987,9 @@
     <t>This place is just OK but if you have AT&amp;T there is nil coverage.  This made it impossible for me to do my business from my hotel and I had to hang out at coffee shops and restaurants.  I hear that if you have T-Mobile there is coverage.  Front desk confirms that the big three: Spring, AT&amp;T and Verizon have nil coverage.  So I won't stay here again.  It was FILTHY under the beds.  Rest of the room and bathroom were ok.  If you do stay here, have breakfast at Moravian in Monrovia.  Old fashioned service, GREAT food, Breakfast is about $6 all up.</t>
   </si>
   <si>
+    <t>sls58</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r279561247-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -922,6 +1015,9 @@
   </si>
   <si>
     <t>Inexpensive but bare bones. The rooms do have kitchenettes but no utensil, coffee pot, plates, etc. You can ask for thing one at a time at the front desk and haul them to the room yourself if you choose.  The bed was ok but not great.  Noise was reasonable considering the hotel is next to highway.  There are many restaurants in the area.  Plenty of parking with many spots in the shade.   Windows open fully.  Be careful when booking.  They do offer apples and granola bars for breakfast. There are two Extended Stay America's in the area.  The other looks nicer from the outside and in lobby but did not see a room. We probably  will try another hotel next time.More</t>
+  </si>
+  <si>
+    <t>mmmulhall</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r278301239-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
@@ -955,6 +1051,9 @@
 While breakfast is listed as being provided from 6 to 9 am, it is very meager.  Coffee, fruit and packaged granola bars or muffin.  The dining area is quite small, so it is better to take whatever is wanted back to the room.  The whole experience...An impromptu visit to Los Angeles, arranged by relatives, put me up in Extended Stay America for almost a week.  The hotel is very plain and simple, but also very clean.  The Staff in Monrovia is cheerful and very accommodating.  Each room is set up with a refrigerator and small electric stove, along with cabinets for storing kitchen equipment and food.  The amenities available are all listed and must be selected by each guest.  They are then delivered to your door.  The rooms are air-conditioned, which can help block some of the noise from the nearby highway (the 205).Located on Huntington Drive and 5th Avenue where Monrovia and Arcadia touch, this residence gives easy access to anyone traveling the Los Angeles highway system.  It is nearby the great Huntington Library, and the surrounding parklands.  It is also convenient to those who wish to attend the races at Santa Anita.  All around the motel are all kinds of restaurants, juice bars and places to easily meet a host of culinary appetites.  There are small malls within easy walking distance.  The Jockey, a restaurant founded around the famous racehorse Seabiscuit, is but two blocks away. While breakfast is listed as being provided from 6 to 9 am, it is very meager.  Coffee, fruit and packaged granola bars or muffin.  The dining area is quite small, so it is better to take whatever is wanted back to the room.  The whole experience was very simple, but acceptable enough.  My only concern was finding the two sets of stairs to be located at either end of the wings adjoining the very long main corridor.  Taking the elevator was the only practicable way of going up or down, even for one flight.  I found this disconcerting should there be a fire or other emergency.  There should be a stairway in the center of such an extended building.  If it was there, I was unable to locate it.   The signs pointed to the far ends of the two wings.  Thankfully there were no emergencies that made knowledge of their whereabouts necessary.  Since the chain is now under corporate ownership, it would seem time for some makeovers.  Otherwise, in a pinch, this kind of place was both convenient, clean and even restful enough to serve for a few days.More</t>
   </si>
   <si>
+    <t>Tami E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r277823993-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -973,6 +1072,9 @@
     <t>I was very disappointed in this hotel. First they advertised a pool and had none. I booked for five nights and you had to pay up front which would have been fine except then getting your money back to find a new hotel was impossible. The rooms were smelly.  The staff was friendly however and helped us with an issue when out first rooms air did not work. This is more of an apartment type building than a hotel. Not what I was expecting at all. More</t>
   </si>
   <si>
+    <t>Jleath</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r260894125-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -991,6 +1093,9 @@
     <t>I was here on business and my company booked this hotel for me. When I checked in there was no soap or shampoo provided in the bathroom. The tv remote was missing from the room. The phone was missing buttons--including the button to dial the front desk. My room had a nonsmoking sign on it--but I found out it was a smoking room. Therefore it reeked and smelled terrible. I have asthma but had to sleep in a smoking room. I waited over 15 minute and nobody came out to help me before I gave up and returned to my room (because remember I couldn't call the front desk from my room). I was finally able to switch rooms the next day--which was considerably better BUT I found a bug in my bed. Super gross.  I called to have the front desk bring me silverware (no pots and pans--utensils only) and it took over 30 mins just to bring it up to my room.The room had chunks of carpet missing that looked like it had been clawed away by an animal. There was only 1 luggage cart on the premises (which was in terrible condition and very hard to move around). If you can avoid it, do not stay here. If my company sends me back to this area I will refuse to stay at this location ever again.More</t>
   </si>
   <si>
+    <t>John J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r246398125-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1015,6 +1120,9 @@
     <t>Great customer service, the front desk staff were very friendly, very accommodating over all nice. The rooms were clean and spacious. It was great having a kitchenette to cook.  My stay was very comfortable. I would stay there again and highly recommend this hotel. More</t>
   </si>
   <si>
+    <t>Machilus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r243578011-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1042,6 +1150,9 @@
     <t>Extended stay America is surprising good here.It is nice and neat. The room is comfort. The staff is nice.Also it is not faraway from Arcadia area, which is good for Asian people to stay.The only unsure thing is that I was bitten by bugs after stay here, but I am not sure if the room has bugs, hopefully not. If not, I will give them a full score.More</t>
   </si>
   <si>
+    <t>Chuck N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r229805321-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1057,6 +1168,9 @@
     <t>Although facility and location next to freeway not great, the staff was excellent in caring for my wife after biopsy surgery. The first night I stayed there, the second night my wife stayed and without prompt they cleaned the room, this is not the norm on these inexpensive places. Simple but thoughtful.</t>
   </si>
   <si>
+    <t>5strz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r228915058-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1072,6 +1186,9 @@
     <t xml:space="preserve">Rooms are run down, service was lacking.  Not enough towels, 4 person suite had one face towel &amp; two towels. One bar of soap provided, no shampoo.  There are NO non smoking rooms in this hotel. Our "non smoking" room had two ashtrays &amp; smelled like one too. There were no other rooms available.   </t>
   </si>
   <si>
+    <t>Kevin C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r222757212-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1090,6 +1207,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>mommaholla</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r215628085-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1105,6 +1225,9 @@
     <t>I plan on staying there in the future for at least a month while renovating my condo. Great room, location, and hopefully I can get a better deal. I wish I could use both AARP and AAA, to get a better deal.</t>
   </si>
   <si>
+    <t>Greg R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r213793766-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1123,6 +1246,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Patrick271</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r210361038-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1141,6 +1267,9 @@
     <t>I like the idea - nice to have a kitchen. Here were my problems: (1) AC making a random clattering noise every 30 minutes even when turned off - enough to wake me up; (2) bed sheets rose-scented for some reason - odd; (3) no liner for window curtains - so either the room is dark and must turn lights on; or open curtains with direct views from outside into my room; (3) I was in HC room, so not sure if this is typical, but the closet doors were removed, and the beat up guiderail was still installed - looked strange and felt cheap; (4) Iron, but no ironing board; (5) iron did not work when I did get the ironing board - had to go ask for another one (in the morning when I am trying to leave - had to wait 10 minutes for it); (6) kitchen minimally equipped - no drinking glasses or cups even in the bathroom - had to ask for them. Got back late and needed them; desk clerk said she would deliver them, but she was 'running the night audit now but would send them soon' (its late at night - should not have to wait.  Been writing this whole thing since I asked for them and still have not gotten them; (7) phone has dial tone, but when press '0' nothing happens (no dial guide - how do I reach the...I like the idea - nice to have a kitchen. Here were my problems: (1) AC making a random clattering noise every 30 minutes even when turned off - enough to wake me up; (2) bed sheets rose-scented for some reason - odd; (3) no liner for window curtains - so either the room is dark and must turn lights on; or open curtains with direct views from outside into my room; (3) I was in HC room, so not sure if this is typical, but the closet doors were removed, and the beat up guiderail was still installed - looked strange and felt cheap; (4) Iron, but no ironing board; (5) iron did not work when I did get the ironing board - had to go ask for another one (in the morning when I am trying to leave - had to wait 10 minutes for it); (6) kitchen minimally equipped - no drinking glasses or cups even in the bathroom - had to ask for them. Got back late and needed them; desk clerk said she would deliver them, but she was 'running the night audit now but would send them soon' (its late at night - should not have to wait.  Been writing this whole thing since I asked for them and still have not gotten them; (7) phone has dial tone, but when press '0' nothing happens (no dial guide - how do I reach the front desk?) (8) some bathroom attachment removed from the wall and wall not painted back to cover up the white primer paint; (9) blanket barely wide enough to cover the bed with just a little bit left over to hang over the side of the mattress - makes it hard to stay covered when sleeping. (10) Just now got drinking glasses, but got the wrong ones - the clerk asked if I wanted ceramic mugs or plastic glasses. I said ceramic - but got plastic. (11) a big empty plastic water jug has being lying outside the front entry in plain view since last night and no one has picked it up. Gosh - dunno what to say.  What is next?  Nice to have a kitchen though.  Really - I will probably come back, for about $110 a night.  Just - the details, folks. Maybe a checklist would work - not sure - but something is off here.More</t>
   </si>
   <si>
+    <t>George v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r207152746-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1162,6 +1291,9 @@
     <t>I’ve been a frequent resident with Extended Stay America – Los Angeles – Monrovia for well over a year, at least 40 one-week stays.  I commute into Los Angeles from Nevada for business and typically stay for 4 – 5 nights during each visit.  I’ve seen the word “value” displayed around the property and it is exactly that value and the great staff that keeps me returning.  Value simply means the relative worth of the accommodations and services I consistently receive for my money.  Extended Stay provides all I require for my weekly visits including a kitchenette, laundry facilities, ample parking, wi-fi, friendly staff, TV, complimentary breakfast and a flexible housekeeping schedule.  A big bonus in Monrovia is the hotel’s central location to a variety of restaurants and markets.  Basically, you can’t beat the price anywhere else when compared to the cost.  In other words, a great value!The management, Lisette and Stephanie, along with the front desk team have always been helpful and accommodating.  Staying in Monrovia has been a pleasure since early 2013 and I’m confident that it will continue to be a pleasure as long as my work keeps me in Los Angeles.More</t>
   </si>
   <si>
+    <t>Marie  G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r207121142-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1174,6 +1306,9 @@
     <t>I was not sure what to expect was surprised and happy.   From the desk check in clerk to my entire stay, room was clean and bed comfortable, grounds kept up.  places to eat, and freeway access. Would so recommend your place.  I have finally found a place that not only fits my needs but is extremely comfortable.</t>
   </si>
   <si>
+    <t>Artycraggs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r207108546-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1186,6 +1321,9 @@
     <t>Have stayed here for nearly a year, I’m starting to think of this place as my second home.The room is clean and pleasant.  All the staff are Friendly, professional , and treat you with courtesy.This hotel is well located, good for restaurants, various cuisines. Santa Anita race track is just a few minutes away by car.   Freeway is very close both on ramp and off ramp. But it is not intrusive. I will always stay at this hotel when I’m in this area.</t>
   </si>
   <si>
+    <t>SoCal789</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r200272376-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1201,6 +1339,9 @@
     <t xml:space="preserve">Stayed here off and on for a few months. Hotel staff was very professional and always had a smile on their face. Rooms were always clean and had the basics. Very safe area and plenty of food choices and two grocery stores, within walking distance. I would recommend this hotel. </t>
   </si>
   <si>
+    <t>77PeaceSeeker77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r198340342-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1222,6 +1363,9 @@
     <t>I can't believe this hotel chain thinks anyone can rest in a room when doors in the hallways slam shut and bang extremely loudly. I noticed they put a rubber strip on the door to the Trash Room, obviously to soften the noise of that door when people go there to empty their trash. Why can't they do the same for ALL of the doors? Too expensive? The doors are heavy, slam quickly because of the way the air travels in hallways and there is nothing to keep them from slamming, and they make a terrible sound and vibrate the walls, jolting you out of your sleep! And this happens day and night. Does this hotel chain care about making their guests comfortable? Surely I'm not the only one to complain. I get the feeling they think this is an "OK" experience. It's NOT. It's very stressful. Not to mention all the repairs that had to be done in my room during my extended stay. Have a heart, Extended Stay America. At least the staff tried hard to help but are limited as to what they can do.More</t>
   </si>
   <si>
+    <t>Harford3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r197974565-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1240,6 +1384,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Just_stell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r196110125-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1256,6 +1403,9 @@
   </si>
   <si>
     <t>February 2014</t>
+  </si>
+  <si>
+    <t>Patrick G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r196062428-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
@@ -1289,6 +1439,9 @@
 I retired on the 21st February and am writing this from...I have reviewed before but have no problems updating the fabulous experience at Extended Stay Monrovia California which included the homily atmosphere and excellent location for all services.I am Irish and a contractor  (Patrick Geaney), in September a fellow contractor came from the UK and I recommended Extended Stay to him which he was very happy with.What happened next shows the first class care that Lysette and Stephanie give to all clients in the hotel. My friend broke his hip had an operation and came back to the hotel, it was agreed he could work from his room but needed looking after during the day (non medical) in case he needed anything I could look after the night care. It needed quick thinking, I immediately asked to speak to Lysette and Stephanie and explained I required someone to to check on Arthur during the day. At first they thought I was asking the hotel staff to do this but I explained we wanted someone who we would pay just to ensure he was okay and could they recommend someone. (hilarious comment from Stephanie Patrick if I am in trouble I want you in my corner!!!)Sure enough a cousin of Stephanie steeped into the breach and proved to be excellent.Any 5 star hotel I challenge to beat that for service care and consideration for their clients.I retired on the 21st February and am writing this from Vietnam. From April 2013 to February 2014 I was at Extended Stay. All the staff and management did everything they could to ensure it was a pleasurable experience and worked extremely hard to ensure standards were kept to a very high state and succededMore</t>
   </si>
   <si>
+    <t>Adam F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r195278246-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1301,6 +1454,9 @@
     <t>I really enjoy staying at extended stay, the rooms are very comfortable and clean, the staff are great hosts. It is hard to get a great price for a room overnight anywhere but if you would like all of the above I would suggest extended stay, it is well worth it. It seems like these hotels are always in nice areas and close to a great restaurant.</t>
   </si>
   <si>
+    <t>Jrod1371</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r191048560-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1316,6 +1472,9 @@
     <t xml:space="preserve">The hotel is maintained on a tight budget. Unkept lobby area. Scary noisy elevator. Old fruit used in breakfast. The room is basic with limited television channels. The hotel was surrounded by many food establishments which was great. The exterior looked clean. But once inside the atmosphere felt as if all measures were taken to save the hotel money. </t>
   </si>
   <si>
+    <t>Annette M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r190986604-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1334,6 +1493,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>joec467</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r190015994-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1358,6 +1520,9 @@
     <t>The front desk personnel Adinah and Stephnie were extremely helpful and friendly.  They went out of their way to make my stay as smooth as possible.  Very flexible on early check in and late check out.  Little gift in the room was a nice touch.More</t>
   </si>
   <si>
+    <t>Wild1000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r183725907-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1373,6 +1538,9 @@
     <t>Great Customer Service and a Friendly Staff.Great Customer Service and a Friendly Staff.Great Customer Service and a Friendly Staff.Great Customer Service and a Friendly Staff.Great Customer Service and a Friendly Staff.</t>
   </si>
   <si>
+    <t>Robert B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r181794910-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1394,6 +1562,9 @@
     <t>The hotel was very nice with clean rooms and full accomodations, the rooms have a refrigerator, microwave, and stove top along with all the utinsils needed to whip up a quick meal.  The room was very clean but the service was extraordinary, especially from Stephanie who always had a big smile, a kind word and made me feel like I was coming home.  Located near Old Town Pasadena and within easy driving distance of Downtown Los Angeles along with being near the foothills makes this a perfect location when visiting the area.  I would highly recommend staying at the Monrovia location for either vacation purposes or if you are relocating to the area, etc.  There are numerous eateries in the area within easy walking distance which was a huge plus also.More</t>
   </si>
   <si>
+    <t>Dickpai</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r181000348-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1409,6 +1580,9 @@
     <t>Clean rooms, friendly staff. Easy fast check in/check out. Will definitely stay here again. I did leave my I phone charger in my room when I checked out yesterday. I live in the Bay Area and am leaving on another trip soon. Is there anyway you guys can mail it back to me?</t>
   </si>
   <si>
+    <t>Speculator88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r177456979-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1433,6 +1607,9 @@
     <t>The staff are very friendly and helpful. Very attentive to your needs and any issues that may arise. The room has all the amenities with a small stove if you feel like cooking. Plus there are numerous restuarants  and eateries that would appeal to any person's palate. The location is convenient and accessible to nearby freeways.More</t>
   </si>
   <si>
+    <t>David B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r176201913-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1460,6 +1637,9 @@
     <t>When a family member recently underwent surgery at City of Hope we were looking for a "Home Base" close to the hospital, Extended Stay seemed to have a superior set of ammenities compared to all the other alternatives.  I went to check it out ahead of time and it was obvious the staff was well prepared for these circumstances.  I checked out the room ahead of time and it was perfect for what we needed, well kept, well appointed and I was sold.Lisette, the Hotel Manager and her staff, made all the difference: from arranging a smooth check-in process, to meeting our needs so well during our stay and to being tremendously flexible when, unfortunately, we needed to stay longer due to a longer than expected recovery process.  If was really their professionalism and attention to our needs that made our stay Great, instead of just Good.This place is well kept and well run.  I was so very happy staying there, especially under the circumstances.  I Highly, Highly recommend this property to anyone.More</t>
   </si>
   <si>
+    <t>AmatirrePhotoPaul</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r173404381-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1482,6 +1662,9 @@
   </si>
   <si>
     <t>For a long term, low cost hotel room, extended stay America Monrovia can't be beat. Excellent staff and nice clean rooms.  i have stayed at this lication now for over 6 months, feels like a home away from home. Great location close to freeway and diningMore</t>
+  </si>
+  <si>
+    <t>lmg1954</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r170501142-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
@@ -1511,6 +1694,9 @@
 We had a major problem with the lock on the door. The door would not lock when we checked in and there was no way to fix it until the next morning. The hotel was full so we could not get another room and everything else in the area was booked (I checked) so we stayed there. The entire lock unit was replaced the next morning, but was not programmed correctly so we could not get into our room the following night. We once again had to wait until the next...We stayed here because is was the most highly rated hotel on Trip Advisor that was available for when we were traveling. I would probably stay here again if I needed to.This is a pretty basic place oriented toward long stays. Rooms are cleaned once a week, there is a full kitchen, etc. The room was fine -- the sleeping area pretty small (room for only one bedside table), a large closet, basic bathroom, full kitchen. The TV was fine with a moderate choice of channels. Our room overlooked a freeway off ramp, but it was very quiet with no traffic noise at all and there were some nice old oak trees right out our windows.The grab and go breakfast is pretty basic - breakfast bars, coffee, sanka, tea bags and creamer. Everything is put away at 9:30 am so you need to get there on time. We had a major problem with the lock on the door. The door would not lock when we checked in and there was no way to fix it until the next morning. The hotel was full so we could not get another room and everything else in the area was booked (I checked) so we stayed there. The entire lock unit was replaced the next morning, but was not programmed correctly so we could not get into our room the following night. We once again had to wait until the next morning until we could have workable keys. The staff were very friendly, positive, and responsive but they have too much to do for the amount of work they have. We often had to wait in line to speak with them as they were taking all phone calls, handling other requests, etc.More</t>
   </si>
   <si>
+    <t>juliej2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r168793509-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1535,6 +1721,9 @@
     <t>The staff was super friendly and very helpful!  The location was perfect.  Near the freeway and lots of restaurants to choose from within walking distance.  Bed comfortable.  Clean room. Will definitely stay here again. Can't think of any negatives. This place is a real bargain!More</t>
   </si>
   <si>
+    <t>Jwilson6008</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r167343380-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1559,6 +1748,9 @@
     <t>I am a consultant and some jobs require I stay in a hotel for an extended period. This hotel is designed for it. It is clean, comfortable, and quiet. The beds and pillows are are first rate, and with the recent renovations with fresh paint and carpet and remodeling it's really pleasant. The rates are reasonable for the area, and this is a nice area with a large park within walking distance. On top of all that the real advantage is the stovetop. You can survive eating in resturaunts and out of a microwave for a while. But this place has a full sized refrigerator and a two burner stove. It has real knives and forks, plates and glasses, coffee maker and real cups, pots and pans and cooking utensils. It makes a real difference when you can cook and eat real food.      And I cannot say enough about the staff. Stephanie, Lisette, Sherrie, Stella, Karla, and the rest are friendly, efficient, and professional. They take pride in the facility and they are always ready and willing to help. I have enjoyed my stay here and will look first for an extended stay when I travel on a job and definately stay in this one when I am in this area.More</t>
   </si>
   <si>
+    <t>ynot333</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r165257824-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1604,6 +1796,9 @@
     <t>I've been staying three weeks/month in the Extended Stay in Monrovia since February.  I drive in from Nevada and always look forward to the room selected for me by Stephanie and her team.  The room is always clean and ready for me and provides everything I look for in a "home away from home".I use Extended Stay whenever I travel for business because I like to prepare my own food and the kitchen facilities provide that freedom.  I haven't found a better value in Los Angeles on a cost/night and amenities basis.  I look to my future stays and highly recommend this facility for the business traveler.  By the way, if you're a traveler that doesn't like to cook for yourself, the hotel is within a block or two of many great restaurants.More</t>
   </si>
   <si>
+    <t>kmjmkng</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r161120387-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1622,6 +1817,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>CraigR243</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r157325123-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1655,6 +1853,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Markieth S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r156178790-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1679,6 +1880,9 @@
     <t>Stephanie did an excellent job at the front desk. Her smile and great attitude is infectious! The rooms were clean and the rest of the staff was very friendly and helpful. This was a first for me staying here. I will be coming back and staying there again in 6 months!Markieth S.More</t>
   </si>
   <si>
+    <t>TravelgirlMP16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r154484212-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1703,6 +1907,9 @@
     <t>From looking at the pictures it looked to be clean and updated.... Wrong!!! This place smells from moment you get off elevator. The bed is disgusting with dry crusted stuff on blanket. Found hairs on sheets, stains on carpet and mattress. Not clean at all. Not looking forward to spending another night here:(More</t>
   </si>
   <si>
+    <t>johnslim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r152559360-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1730,6 +1937,9 @@
     <t>Staff is friendly, room okay but very small, the website pictures are deceiving.  Bathroom had mold along the base boards, towels threadbare. For the price you can do better in this area. Can't see how anyone could stay here on an extended basis. The carpet in the hallways was disgusting. Only one person working desk and was overwhelmed with customers but still managed to do a good job. Was under the impression my room would be more like a suite but it is no bigger than an average hotel room.More</t>
   </si>
   <si>
+    <t>silentia j</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r152376102-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1748,6 +1958,9 @@
     <t>I heard some so so reviews about this hotel so I had the luxury of living not far from the area, so when I arrived and expressed my concerns with the staff, Stephanie gladly showed me the rooms before I booked. If you are unable to check out the rooms before hand, I suggest calling the hotel front desk directly and tell them about your concerns so they can put you at ease before you book. The mattress was great and they offered extra padding if needed. The hotel is next to the freeway, so its easy access. The freeway noise can be avoided by requested other rooms if available or by closing the window. (which worked for us) The staff was very friendly and helpful. I Would stay again.More</t>
   </si>
   <si>
+    <t>Lianne S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r151488348-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1772,6 +1985,9 @@
     <t>OK so maybe it's fine for people who live there but, if you are on a pleasure trip or even a business trip where you'd like a good night's sleep -- I'd avoid it like the plague.  My non-smoking room smelled of smoke, didn't have a coffeemaker (front desk said it was because people steal them), the refrigerator door was hard to open, the place was a dump.  The comforter scared me.  When I was changed to a room that didn't smell smoky, it was cleaner but still really really shabby. The doors to outside were supposed to be secure and open only with a room key except they were left open all the time.  I forgot shampoo and asked the front desk for some and no, their shipment hadn't come in :)  The hallways reeked, the "grab n'go breakfast -- not so much, mattress was hard and of questionable age, Saturday night was loud -- in general, it was miserable.  Not recommended, nope.  Positives: The front desk personnel were very helpful, and the surrounding shopping center had some great restaurants.More</t>
   </si>
   <si>
+    <t>Janfromnorthridge</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r151343706-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1796,6 +2012,9 @@
     <t>Worst experience ever!  The exterior looks like a million bucks but my room was dingy, dark, outdated, and barely clean, and one wall simply had a hole in it.  Furniture is mismatched, and the beds are barely comfortable.  Comforters are stained. The hallways reeked, and the carpeting was dirty.  Hotel keys failed to work on the second day, no shampoo in the room, no maid service, and I had to ask for a change of towels.  This "hotel" makes Motel 6 look like a pleasure palace. And all this for prices that exceeded LaQuinta.  Never again.More</t>
   </si>
   <si>
+    <t>Joe C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r149304473-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1823,6 +2042,9 @@
     <t>My last stay was before Christmas.  Alan the manager, Adinah, Rosa and Stephanie were all very friendly.  They were always very accommodating when I asked for early check in or late check out.  They were always helpful when I called or went in person to make advance reservation.  The rate with the AAA discount was very resonable.  All the restaurants within walking distance from the hotel was very convenience.More</t>
   </si>
   <si>
+    <t>Patriot80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r145371823-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1850,6 +2072,9 @@
     <t>Excellent price but lots traffic noise from the freeway , carpets are old and dirty, the property in general does not smell good,  the bed and pillows are quite hard, and my comforter had a cigarette hole in it (despite being a non-smoking room).  Unless price is the most imortant consideration I would stay elsewhere.More</t>
   </si>
   <si>
+    <t>Reena H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r145057129-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1874,6 +2099,9 @@
     <t>Had a great encounter with my attendant Ashley R we had a talk about the reason why you guys no longer hold wine openers and she helped me out with getting a smoking room which i was in dire need for (to cold to stand outside to smoke). The room was great didn't know that there would be a kitchen but ended up loving the whole room except for the beds they were a bit loud. Besides that it was a wonderful one day one night stay :]More</t>
   </si>
   <si>
+    <t>Steven d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r145012597-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1895,6 +2123,9 @@
     <t>I love staying here when in town for business. Best value in town. Very clean rooms and first class cutomers service. Management obvioulsy understands the importance of taking care of their guest. Theres plenty of lodging choices in Monrovia, but none that can provide the level of customers service like ESA Monrovia!More</t>
   </si>
   <si>
+    <t>sng42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r144689774-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1922,6 +2153,9 @@
     <t>We had booked a two night stay at this hotel. We didnt have any problems checking in to this for the first night. However, when we came back to the hotel on the second night (after a spending the day in LA), our keys to the room didnt work. The person at the front desk didnt have any idea about what was going on (he didnt even have access to the computers). He then went banging on the door of the room only to find out another person has been given the room! When he finally got the access to the computer he found that we still had the room under our name, but the person in the room showed documentation that she had been given the same room. The front desk guy then found that our belongings had been left out. He couldnt find us another room or even get us into some other hotel. By the time all this happened (it took him multiple hours to figure this out), it was past midnight and we couldnt find another room in the area. He gave us a visiting card with a number to call later in the week when the manager would be in. When I called a couple of days later, nobody would pick up the phone either! Finally, I went to the booking agency (hotwire.com) and they couldn't get information on this incident from the hotel for...We had booked a two night stay at this hotel. We didnt have any problems checking in to this for the first night. However, when we came back to the hotel on the second night (after a spending the day in LA), our keys to the room didnt work. The person at the front desk didnt have any idea about what was going on (he didnt even have access to the computers). He then went banging on the door of the room only to find out another person has been given the room! When he finally got the access to the computer he found that we still had the room under our name, but the person in the room showed documentation that she had been given the same room. The front desk guy then found that our belongings had been left out. He couldnt find us another room or even get us into some other hotel. By the time all this happened (it took him multiple hours to figure this out), it was past midnight and we couldnt find another room in the area. He gave us a visiting card with a number to call later in the week when the manager would be in. When I called a couple of days later, nobody would pick up the phone either! Finally, I went to the booking agency (hotwire.com) and they couldn't get information on this incident from the hotel for nearly a week.So unless you want to donate money to hotel management, you should stay away from this hotel!More</t>
   </si>
   <si>
+    <t>roadwarrior805</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r143951436-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1946,6 +2180,9 @@
     <t>Nice staff, however, there was NO HOT water for a shower in room 240 on 10/29/12, at 9am.  Checked for hot water at 9:30am and 10am before we gave up on taking a shower.   Also, the bed was very uncomfortable- old, springy and hard.  There were 2 flat pillows for a queen bed.The a/c and tv were nice, but if you can't sleep or shower, why bother?!!More</t>
   </si>
   <si>
+    <t>Joseph R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r143854630-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1967,6 +2204,9 @@
     <t>The staff was nice - other than that everything else about this hotel is terrible. 1 - The smell - it was so bad in the hallways I had to breath through my mouth whenever I left room. 2 - The filth - the entire hotel was filthy - and the carpets were all stained and disgusting. 3 - The non-existant maid service - I have never stayed in hotel where they put a small placard in the bathroom to let you know that maid service will only be provided every 7 days - given that I was only there for 4 I was pretty much on my own??   If you want a towel you can go down the desk and get one yourself. 4 - The breakfast - they should not be able to call a basket of breakfast bars and some hot water for instant drinks breakfast.  I've stayed at a lot of lower end hotels that include a continental breakfast and what they call breakfast is false advertising 5 - The cheap matteress - I can sleep on almost anything and be ok -but I wound up with a sore back on the cheap matteress. For the money - you can do a whole lot better - pretty much anywhere - I can't beleive this company will be in business very long.More</t>
   </si>
   <si>
+    <t>connorphifer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r140294613-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -1989,6 +2229,9 @@
   </si>
   <si>
     <t>The manager (Alan) has really turned this place around! My husband and I have been staying here for over a year and ever since this new manager came, things are getting better and better! The front desk staff is extraordinarily helpful. I'm still currently staying here and staying here has been a comfortable experience especially when the new manager came :) Thanks Alan for exceptional service!More</t>
+  </si>
+  <si>
+    <t>annette c</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r139675572-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
@@ -2026,6 +2269,9 @@
 To be fair, if I was in my 20's again or on a really tight budget, I may consider this hotel.  The front desk staff really was very nice and friendly.  But alas, I'm...I booked this hotel on the Southwest website for a business trip.  The reviews were positive, the location was perfect and the price too good to be true.  I thought it looked nice from the pictures and I thought it would be comparable to a Hampton, HIlton Gardens, or Mariott (places I normally stay) but this was not the case.It's almost set up like an apartment complex.  A tiny lobby, no downstairs sitting or breakfast areas, or community computer.  This I could have overlooked.  However once I got off the elevator, the hallways were dark and dirty with stains all over the carpets.  The quality of the room's furnishings reminded me of the Motel 8's I had stayed at during my low budget, college travel days.  Everything was cheap and run down and felt like it was purchased at a flea market.  The bottom line was that I didn't feel comfortable walking on the carpet barefoot or siting on the bedspread (dubious stains I didn't want to examine too closely.)I regret I didn't spend the extra $30-40 dollars for my normal Hampton or Ayres that also comes with a very nice breakfast and things you take for granted in your room - like shampoo...To be fair, if I was in my 20's again or on a really tight budget, I may consider this hotel.  The front desk staff really was very nice and friendly.  But alas, I'm older now, a little spoiled, and used to my amenities.More</t>
   </si>
   <si>
+    <t>sympaticone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r138832256-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -2053,6 +2299,9 @@
     <t>I was extraordinarily pleased with the level of service provided to me by the day and night shift personnel.   Rosa,during the day: bright, friendly, courteous.  Scott on swing shift:  VERY helpful with all of my issues as a guest. While being professional and pleasant, Scott helped facilitate a number of solutions to the little problems that I faced while as a guest there - repeated computer connections issues: aided by Scott  toiletries and sundry items: hand-delivered by Scott. Friendly young man.   Alan the supervisor - under this man's direction, we as guests are given the full treatment. I was very pleased with my time here at Extended Stay America, Monrovia.PaulMore</t>
   </si>
   <si>
+    <t>richard h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r133214136-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -2080,6 +2329,9 @@
     <t>My wife and I are seasoned travelers throughout the US and abroad. However, this type property is not one we normally would use. We had to do so in a tight pinch. The room was large, clean and suited us fine. The unexpected/unadvertised 'free, light breakfast' was a plus.The shining gem of the stay was our front-desk staffer, "Stephanie". She was and is a true professional. Competent, personable and most helpful in several matters we had. In addiiton we noticed her ability to multitask and calmly and successfully handle unforeseen problems that arose. Manager and higher is definitely a certainty in her future (retain her services at whatever cost).The one, significant drawback was that the hotel had many varied cultured occupants, each of whom was cooking their 'specialties'. The properties ventilation was inadequate to mitigate this situation, so it's needless to say that this very, unfortunately left a lingering, very putrid aroma throughout the hallways. Adding this this was that they had a 'common area' for trash disposal, that I have to say resembled that seen in 'developing', 'third world nation'.More</t>
   </si>
   <si>
+    <t>Mark H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r132037413-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
   </si>
   <si>
@@ -2099,6 +2351,9 @@
   </si>
   <si>
     <t>On my recent trip to California, I was looking for a place to stay that offered great value and service, and found it at Extended Stay America. The staff was amazing! Martha, the manager, and her staff, Stephanie, Rose, Liviana, and Scott met all of my needs and made me feel at home. I will definitely recommend it to everyone. Kind regards, Dolores H.More</t>
+  </si>
+  <si>
+    <t>et1964</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32729-d1224488-r126988089-Extended_Stay_America_Los_Angeles_Monrovia-Monrovia_California.html</t>
@@ -2621,43 +2876,47 @@
       <c r="A2" t="n">
         <v>36269</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>18852</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>2</v>
@@ -2675,56 +2934,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36269</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>146352</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2736,56 +2999,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36269</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146353</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2807,56 +3074,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36269</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>146354</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2874,56 +3145,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36269</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146355</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2935,56 +3210,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36269</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>146356</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3002,56 +3281,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36269</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>146357</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3063,56 +3346,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36269</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146358</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" t="s">
         <v>111</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" t="s">
-        <v>104</v>
-      </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3134,56 +3421,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36269</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146359</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3205,56 +3496,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36269</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>146360</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -3276,56 +3571,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36269</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>146361</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -3347,56 +3646,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36269</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>146362</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -3418,56 +3721,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="X13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36269</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>4079</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3479,56 +3786,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36269</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146363</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="J15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -3550,56 +3861,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="X15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36269</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>146364</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -3621,56 +3936,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="X16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36269</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>146365</v>
+      </c>
+      <c r="C17" t="s">
+        <v>191</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -3692,56 +4011,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="X17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Y17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36269</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146366</v>
+      </c>
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="J18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -3763,56 +4086,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="X18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Y18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36269</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146367</v>
+      </c>
+      <c r="C19" t="s">
+        <v>209</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="J19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="K19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -3834,56 +4161,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="X19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="Y19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36269</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>146368</v>
+      </c>
+      <c r="C20" t="s">
+        <v>218</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="J20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="K20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="L20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="O20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3899,56 +4230,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="X20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="Y20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36269</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>146369</v>
+      </c>
+      <c r="C21" t="s">
+        <v>228</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="J21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="K21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="L21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3962,50 +4297,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36269</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>29372</v>
+      </c>
+      <c r="C22" t="s">
+        <v>235</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="J22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="K22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -4023,50 +4362,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36269</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>146370</v>
+      </c>
+      <c r="C23" t="s">
+        <v>243</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="J23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="K23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="L23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4086,50 +4429,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36269</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>30986</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4149,50 +4496,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36269</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>146371</v>
+      </c>
+      <c r="C25" t="s">
+        <v>258</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="J25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="K25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="L25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="O25" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4204,47 +4555,51 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="X25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="Y25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36269</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>4321</v>
+      </c>
+      <c r="C26" t="s">
+        <v>268</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="J26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="K26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="L26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
@@ -4261,56 +4616,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="X26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Y26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36269</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>146372</v>
+      </c>
+      <c r="C27" t="s">
+        <v>277</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="J27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="K27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="L27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4328,56 +4687,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="X27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="Y27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36269</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>146373</v>
+      </c>
+      <c r="C28" t="s">
+        <v>287</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="J28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="K28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="L28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -4397,50 +4760,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36269</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>32371</v>
+      </c>
+      <c r="C29" t="s">
+        <v>294</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="J29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="K29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="L29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4458,50 +4825,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36269</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>146374</v>
+      </c>
+      <c r="C30" t="s">
+        <v>301</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="J30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="K30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="L30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4515,50 +4886,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36269</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>146375</v>
+      </c>
+      <c r="C31" t="s">
+        <v>307</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="J31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="K31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="L31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4576,50 +4951,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36269</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>146376</v>
+      </c>
+      <c r="C32" t="s">
+        <v>313</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="J32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="K32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="L32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -4637,56 +5016,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="X32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="Y32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36269</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146377</v>
+      </c>
+      <c r="C33" t="s">
+        <v>323</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="J33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="K33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="L33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4704,56 +5087,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="X33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Y33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36269</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>146378</v>
+      </c>
+      <c r="C34" t="s">
+        <v>333</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="J34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="K34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="L34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="O34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4765,56 +5152,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="X34" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Y34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36269</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>146379</v>
+      </c>
+      <c r="C35" t="s">
+        <v>340</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="J35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="K35" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="L35" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="O35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4828,41 +5219,45 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36269</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>12779</v>
+      </c>
+      <c r="C36" t="s">
+        <v>347</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="J36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="K36" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="L36" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -4889,56 +5284,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="X36" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="Y36" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36269</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>146380</v>
+      </c>
+      <c r="C37" t="s">
+        <v>356</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="J37" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="K37" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="L37" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="O37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4950,47 +5349,51 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="X37" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="Y37" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36269</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>4440</v>
+      </c>
+      <c r="C38" t="s">
+        <v>366</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="J38" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="K38" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="L38" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
@@ -5019,41 +5422,45 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36269</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>146381</v>
+      </c>
+      <c r="C39" t="s">
+        <v>372</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="J39" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="K39" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="L39" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
@@ -5072,50 +5479,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36269</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>6280</v>
+      </c>
+      <c r="C40" t="s">
+        <v>378</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="J40" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="K40" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="L40" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="O40" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5133,41 +5544,45 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36269</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>146382</v>
+      </c>
+      <c r="C41" t="s">
+        <v>385</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="J41" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="K41" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="L41" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
@@ -5196,50 +5611,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36269</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>14072</v>
+      </c>
+      <c r="C42" t="s">
+        <v>391</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="J42" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="K42" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="L42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="O42" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5263,50 +5682,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36269</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>146383</v>
+      </c>
+      <c r="C43" t="s">
+        <v>398</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="J43" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="K43" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="L43" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="O43" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5330,50 +5753,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36269</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>146384</v>
+      </c>
+      <c r="C44" t="s">
+        <v>405</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="J44" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="K44" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="L44" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="O44" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5397,50 +5824,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36269</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>146385</v>
+      </c>
+      <c r="C45" t="s">
+        <v>413</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="J45" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="K45" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="L45" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="O45" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5464,50 +5895,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36269</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>146386</v>
+      </c>
+      <c r="C46" t="s">
+        <v>418</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="J46" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="K46" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="L46" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="O46" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5529,41 +5964,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>36269</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>146387</v>
+      </c>
+      <c r="C47" t="s">
+        <v>423</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="J47" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="K47" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="L47" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
@@ -5592,50 +6031,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>36269</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>146388</v>
+      </c>
+      <c r="C48" t="s">
+        <v>429</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="J48" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="K48" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="L48" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="O48" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -5659,50 +6102,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>36269</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>146389</v>
+      </c>
+      <c r="C49" t="s">
+        <v>437</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="J49" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="K49" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="L49" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="O49" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -5726,50 +6173,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>36269</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>146390</v>
+      </c>
+      <c r="C50" t="s">
+        <v>444</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="J50" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="K50" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="L50" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="O50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5793,50 +6244,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>36269</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>39838</v>
+      </c>
+      <c r="C51" t="s">
+        <v>451</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="J51" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="K51" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="L51" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="O51" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5858,50 +6313,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>36269</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>146391</v>
+      </c>
+      <c r="C52" t="s">
+        <v>459</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="J52" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="K52" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="L52" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5915,41 +6374,45 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>36269</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>146392</v>
+      </c>
+      <c r="C53" t="s">
+        <v>464</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="J53" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="K53" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="L53" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
@@ -5978,50 +6441,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>36269</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>26725</v>
+      </c>
+      <c r="C54" t="s">
+        <v>470</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="J54" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="K54" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="L54" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="O54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6035,50 +6502,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>36269</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>146393</v>
+      </c>
+      <c r="C55" t="s">
+        <v>477</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="J55" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="K55" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="L55" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="O55" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6100,47 +6571,51 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="X55" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="Y55" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>36269</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>146394</v>
+      </c>
+      <c r="C56" t="s">
+        <v>486</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="J56" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="K56" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="L56" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
@@ -6169,50 +6644,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>36269</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C57" t="s">
+        <v>492</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="J57" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="K57" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="L57" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
       <c r="O57" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6236,50 +6715,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>36269</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>146395</v>
+      </c>
+      <c r="C58" t="s">
+        <v>500</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="J58" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="K58" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="L58" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
       <c r="O58" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6303,41 +6786,45 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>36269</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>146396</v>
+      </c>
+      <c r="C59" t="s">
+        <v>506</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="J59" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="K59" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="L59" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
@@ -6364,56 +6851,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="X59" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="Y59" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>36269</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>304</v>
+      </c>
+      <c r="C60" t="s">
+        <v>515</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="J60" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="K60" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
       <c r="L60" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6435,47 +6926,51 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="X60" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="Y60" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>36269</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>146397</v>
+      </c>
+      <c r="C61" t="s">
+        <v>525</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>467</v>
+        <v>527</v>
       </c>
       <c r="J61" t="s">
-        <v>468</v>
+        <v>528</v>
       </c>
       <c r="K61" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="L61" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
@@ -6502,56 +6997,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="X61" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="Y61" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>36269</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>146398</v>
+      </c>
+      <c r="C62" t="s">
+        <v>534</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>474</v>
+        <v>535</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="J62" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="K62" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="L62" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
       <c r="O62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6575,50 +7074,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>480</v>
+        <v>541</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>36269</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>146399</v>
+      </c>
+      <c r="C63" t="s">
+        <v>542</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>482</v>
+        <v>544</v>
       </c>
       <c r="J63" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="K63" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="L63" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
       <c r="O63" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6640,56 +7143,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>486</v>
+        <v>548</v>
       </c>
       <c r="X63" t="s">
-        <v>487</v>
+        <v>549</v>
       </c>
       <c r="Y63" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>36269</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>146400</v>
+      </c>
+      <c r="C64" t="s">
+        <v>551</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>489</v>
+        <v>552</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>490</v>
+        <v>553</v>
       </c>
       <c r="J64" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="K64" t="s">
-        <v>492</v>
+        <v>555</v>
       </c>
       <c r="L64" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
       <c r="O64" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6711,47 +7218,51 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>494</v>
+        <v>557</v>
       </c>
       <c r="X64" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="Y64" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>36269</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>146401</v>
+      </c>
+      <c r="C65" t="s">
+        <v>560</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>497</v>
+        <v>561</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>498</v>
+        <v>562</v>
       </c>
       <c r="J65" t="s">
-        <v>499</v>
+        <v>563</v>
       </c>
       <c r="K65" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="L65" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
@@ -6778,56 +7289,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="X65" t="s">
-        <v>503</v>
+        <v>567</v>
       </c>
       <c r="Y65" t="s">
-        <v>504</v>
+        <v>568</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>36269</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>146383</v>
+      </c>
+      <c r="C66" t="s">
+        <v>405</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="J66" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="K66" t="s">
-        <v>508</v>
+        <v>572</v>
       </c>
       <c r="L66" t="s">
-        <v>509</v>
+        <v>573</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>510</v>
+        <v>574</v>
       </c>
       <c r="O66" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6851,50 +7366,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>511</v>
+        <v>575</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>36269</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>146402</v>
+      </c>
+      <c r="C67" t="s">
+        <v>576</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>512</v>
+        <v>577</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="J67" t="s">
-        <v>514</v>
+        <v>579</v>
       </c>
       <c r="K67" t="s">
-        <v>515</v>
+        <v>580</v>
       </c>
       <c r="L67" t="s">
-        <v>516</v>
+        <v>581</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>517</v>
+        <v>582</v>
       </c>
       <c r="O67" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6918,50 +7437,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>516</v>
+        <v>581</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>36269</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>146403</v>
+      </c>
+      <c r="C68" t="s">
+        <v>583</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>518</v>
+        <v>584</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>519</v>
+        <v>585</v>
       </c>
       <c r="J68" t="s">
-        <v>520</v>
+        <v>586</v>
       </c>
       <c r="K68" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="L68" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6985,50 +7508,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>36269</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>146392</v>
+      </c>
+      <c r="C69" t="s">
+        <v>477</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>524</v>
+        <v>590</v>
       </c>
       <c r="J69" t="s">
-        <v>525</v>
+        <v>591</v>
       </c>
       <c r="K69" t="s">
-        <v>526</v>
+        <v>592</v>
       </c>
       <c r="L69" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
       <c r="O69" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7052,50 +7579,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>36269</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>146404</v>
+      </c>
+      <c r="C70" t="s">
+        <v>595</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>529</v>
+        <v>596</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>530</v>
+        <v>597</v>
       </c>
       <c r="J70" t="s">
-        <v>531</v>
+        <v>598</v>
       </c>
       <c r="K70" t="s">
-        <v>532</v>
+        <v>599</v>
       </c>
       <c r="L70" t="s">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
       <c r="O70" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7117,47 +7648,51 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="X70" t="s">
-        <v>535</v>
+        <v>602</v>
       </c>
       <c r="Y70" t="s">
-        <v>536</v>
+        <v>603</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>36269</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>146405</v>
+      </c>
+      <c r="C71" t="s">
+        <v>604</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>537</v>
+        <v>605</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="J71" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="K71" t="s">
-        <v>540</v>
+        <v>608</v>
       </c>
       <c r="L71" t="s">
-        <v>541</v>
+        <v>609</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
@@ -7184,56 +7719,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="X71" t="s">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="Y71" t="s">
-        <v>544</v>
+        <v>612</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>36269</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>146406</v>
+      </c>
+      <c r="C72" t="s">
+        <v>613</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>545</v>
+        <v>614</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>546</v>
+        <v>615</v>
       </c>
       <c r="J72" t="s">
-        <v>547</v>
+        <v>616</v>
       </c>
       <c r="K72" t="s">
-        <v>548</v>
+        <v>617</v>
       </c>
       <c r="L72" t="s">
-        <v>549</v>
+        <v>618</v>
       </c>
       <c r="M72" t="n">
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="O72" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P72" t="n">
         <v>2</v>
@@ -7255,56 +7794,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>551</v>
+        <v>620</v>
       </c>
       <c r="X72" t="s">
-        <v>552</v>
+        <v>621</v>
       </c>
       <c r="Y72" t="s">
-        <v>553</v>
+        <v>622</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>36269</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>146407</v>
+      </c>
+      <c r="C73" t="s">
+        <v>623</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>554</v>
+        <v>624</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
       <c r="J73" t="s">
-        <v>556</v>
+        <v>626</v>
       </c>
       <c r="K73" t="s">
-        <v>557</v>
+        <v>627</v>
       </c>
       <c r="L73" t="s">
-        <v>558</v>
+        <v>628</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="O73" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7326,56 +7869,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>551</v>
+        <v>620</v>
       </c>
       <c r="X73" t="s">
-        <v>552</v>
+        <v>621</v>
       </c>
       <c r="Y73" t="s">
-        <v>559</v>
+        <v>629</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>36269</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>146408</v>
+      </c>
+      <c r="C74" t="s">
+        <v>630</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>560</v>
+        <v>631</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>561</v>
+        <v>632</v>
       </c>
       <c r="J74" t="s">
-        <v>562</v>
+        <v>633</v>
       </c>
       <c r="K74" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
       <c r="L74" t="s">
-        <v>564</v>
+        <v>635</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="O74" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -7397,56 +7944,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>565</v>
+        <v>636</v>
       </c>
       <c r="X74" t="s">
-        <v>566</v>
+        <v>637</v>
       </c>
       <c r="Y74" t="s">
-        <v>567</v>
+        <v>638</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>36269</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>146409</v>
+      </c>
+      <c r="C75" t="s">
+        <v>639</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>568</v>
+        <v>640</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>569</v>
+        <v>641</v>
       </c>
       <c r="J75" t="s">
-        <v>570</v>
+        <v>642</v>
       </c>
       <c r="K75" t="s">
-        <v>571</v>
+        <v>643</v>
       </c>
       <c r="L75" t="s">
-        <v>572</v>
+        <v>644</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="O75" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P75" t="n">
         <v>1</v>
@@ -7468,56 +8019,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>573</v>
+        <v>645</v>
       </c>
       <c r="X75" t="s">
-        <v>574</v>
+        <v>646</v>
       </c>
       <c r="Y75" t="s">
-        <v>575</v>
+        <v>647</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>36269</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>26246</v>
+      </c>
+      <c r="C76" t="s">
+        <v>648</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>576</v>
+        <v>649</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>577</v>
+        <v>650</v>
       </c>
       <c r="J76" t="s">
-        <v>578</v>
+        <v>651</v>
       </c>
       <c r="K76" t="s">
-        <v>579</v>
+        <v>652</v>
       </c>
       <c r="L76" t="s">
-        <v>580</v>
+        <v>653</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>581</v>
+        <v>654</v>
       </c>
       <c r="O76" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7539,56 +8094,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>582</v>
+        <v>655</v>
       </c>
       <c r="X76" t="s">
-        <v>583</v>
+        <v>656</v>
       </c>
       <c r="Y76" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>36269</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>146410</v>
+      </c>
+      <c r="C77" t="s">
+        <v>658</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>585</v>
+        <v>659</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>586</v>
+        <v>660</v>
       </c>
       <c r="J77" t="s">
-        <v>587</v>
+        <v>661</v>
       </c>
       <c r="K77" t="s">
-        <v>588</v>
+        <v>662</v>
       </c>
       <c r="L77" t="s">
-        <v>589</v>
+        <v>663</v>
       </c>
       <c r="M77" t="n">
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>590</v>
+        <v>664</v>
       </c>
       <c r="O77" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
@@ -7600,56 +8159,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>591</v>
+        <v>665</v>
       </c>
       <c r="X77" t="s">
-        <v>592</v>
+        <v>666</v>
       </c>
       <c r="Y77" t="s">
-        <v>593</v>
+        <v>667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>36269</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>146411</v>
+      </c>
+      <c r="C78" t="s">
+        <v>668</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>594</v>
+        <v>669</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>595</v>
+        <v>670</v>
       </c>
       <c r="J78" t="s">
-        <v>596</v>
+        <v>671</v>
       </c>
       <c r="K78" t="s">
-        <v>597</v>
+        <v>672</v>
       </c>
       <c r="L78" t="s">
-        <v>598</v>
+        <v>673</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>590</v>
+        <v>664</v>
       </c>
       <c r="O78" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7671,56 +8234,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>599</v>
+        <v>674</v>
       </c>
       <c r="X78" t="s">
-        <v>600</v>
+        <v>675</v>
       </c>
       <c r="Y78" t="s">
-        <v>601</v>
+        <v>676</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>36269</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>146412</v>
+      </c>
+      <c r="C79" t="s">
+        <v>677</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>602</v>
+        <v>678</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>603</v>
+        <v>679</v>
       </c>
       <c r="J79" t="s">
-        <v>596</v>
+        <v>671</v>
       </c>
       <c r="K79" t="s">
-        <v>604</v>
+        <v>680</v>
       </c>
       <c r="L79" t="s">
-        <v>605</v>
+        <v>681</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>590</v>
+        <v>664</v>
       </c>
       <c r="O79" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7742,56 +8309,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>606</v>
+        <v>682</v>
       </c>
       <c r="X79" t="s">
-        <v>607</v>
+        <v>683</v>
       </c>
       <c r="Y79" t="s">
-        <v>608</v>
+        <v>684</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>36269</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>146413</v>
+      </c>
+      <c r="C80" t="s">
+        <v>685</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>609</v>
+        <v>686</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>610</v>
+        <v>687</v>
       </c>
       <c r="J80" t="s">
-        <v>611</v>
+        <v>688</v>
       </c>
       <c r="K80" t="s">
-        <v>612</v>
+        <v>689</v>
       </c>
       <c r="L80" t="s">
-        <v>613</v>
+        <v>690</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>614</v>
+        <v>691</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>1</v>
@@ -7813,56 +8384,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>615</v>
+        <v>692</v>
       </c>
       <c r="X80" t="s">
-        <v>616</v>
+        <v>693</v>
       </c>
       <c r="Y80" t="s">
-        <v>617</v>
+        <v>694</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>36269</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>146414</v>
+      </c>
+      <c r="C81" t="s">
+        <v>695</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>618</v>
+        <v>696</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>619</v>
+        <v>697</v>
       </c>
       <c r="J81" t="s">
-        <v>620</v>
+        <v>698</v>
       </c>
       <c r="K81" t="s">
-        <v>621</v>
+        <v>699</v>
       </c>
       <c r="L81" t="s">
-        <v>622</v>
+        <v>700</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>614</v>
+        <v>691</v>
       </c>
       <c r="O81" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P81" t="n">
         <v>2</v>
@@ -7884,56 +8459,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>623</v>
+        <v>701</v>
       </c>
       <c r="X81" t="s">
-        <v>624</v>
+        <v>702</v>
       </c>
       <c r="Y81" t="s">
-        <v>625</v>
+        <v>703</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>36269</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>6580</v>
+      </c>
+      <c r="C82" t="s">
+        <v>704</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>626</v>
+        <v>705</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>627</v>
+        <v>706</v>
       </c>
       <c r="J82" t="s">
-        <v>628</v>
+        <v>707</v>
       </c>
       <c r="K82" t="s">
-        <v>629</v>
+        <v>708</v>
       </c>
       <c r="L82" t="s">
-        <v>630</v>
+        <v>709</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>614</v>
+        <v>691</v>
       </c>
       <c r="O82" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -7955,47 +8534,51 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>631</v>
+        <v>710</v>
       </c>
       <c r="X82" t="s">
-        <v>624</v>
+        <v>702</v>
       </c>
       <c r="Y82" t="s">
-        <v>632</v>
+        <v>711</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>36269</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>146415</v>
+      </c>
+      <c r="C83" t="s">
+        <v>712</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>633</v>
+        <v>713</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>634</v>
+        <v>714</v>
       </c>
       <c r="J83" t="s">
-        <v>635</v>
+        <v>715</v>
       </c>
       <c r="K83" t="s">
-        <v>636</v>
+        <v>716</v>
       </c>
       <c r="L83" t="s">
-        <v>637</v>
+        <v>717</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
@@ -8022,56 +8605,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>638</v>
+        <v>718</v>
       </c>
       <c r="X83" t="s">
-        <v>639</v>
+        <v>719</v>
       </c>
       <c r="Y83" t="s">
-        <v>640</v>
+        <v>720</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>36269</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>146416</v>
+      </c>
+      <c r="C84" t="s">
+        <v>721</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>641</v>
+        <v>722</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>642</v>
+        <v>723</v>
       </c>
       <c r="J84" t="s">
-        <v>643</v>
+        <v>724</v>
       </c>
       <c r="K84" t="s">
-        <v>644</v>
+        <v>725</v>
       </c>
       <c r="L84" t="s">
-        <v>645</v>
+        <v>726</v>
       </c>
       <c r="M84" t="n">
         <v>2</v>
       </c>
       <c r="N84" t="s">
-        <v>646</v>
+        <v>727</v>
       </c>
       <c r="O84" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8093,56 +8680,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>647</v>
+        <v>728</v>
       </c>
       <c r="X84" t="s">
-        <v>648</v>
+        <v>729</v>
       </c>
       <c r="Y84" t="s">
-        <v>649</v>
+        <v>730</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>36269</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>146417</v>
+      </c>
+      <c r="C85" t="s">
+        <v>731</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>650</v>
+        <v>732</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>651</v>
+        <v>733</v>
       </c>
       <c r="J85" t="s">
-        <v>652</v>
+        <v>734</v>
       </c>
       <c r="K85" t="s">
-        <v>653</v>
+        <v>735</v>
       </c>
       <c r="L85" t="s">
-        <v>654</v>
+        <v>736</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>655</v>
+        <v>737</v>
       </c>
       <c r="O85" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8164,56 +8755,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>656</v>
+        <v>738</v>
       </c>
       <c r="X85" t="s">
-        <v>657</v>
+        <v>739</v>
       </c>
       <c r="Y85" t="s">
-        <v>658</v>
+        <v>740</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>36269</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>146418</v>
+      </c>
+      <c r="C86" t="s">
+        <v>741</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>659</v>
+        <v>742</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>660</v>
+        <v>743</v>
       </c>
       <c r="J86" t="s">
-        <v>661</v>
+        <v>744</v>
       </c>
       <c r="K86" t="s">
-        <v>662</v>
+        <v>745</v>
       </c>
       <c r="L86" t="s">
-        <v>663</v>
+        <v>746</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>664</v>
+        <v>747</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8235,56 +8830,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>665</v>
+        <v>748</v>
       </c>
       <c r="X86" t="s">
-        <v>666</v>
+        <v>749</v>
       </c>
       <c r="Y86" t="s">
-        <v>667</v>
+        <v>750</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>36269</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>2915</v>
+      </c>
+      <c r="C87" t="s">
+        <v>751</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>668</v>
+        <v>752</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>669</v>
+        <v>753</v>
       </c>
       <c r="J87" t="s">
-        <v>670</v>
+        <v>754</v>
       </c>
       <c r="K87" t="s">
-        <v>671</v>
+        <v>755</v>
       </c>
       <c r="L87" t="s">
-        <v>672</v>
+        <v>756</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>673</v>
+        <v>757</v>
       </c>
       <c r="O87" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8306,56 +8905,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>665</v>
+        <v>748</v>
       </c>
       <c r="X87" t="s">
-        <v>666</v>
+        <v>749</v>
       </c>
       <c r="Y87" t="s">
-        <v>674</v>
+        <v>758</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>36269</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>146419</v>
+      </c>
+      <c r="C88" t="s">
+        <v>759</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>675</v>
+        <v>760</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>676</v>
+        <v>761</v>
       </c>
       <c r="J88" t="s">
-        <v>677</v>
+        <v>762</v>
       </c>
       <c r="K88" t="s">
-        <v>678</v>
+        <v>763</v>
       </c>
       <c r="L88" t="s">
-        <v>679</v>
+        <v>764</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>680</v>
+        <v>765</v>
       </c>
       <c r="O88" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P88" t="s"/>
       <c r="Q88" t="s"/>
@@ -8369,7 +8972,7 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>679</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_259.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_259.xlsx
@@ -2948,7 +2948,7 @@
         <v>36269</v>
       </c>
       <c r="B3" t="n">
-        <v>146352</v>
+        <v>177685</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -3013,7 +3013,7 @@
         <v>36269</v>
       </c>
       <c r="B4" t="n">
-        <v>146353</v>
+        <v>177686</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -3088,7 +3088,7 @@
         <v>36269</v>
       </c>
       <c r="B5" t="n">
-        <v>146354</v>
+        <v>177687</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -3159,7 +3159,7 @@
         <v>36269</v>
       </c>
       <c r="B6" t="n">
-        <v>146355</v>
+        <v>177688</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
@@ -3224,7 +3224,7 @@
         <v>36269</v>
       </c>
       <c r="B7" t="n">
-        <v>146356</v>
+        <v>177689</v>
       </c>
       <c r="C7" t="s">
         <v>99</v>
@@ -3295,7 +3295,7 @@
         <v>36269</v>
       </c>
       <c r="B8" t="n">
-        <v>146357</v>
+        <v>177690</v>
       </c>
       <c r="C8" t="s">
         <v>108</v>
@@ -3360,7 +3360,7 @@
         <v>36269</v>
       </c>
       <c r="B9" t="n">
-        <v>146358</v>
+        <v>177691</v>
       </c>
       <c r="C9" t="s">
         <v>118</v>
@@ -3435,7 +3435,7 @@
         <v>36269</v>
       </c>
       <c r="B10" t="n">
-        <v>146359</v>
+        <v>177692</v>
       </c>
       <c r="C10" t="s">
         <v>126</v>
@@ -3510,7 +3510,7 @@
         <v>36269</v>
       </c>
       <c r="B11" t="n">
-        <v>146360</v>
+        <v>177693</v>
       </c>
       <c r="C11" t="s">
         <v>135</v>
@@ -3585,7 +3585,7 @@
         <v>36269</v>
       </c>
       <c r="B12" t="n">
-        <v>146361</v>
+        <v>177694</v>
       </c>
       <c r="C12" t="s">
         <v>145</v>
@@ -3660,7 +3660,7 @@
         <v>36269</v>
       </c>
       <c r="B13" t="n">
-        <v>146362</v>
+        <v>177695</v>
       </c>
       <c r="C13" t="s">
         <v>154</v>
@@ -3800,7 +3800,7 @@
         <v>36269</v>
       </c>
       <c r="B15" t="n">
-        <v>146363</v>
+        <v>177696</v>
       </c>
       <c r="C15" t="s">
         <v>172</v>
@@ -3875,7 +3875,7 @@
         <v>36269</v>
       </c>
       <c r="B16" t="n">
-        <v>146364</v>
+        <v>177697</v>
       </c>
       <c r="C16" t="s">
         <v>181</v>
@@ -3950,7 +3950,7 @@
         <v>36269</v>
       </c>
       <c r="B17" t="n">
-        <v>146365</v>
+        <v>177698</v>
       </c>
       <c r="C17" t="s">
         <v>191</v>
@@ -4025,7 +4025,7 @@
         <v>36269</v>
       </c>
       <c r="B18" t="n">
-        <v>146366</v>
+        <v>177699</v>
       </c>
       <c r="C18" t="s">
         <v>200</v>
@@ -4100,7 +4100,7 @@
         <v>36269</v>
       </c>
       <c r="B19" t="n">
-        <v>146367</v>
+        <v>177700</v>
       </c>
       <c r="C19" t="s">
         <v>209</v>
@@ -4175,7 +4175,7 @@
         <v>36269</v>
       </c>
       <c r="B20" t="n">
-        <v>146368</v>
+        <v>177701</v>
       </c>
       <c r="C20" t="s">
         <v>218</v>
@@ -4244,7 +4244,7 @@
         <v>36269</v>
       </c>
       <c r="B21" t="n">
-        <v>146369</v>
+        <v>177702</v>
       </c>
       <c r="C21" t="s">
         <v>228</v>
@@ -4370,7 +4370,7 @@
         <v>36269</v>
       </c>
       <c r="B23" t="n">
-        <v>146370</v>
+        <v>177703</v>
       </c>
       <c r="C23" t="s">
         <v>243</v>
@@ -4504,7 +4504,7 @@
         <v>36269</v>
       </c>
       <c r="B25" t="n">
-        <v>146371</v>
+        <v>177704</v>
       </c>
       <c r="C25" t="s">
         <v>258</v>
@@ -4630,7 +4630,7 @@
         <v>36269</v>
       </c>
       <c r="B27" t="n">
-        <v>146372</v>
+        <v>177705</v>
       </c>
       <c r="C27" t="s">
         <v>277</v>
@@ -4701,7 +4701,7 @@
         <v>36269</v>
       </c>
       <c r="B28" t="n">
-        <v>146373</v>
+        <v>177706</v>
       </c>
       <c r="C28" t="s">
         <v>287</v>
@@ -4833,7 +4833,7 @@
         <v>36269</v>
       </c>
       <c r="B30" t="n">
-        <v>146374</v>
+        <v>177707</v>
       </c>
       <c r="C30" t="s">
         <v>301</v>
@@ -4894,7 +4894,7 @@
         <v>36269</v>
       </c>
       <c r="B31" t="n">
-        <v>146375</v>
+        <v>177708</v>
       </c>
       <c r="C31" t="s">
         <v>307</v>
@@ -4959,7 +4959,7 @@
         <v>36269</v>
       </c>
       <c r="B32" t="n">
-        <v>146376</v>
+        <v>177709</v>
       </c>
       <c r="C32" t="s">
         <v>313</v>
@@ -5030,7 +5030,7 @@
         <v>36269</v>
       </c>
       <c r="B33" t="n">
-        <v>146377</v>
+        <v>177710</v>
       </c>
       <c r="C33" t="s">
         <v>323</v>
@@ -5101,7 +5101,7 @@
         <v>36269</v>
       </c>
       <c r="B34" t="n">
-        <v>146378</v>
+        <v>177711</v>
       </c>
       <c r="C34" t="s">
         <v>333</v>
@@ -5166,7 +5166,7 @@
         <v>36269</v>
       </c>
       <c r="B35" t="n">
-        <v>146379</v>
+        <v>177712</v>
       </c>
       <c r="C35" t="s">
         <v>340</v>
@@ -5298,7 +5298,7 @@
         <v>36269</v>
       </c>
       <c r="B37" t="n">
-        <v>146380</v>
+        <v>177713</v>
       </c>
       <c r="C37" t="s">
         <v>356</v>
@@ -5430,7 +5430,7 @@
         <v>36269</v>
       </c>
       <c r="B39" t="n">
-        <v>146381</v>
+        <v>177714</v>
       </c>
       <c r="C39" t="s">
         <v>372</v>
@@ -5552,7 +5552,7 @@
         <v>36269</v>
       </c>
       <c r="B41" t="n">
-        <v>146382</v>
+        <v>177715</v>
       </c>
       <c r="C41" t="s">
         <v>385</v>
@@ -5690,7 +5690,7 @@
         <v>36269</v>
       </c>
       <c r="B43" t="n">
-        <v>146383</v>
+        <v>177716</v>
       </c>
       <c r="C43" t="s">
         <v>398</v>
@@ -5761,7 +5761,7 @@
         <v>36269</v>
       </c>
       <c r="B44" t="n">
-        <v>146384</v>
+        <v>146365</v>
       </c>
       <c r="C44" t="s">
         <v>405</v>
@@ -5832,7 +5832,7 @@
         <v>36269</v>
       </c>
       <c r="B45" t="n">
-        <v>146385</v>
+        <v>177717</v>
       </c>
       <c r="C45" t="s">
         <v>413</v>
@@ -5903,7 +5903,7 @@
         <v>36269</v>
       </c>
       <c r="B46" t="n">
-        <v>146386</v>
+        <v>177718</v>
       </c>
       <c r="C46" t="s">
         <v>418</v>
@@ -5972,7 +5972,7 @@
         <v>36269</v>
       </c>
       <c r="B47" t="n">
-        <v>146387</v>
+        <v>177719</v>
       </c>
       <c r="C47" t="s">
         <v>423</v>
@@ -6039,7 +6039,7 @@
         <v>36269</v>
       </c>
       <c r="B48" t="n">
-        <v>146388</v>
+        <v>177720</v>
       </c>
       <c r="C48" t="s">
         <v>429</v>
@@ -6110,7 +6110,7 @@
         <v>36269</v>
       </c>
       <c r="B49" t="n">
-        <v>146389</v>
+        <v>177721</v>
       </c>
       <c r="C49" t="s">
         <v>437</v>
@@ -6181,7 +6181,7 @@
         <v>36269</v>
       </c>
       <c r="B50" t="n">
-        <v>146390</v>
+        <v>177722</v>
       </c>
       <c r="C50" t="s">
         <v>444</v>
@@ -6321,7 +6321,7 @@
         <v>36269</v>
       </c>
       <c r="B52" t="n">
-        <v>146391</v>
+        <v>177723</v>
       </c>
       <c r="C52" t="s">
         <v>459</v>
@@ -6382,7 +6382,7 @@
         <v>36269</v>
       </c>
       <c r="B53" t="n">
-        <v>146392</v>
+        <v>177724</v>
       </c>
       <c r="C53" t="s">
         <v>464</v>
@@ -6510,7 +6510,7 @@
         <v>36269</v>
       </c>
       <c r="B55" t="n">
-        <v>146393</v>
+        <v>146366</v>
       </c>
       <c r="C55" t="s">
         <v>477</v>
@@ -6585,7 +6585,7 @@
         <v>36269</v>
       </c>
       <c r="B56" t="n">
-        <v>146394</v>
+        <v>177725</v>
       </c>
       <c r="C56" t="s">
         <v>486</v>
@@ -6723,7 +6723,7 @@
         <v>36269</v>
       </c>
       <c r="B58" t="n">
-        <v>146395</v>
+        <v>177726</v>
       </c>
       <c r="C58" t="s">
         <v>500</v>
@@ -6794,7 +6794,7 @@
         <v>36269</v>
       </c>
       <c r="B59" t="n">
-        <v>146396</v>
+        <v>177727</v>
       </c>
       <c r="C59" t="s">
         <v>506</v>
@@ -6940,7 +6940,7 @@
         <v>36269</v>
       </c>
       <c r="B61" t="n">
-        <v>146397</v>
+        <v>177728</v>
       </c>
       <c r="C61" t="s">
         <v>525</v>
@@ -7011,7 +7011,7 @@
         <v>36269</v>
       </c>
       <c r="B62" t="n">
-        <v>146398</v>
+        <v>177729</v>
       </c>
       <c r="C62" t="s">
         <v>534</v>
@@ -7082,7 +7082,7 @@
         <v>36269</v>
       </c>
       <c r="B63" t="n">
-        <v>146399</v>
+        <v>177730</v>
       </c>
       <c r="C63" t="s">
         <v>542</v>
@@ -7157,7 +7157,7 @@
         <v>36269</v>
       </c>
       <c r="B64" t="n">
-        <v>146400</v>
+        <v>177731</v>
       </c>
       <c r="C64" t="s">
         <v>551</v>
@@ -7232,7 +7232,7 @@
         <v>36269</v>
       </c>
       <c r="B65" t="n">
-        <v>146401</v>
+        <v>177732</v>
       </c>
       <c r="C65" t="s">
         <v>560</v>
@@ -7303,7 +7303,7 @@
         <v>36269</v>
       </c>
       <c r="B66" t="n">
-        <v>146383</v>
+        <v>146365</v>
       </c>
       <c r="C66" t="s">
         <v>405</v>
@@ -7374,7 +7374,7 @@
         <v>36269</v>
       </c>
       <c r="B67" t="n">
-        <v>146402</v>
+        <v>177733</v>
       </c>
       <c r="C67" t="s">
         <v>576</v>
@@ -7445,7 +7445,7 @@
         <v>36269</v>
       </c>
       <c r="B68" t="n">
-        <v>146403</v>
+        <v>177734</v>
       </c>
       <c r="C68" t="s">
         <v>583</v>
@@ -7516,7 +7516,7 @@
         <v>36269</v>
       </c>
       <c r="B69" t="n">
-        <v>146392</v>
+        <v>146366</v>
       </c>
       <c r="C69" t="s">
         <v>477</v>
@@ -7587,7 +7587,7 @@
         <v>36269</v>
       </c>
       <c r="B70" t="n">
-        <v>146404</v>
+        <v>177735</v>
       </c>
       <c r="C70" t="s">
         <v>595</v>
@@ -7662,7 +7662,7 @@
         <v>36269</v>
       </c>
       <c r="B71" t="n">
-        <v>146405</v>
+        <v>177736</v>
       </c>
       <c r="C71" t="s">
         <v>604</v>
@@ -7733,7 +7733,7 @@
         <v>36269</v>
       </c>
       <c r="B72" t="n">
-        <v>146406</v>
+        <v>177737</v>
       </c>
       <c r="C72" t="s">
         <v>613</v>
@@ -7808,7 +7808,7 @@
         <v>36269</v>
       </c>
       <c r="B73" t="n">
-        <v>146407</v>
+        <v>177738</v>
       </c>
       <c r="C73" t="s">
         <v>623</v>
@@ -7883,7 +7883,7 @@
         <v>36269</v>
       </c>
       <c r="B74" t="n">
-        <v>146408</v>
+        <v>177739</v>
       </c>
       <c r="C74" t="s">
         <v>630</v>
@@ -7958,7 +7958,7 @@
         <v>36269</v>
       </c>
       <c r="B75" t="n">
-        <v>146409</v>
+        <v>177740</v>
       </c>
       <c r="C75" t="s">
         <v>639</v>
@@ -8108,7 +8108,7 @@
         <v>36269</v>
       </c>
       <c r="B77" t="n">
-        <v>146410</v>
+        <v>177741</v>
       </c>
       <c r="C77" t="s">
         <v>658</v>
@@ -8173,7 +8173,7 @@
         <v>36269</v>
       </c>
       <c r="B78" t="n">
-        <v>146411</v>
+        <v>177742</v>
       </c>
       <c r="C78" t="s">
         <v>668</v>
@@ -8248,7 +8248,7 @@
         <v>36269</v>
       </c>
       <c r="B79" t="n">
-        <v>146412</v>
+        <v>177743</v>
       </c>
       <c r="C79" t="s">
         <v>677</v>
@@ -8323,7 +8323,7 @@
         <v>36269</v>
       </c>
       <c r="B80" t="n">
-        <v>146413</v>
+        <v>177744</v>
       </c>
       <c r="C80" t="s">
         <v>685</v>
@@ -8398,7 +8398,7 @@
         <v>36269</v>
       </c>
       <c r="B81" t="n">
-        <v>146414</v>
+        <v>177745</v>
       </c>
       <c r="C81" t="s">
         <v>695</v>
@@ -8548,7 +8548,7 @@
         <v>36269</v>
       </c>
       <c r="B83" t="n">
-        <v>146415</v>
+        <v>177746</v>
       </c>
       <c r="C83" t="s">
         <v>712</v>
@@ -8619,7 +8619,7 @@
         <v>36269</v>
       </c>
       <c r="B84" t="n">
-        <v>146416</v>
+        <v>177747</v>
       </c>
       <c r="C84" t="s">
         <v>721</v>
@@ -8694,7 +8694,7 @@
         <v>36269</v>
       </c>
       <c r="B85" t="n">
-        <v>146417</v>
+        <v>177748</v>
       </c>
       <c r="C85" t="s">
         <v>731</v>
@@ -8769,7 +8769,7 @@
         <v>36269</v>
       </c>
       <c r="B86" t="n">
-        <v>146418</v>
+        <v>177749</v>
       </c>
       <c r="C86" t="s">
         <v>741</v>
@@ -8919,7 +8919,7 @@
         <v>36269</v>
       </c>
       <c r="B88" t="n">
-        <v>146419</v>
+        <v>177750</v>
       </c>
       <c r="C88" t="s">
         <v>759</v>
